--- a/ĐỒ ÁN/NHÓM 1- Ô TÔ 5 CHỖ (Thông số lốp).xlsx
+++ b/ĐỒ ÁN/NHÓM 1- Ô TÔ 5 CHỖ (Thông số lốp).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Lưu Trữ\ĐỒ ÁN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FileStore\ĐỒ ÁN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55E2F556-6DD8-49F5-970C-461A4BABB27A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{270C7E43-6C4B-4A37-874E-84A6DF0998FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42748,8 +42748,26 @@
     <xf numFmtId="0" fontId="169" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -42757,44 +42775,17 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -42811,17 +42802,26 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -42886,67 +42886,26 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="116" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="165" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="85" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="166" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="166" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="165" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="123" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="115" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="166" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="166" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="115" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="116" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="117" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="116" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="116" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="115" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="115" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="115" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="115" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="115" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="115" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="87" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="116" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="116" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="116" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="116" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="85" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -42955,7 +42914,73 @@
     <xf numFmtId="0" fontId="85" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="85" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="168" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="168" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="168" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="168" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="168" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="168" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="168" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="168" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="116" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="116" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="116" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="116" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="116" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="116" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="116" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="116" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="116" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="116" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -42979,6 +43004,167 @@
     <xf numFmtId="0" fontId="116" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="116" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="116" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="167" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="166" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="166" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="167" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="164" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="116" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="115" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="115" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="116" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="116" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="117" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="115" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="115" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="115" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="115" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="115" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="115" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="86" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="86" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="86" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="115" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="115" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="115" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="115" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="115" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="116" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="116" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="115" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="86" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="86" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="115" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="116" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="116" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="115" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="115" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="115" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="116" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="116" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="116" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="116" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="116" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="115" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -42989,9 +43175,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="115" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="115" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="86" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -43012,218 +43195,35 @@
     <xf numFmtId="0" fontId="86" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="87" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="115" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="87" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="115" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="116" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="116" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="116" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="123" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="115" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="116" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="115" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="116" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="116" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="116" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="115" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="115" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="116" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="116" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="84" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="84" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="84" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="86" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="86" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="115" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="115" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="115" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="115" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="87" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="115" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="85" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="115" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="115" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="85" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="85" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="85" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="117" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="115" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="115" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="86" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="86" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="86" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="115" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="116" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="116" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="116" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="116" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="116" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="115" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="85" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="85" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="85" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="85" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="116" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="164" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="116" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="116" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="116" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="116" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="167" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="166" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="166" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="167" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="166" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="165" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="166" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="166" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="165" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="166" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="168" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="168" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="168" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="168" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="168" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="168" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="168" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="168" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="59">
@@ -44111,33 +44111,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="20.399999999999999">
-      <c r="A1" s="519" t="s">
+      <c r="A1" s="511" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="518"/>
-      <c r="C1" s="518"/>
-      <c r="D1" s="518"/>
-      <c r="E1" s="518"/>
-      <c r="F1" s="518"/>
+      <c r="B1" s="512"/>
+      <c r="C1" s="512"/>
+      <c r="D1" s="512"/>
+      <c r="E1" s="512"/>
+      <c r="F1" s="512"/>
     </row>
     <row r="2" spans="1:29">
-      <c r="A2" s="512">
+      <c r="A2" s="518">
         <v>1</v>
       </c>
-      <c r="B2" s="513" t="s">
+      <c r="B2" s="519" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="514"/>
-      <c r="D2" s="517" t="s">
+      <c r="C2" s="517"/>
+      <c r="D2" s="513" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="517"/>
+      <c r="E2" s="513"/>
       <c r="F2" s="195"/>
     </row>
     <row r="3" spans="1:29" ht="33.6">
-      <c r="A3" s="512"/>
-      <c r="B3" s="514"/>
-      <c r="C3" s="514"/>
+      <c r="A3" s="518"/>
+      <c r="B3" s="517"/>
+      <c r="C3" s="517"/>
       <c r="D3" s="197" t="s">
         <v>3</v>
       </c>
@@ -44220,10 +44220,10 @@
       <c r="B10" s="190">
         <v>1</v>
       </c>
-      <c r="C10" s="511" t="s">
+      <c r="C10" s="514" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="511"/>
+      <c r="D10" s="514"/>
       <c r="E10" s="190">
         <v>5</v>
       </c>
@@ -44238,10 +44238,10 @@
       <c r="B11" s="190">
         <v>2</v>
       </c>
-      <c r="C11" s="516" t="s">
+      <c r="C11" s="515" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="516"/>
+      <c r="D11" s="515"/>
       <c r="F11" s="201" t="s">
         <v>9</v>
       </c>
@@ -44253,10 +44253,10 @@
       <c r="B12" s="190">
         <v>3</v>
       </c>
-      <c r="C12" s="511" t="s">
+      <c r="C12" s="514" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="511"/>
+      <c r="D12" s="514"/>
       <c r="F12" s="201" t="s">
         <v>11</v>
       </c>
@@ -44269,14 +44269,14 @@
       <c r="B13" s="190">
         <v>4</v>
       </c>
-      <c r="C13" s="511" t="s">
+      <c r="C13" s="514" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="511"/>
-      <c r="E13" s="516" t="s">
+      <c r="D13" s="514"/>
+      <c r="E13" s="515" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="516"/>
+      <c r="F13" s="515"/>
       <c r="G13" s="194"/>
       <c r="H13" s="194"/>
       <c r="K13" s="194"/>
@@ -44291,144 +44291,144 @@
       <c r="AC13" s="194"/>
     </row>
     <row r="15" spans="1:29">
-      <c r="A15" s="517" t="s">
+      <c r="A15" s="513" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="518"/>
-      <c r="C15" s="518"/>
-      <c r="D15" s="518"/>
-      <c r="E15" s="518"/>
-      <c r="F15" s="518"/>
+      <c r="B15" s="512"/>
+      <c r="C15" s="512"/>
+      <c r="D15" s="512"/>
+      <c r="E15" s="512"/>
+      <c r="F15" s="512"/>
     </row>
     <row r="16" spans="1:29">
       <c r="A16" s="198"/>
-      <c r="B16" s="511" t="s">
+      <c r="B16" s="514" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="511"/>
-      <c r="D16" s="511"/>
-      <c r="E16" s="511"/>
-      <c r="F16" s="511"/>
+      <c r="C16" s="514"/>
+      <c r="D16" s="514"/>
+      <c r="E16" s="514"/>
+      <c r="F16" s="514"/>
     </row>
     <row r="17" spans="1:38">
       <c r="A17" s="198"/>
-      <c r="B17" s="511" t="s">
+      <c r="B17" s="514" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="511"/>
-      <c r="D17" s="511"/>
-      <c r="E17" s="511"/>
-      <c r="F17" s="511"/>
+      <c r="C17" s="514"/>
+      <c r="D17" s="514"/>
+      <c r="E17" s="514"/>
+      <c r="F17" s="514"/>
     </row>
     <row r="18" spans="1:38">
       <c r="A18" s="198"/>
       <c r="B18" s="195"/>
-      <c r="C18" s="511" t="s">
+      <c r="C18" s="514" t="s">
         <v>17</v>
       </c>
-      <c r="D18" s="511"/>
-      <c r="E18" s="511"/>
-      <c r="F18" s="511"/>
+      <c r="D18" s="514"/>
+      <c r="E18" s="514"/>
+      <c r="F18" s="514"/>
     </row>
     <row r="19" spans="1:38">
       <c r="A19" s="198"/>
       <c r="B19" s="195"/>
-      <c r="C19" s="511" t="s">
+      <c r="C19" s="514" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="511"/>
-      <c r="E19" s="511"/>
-      <c r="F19" s="511"/>
+      <c r="D19" s="514"/>
+      <c r="E19" s="514"/>
+      <c r="F19" s="514"/>
     </row>
     <row r="20" spans="1:38">
       <c r="A20" s="198"/>
       <c r="B20" s="195"/>
-      <c r="C20" s="511" t="s">
+      <c r="C20" s="514" t="s">
         <v>19</v>
       </c>
-      <c r="D20" s="511"/>
-      <c r="E20" s="511"/>
-      <c r="F20" s="511"/>
+      <c r="D20" s="514"/>
+      <c r="E20" s="514"/>
+      <c r="F20" s="514"/>
     </row>
     <row r="21" spans="1:38">
       <c r="A21" s="198"/>
       <c r="B21" s="195"/>
-      <c r="C21" s="511" t="s">
+      <c r="C21" s="514" t="s">
         <v>20</v>
       </c>
-      <c r="D21" s="511"/>
-      <c r="E21" s="511"/>
-      <c r="F21" s="511"/>
+      <c r="D21" s="514"/>
+      <c r="E21" s="514"/>
+      <c r="F21" s="514"/>
     </row>
     <row r="22" spans="1:38">
       <c r="A22" s="198"/>
-      <c r="B22" s="511" t="s">
+      <c r="B22" s="514" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="511"/>
-      <c r="D22" s="511"/>
-      <c r="E22" s="511"/>
-      <c r="F22" s="511"/>
+      <c r="C22" s="514"/>
+      <c r="D22" s="514"/>
+      <c r="E22" s="514"/>
+      <c r="F22" s="514"/>
     </row>
     <row r="23" spans="1:38">
       <c r="A23" s="198"/>
-      <c r="B23" s="511" t="s">
+      <c r="B23" s="514" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="511"/>
-      <c r="D23" s="511"/>
-      <c r="E23" s="511"/>
-      <c r="F23" s="511"/>
+      <c r="C23" s="514"/>
+      <c r="D23" s="514"/>
+      <c r="E23" s="514"/>
+      <c r="F23" s="514"/>
     </row>
     <row r="24" spans="1:38">
       <c r="A24" s="198"/>
-      <c r="B24" s="511" t="s">
+      <c r="B24" s="514" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="511"/>
-      <c r="D24" s="511"/>
-      <c r="E24" s="511"/>
-      <c r="F24" s="511"/>
+      <c r="C24" s="514"/>
+      <c r="D24" s="514"/>
+      <c r="E24" s="514"/>
+      <c r="F24" s="514"/>
     </row>
     <row r="25" spans="1:38">
       <c r="A25" s="198"/>
-      <c r="B25" s="511" t="s">
+      <c r="B25" s="514" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="511"/>
-      <c r="D25" s="511"/>
-      <c r="E25" s="511"/>
-      <c r="F25" s="511"/>
+      <c r="C25" s="514"/>
+      <c r="D25" s="514"/>
+      <c r="E25" s="514"/>
+      <c r="F25" s="514"/>
     </row>
     <row r="26" spans="1:38">
       <c r="A26" s="198"/>
-      <c r="B26" s="511" t="s">
+      <c r="B26" s="514" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="511"/>
-      <c r="D26" s="511"/>
-      <c r="E26" s="511"/>
-      <c r="F26" s="511"/>
+      <c r="C26" s="514"/>
+      <c r="D26" s="514"/>
+      <c r="E26" s="514"/>
+      <c r="F26" s="514"/>
     </row>
     <row r="27" spans="1:38" ht="51" customHeight="1">
       <c r="A27" s="198"/>
       <c r="B27" s="195"/>
-      <c r="C27" s="515" t="s">
+      <c r="C27" s="516" t="s">
         <v>26</v>
       </c>
-      <c r="D27" s="516"/>
-      <c r="E27" s="516"/>
-      <c r="F27" s="516"/>
+      <c r="D27" s="515"/>
+      <c r="E27" s="515"/>
+      <c r="F27" s="515"/>
     </row>
     <row r="28" spans="1:38">
       <c r="A28" s="198"/>
-      <c r="B28" s="511" t="s">
+      <c r="B28" s="514" t="s">
         <v>27</v>
       </c>
-      <c r="C28" s="511"/>
-      <c r="D28" s="511"/>
-      <c r="E28" s="511"/>
-      <c r="F28" s="511"/>
+      <c r="C28" s="514"/>
+      <c r="D28" s="514"/>
+      <c r="E28" s="514"/>
+      <c r="F28" s="514"/>
     </row>
     <row r="29" spans="1:38">
       <c r="A29" s="198"/>
@@ -44439,14 +44439,14 @@
       <c r="F29" s="201"/>
     </row>
     <row r="31" spans="1:38">
-      <c r="A31" s="514" t="s">
+      <c r="A31" s="517" t="s">
         <v>28</v>
       </c>
-      <c r="B31" s="514"/>
-      <c r="C31" s="514"/>
-      <c r="D31" s="514"/>
-      <c r="E31" s="514"/>
-      <c r="F31" s="514"/>
+      <c r="B31" s="517"/>
+      <c r="C31" s="517"/>
+      <c r="D31" s="517"/>
+      <c r="E31" s="517"/>
+      <c r="F31" s="517"/>
     </row>
     <row r="32" spans="1:38">
       <c r="A32" s="192" t="s">
@@ -44455,12 +44455,12 @@
       <c r="B32" s="193" t="s">
         <v>30</v>
       </c>
-      <c r="C32" s="511" t="s">
+      <c r="C32" s="514" t="s">
         <v>31</v>
       </c>
-      <c r="D32" s="511"/>
-      <c r="E32" s="511"/>
-      <c r="F32" s="511"/>
+      <c r="D32" s="514"/>
+      <c r="E32" s="514"/>
+      <c r="F32" s="514"/>
       <c r="G32" s="202"/>
       <c r="H32" s="202"/>
       <c r="I32" s="200"/>
@@ -44498,12 +44498,12 @@
       <c r="B33" s="193" t="s">
         <v>32</v>
       </c>
-      <c r="C33" s="511" t="s">
+      <c r="C33" s="514" t="s">
         <v>33</v>
       </c>
-      <c r="D33" s="511"/>
-      <c r="E33" s="511"/>
-      <c r="F33" s="511"/>
+      <c r="D33" s="514"/>
+      <c r="E33" s="514"/>
+      <c r="F33" s="514"/>
       <c r="G33" s="202"/>
       <c r="H33" s="202"/>
       <c r="I33" s="200"/>
@@ -44541,12 +44541,12 @@
       <c r="B34" s="193" t="s">
         <v>34</v>
       </c>
-      <c r="C34" s="511" t="s">
+      <c r="C34" s="514" t="s">
         <v>35</v>
       </c>
-      <c r="D34" s="511"/>
-      <c r="E34" s="511"/>
-      <c r="F34" s="511"/>
+      <c r="D34" s="514"/>
+      <c r="E34" s="514"/>
+      <c r="F34" s="514"/>
       <c r="G34" s="191"/>
       <c r="H34" s="191"/>
       <c r="I34" s="193"/>
@@ -44577,12 +44577,12 @@
       <c r="B35" s="193" t="s">
         <v>36</v>
       </c>
-      <c r="C35" s="511" t="s">
+      <c r="C35" s="514" t="s">
         <v>37</v>
       </c>
-      <c r="D35" s="511"/>
-      <c r="E35" s="511"/>
-      <c r="F35" s="511"/>
+      <c r="D35" s="514"/>
+      <c r="E35" s="514"/>
+      <c r="F35" s="514"/>
       <c r="G35" s="202"/>
       <c r="H35" s="202"/>
       <c r="I35" s="200"/>
@@ -44613,12 +44613,12 @@
       <c r="B36" s="193" t="s">
         <v>38</v>
       </c>
-      <c r="C36" s="511" t="s">
+      <c r="C36" s="514" t="s">
         <v>39</v>
       </c>
-      <c r="D36" s="511"/>
-      <c r="E36" s="511"/>
-      <c r="F36" s="511"/>
+      <c r="D36" s="514"/>
+      <c r="E36" s="514"/>
+      <c r="F36" s="514"/>
       <c r="G36" s="202"/>
       <c r="H36" s="202"/>
       <c r="I36" s="200"/>
@@ -44680,11 +44680,11 @@
         <v>29</v>
       </c>
       <c r="C38" s="201"/>
-      <c r="D38" s="511" t="s">
+      <c r="D38" s="514" t="s">
         <v>41</v>
       </c>
-      <c r="E38" s="511"/>
-      <c r="F38" s="511"/>
+      <c r="E38" s="514"/>
+      <c r="F38" s="514"/>
       <c r="G38" s="202"/>
       <c r="H38" s="202"/>
       <c r="I38" s="200"/>
@@ -44713,11 +44713,11 @@
         <v>29</v>
       </c>
       <c r="C39" s="201"/>
-      <c r="D39" s="511" t="s">
+      <c r="D39" s="514" t="s">
         <v>42</v>
       </c>
-      <c r="E39" s="511"/>
-      <c r="F39" s="511"/>
+      <c r="E39" s="514"/>
+      <c r="F39" s="514"/>
       <c r="G39" s="202"/>
       <c r="H39" s="202"/>
       <c r="I39" s="200"/>
@@ -44748,12 +44748,12 @@
       <c r="B40" s="193" t="s">
         <v>43</v>
       </c>
-      <c r="C40" s="511" t="s">
+      <c r="C40" s="514" t="s">
         <v>44</v>
       </c>
-      <c r="D40" s="511"/>
-      <c r="E40" s="511"/>
-      <c r="F40" s="511"/>
+      <c r="D40" s="514"/>
+      <c r="E40" s="514"/>
+      <c r="F40" s="514"/>
       <c r="G40" s="202"/>
       <c r="H40" s="202"/>
       <c r="I40" s="200"/>
@@ -44815,11 +44815,11 @@
         <v>29</v>
       </c>
       <c r="C42" s="201"/>
-      <c r="D42" s="511" t="s">
+      <c r="D42" s="514" t="s">
         <v>45</v>
       </c>
-      <c r="E42" s="511"/>
-      <c r="F42" s="511"/>
+      <c r="E42" s="514"/>
+      <c r="F42" s="514"/>
       <c r="G42" s="202"/>
       <c r="H42" s="202"/>
       <c r="I42" s="200"/>
@@ -44848,11 +44848,11 @@
         <v>29</v>
       </c>
       <c r="C43" s="201"/>
-      <c r="D43" s="511" t="s">
+      <c r="D43" s="514" t="s">
         <v>46</v>
       </c>
-      <c r="E43" s="511"/>
-      <c r="F43" s="511"/>
+      <c r="E43" s="514"/>
+      <c r="F43" s="514"/>
       <c r="G43" s="202"/>
       <c r="H43" s="202"/>
       <c r="I43" s="200"/>
@@ -44883,12 +44883,12 @@
       <c r="B44" s="193" t="s">
         <v>47</v>
       </c>
-      <c r="C44" s="511" t="s">
+      <c r="C44" s="514" t="s">
         <v>48</v>
       </c>
-      <c r="D44" s="511"/>
-      <c r="E44" s="511"/>
-      <c r="F44" s="511"/>
+      <c r="D44" s="514"/>
+      <c r="E44" s="514"/>
+      <c r="F44" s="514"/>
       <c r="G44" s="202"/>
       <c r="H44" s="202"/>
       <c r="I44" s="200"/>
@@ -44919,12 +44919,12 @@
       <c r="B45" s="193" t="s">
         <v>49</v>
       </c>
-      <c r="C45" s="511" t="s">
+      <c r="C45" s="514" t="s">
         <v>50</v>
       </c>
-      <c r="D45" s="511"/>
-      <c r="E45" s="511"/>
-      <c r="F45" s="511"/>
+      <c r="D45" s="514"/>
+      <c r="E45" s="514"/>
+      <c r="F45" s="514"/>
       <c r="G45" s="202"/>
       <c r="H45" s="202"/>
       <c r="I45" s="200"/>
@@ -44955,12 +44955,12 @@
       <c r="B46" s="193" t="s">
         <v>51</v>
       </c>
-      <c r="C46" s="511" t="s">
+      <c r="C46" s="514" t="s">
         <v>52</v>
       </c>
-      <c r="D46" s="511"/>
-      <c r="E46" s="511"/>
-      <c r="F46" s="511"/>
+      <c r="D46" s="514"/>
+      <c r="E46" s="514"/>
+      <c r="F46" s="514"/>
       <c r="G46" s="202"/>
       <c r="H46" s="202"/>
       <c r="I46" s="200"/>
@@ -44991,12 +44991,12 @@
       <c r="B47" s="193" t="s">
         <v>53</v>
       </c>
-      <c r="C47" s="511" t="s">
+      <c r="C47" s="514" t="s">
         <v>54</v>
       </c>
-      <c r="D47" s="511"/>
-      <c r="E47" s="511"/>
-      <c r="F47" s="511"/>
+      <c r="D47" s="514"/>
+      <c r="E47" s="514"/>
+      <c r="F47" s="514"/>
       <c r="G47" s="202"/>
       <c r="H47" s="202"/>
       <c r="I47" s="200"/>
@@ -45027,12 +45027,12 @@
       <c r="B48" s="193" t="s">
         <v>55</v>
       </c>
-      <c r="C48" s="511" t="s">
+      <c r="C48" s="514" t="s">
         <v>56</v>
       </c>
-      <c r="D48" s="511"/>
-      <c r="E48" s="511"/>
-      <c r="F48" s="511"/>
+      <c r="D48" s="514"/>
+      <c r="E48" s="514"/>
+      <c r="F48" s="514"/>
       <c r="G48" s="202"/>
       <c r="H48" s="202"/>
       <c r="I48" s="200"/>
@@ -45063,12 +45063,12 @@
       <c r="B49" s="193" t="s">
         <v>57</v>
       </c>
-      <c r="C49" s="511" t="s">
+      <c r="C49" s="514" t="s">
         <v>58</v>
       </c>
-      <c r="D49" s="511"/>
-      <c r="E49" s="511"/>
-      <c r="F49" s="511"/>
+      <c r="D49" s="514"/>
+      <c r="E49" s="514"/>
+      <c r="F49" s="514"/>
       <c r="G49" s="202"/>
       <c r="H49" s="202"/>
       <c r="I49" s="200"/>
@@ -45099,12 +45099,12 @@
       <c r="B50" s="193" t="s">
         <v>59</v>
       </c>
-      <c r="C50" s="511" t="s">
+      <c r="C50" s="514" t="s">
         <v>60</v>
       </c>
-      <c r="D50" s="511"/>
-      <c r="E50" s="511"/>
-      <c r="F50" s="511"/>
+      <c r="D50" s="514"/>
+      <c r="E50" s="514"/>
+      <c r="F50" s="514"/>
       <c r="G50" s="202"/>
       <c r="H50" s="202"/>
       <c r="I50" s="200"/>
@@ -45135,12 +45135,12 @@
       <c r="B51" s="193" t="s">
         <v>61</v>
       </c>
-      <c r="C51" s="511" t="s">
+      <c r="C51" s="514" t="s">
         <v>62</v>
       </c>
-      <c r="D51" s="511"/>
-      <c r="E51" s="511"/>
-      <c r="F51" s="511"/>
+      <c r="D51" s="514"/>
+      <c r="E51" s="514"/>
+      <c r="F51" s="514"/>
       <c r="G51" s="202"/>
       <c r="H51" s="202"/>
       <c r="I51" s="200"/>
@@ -45171,12 +45171,12 @@
       <c r="B52" s="193" t="s">
         <v>63</v>
       </c>
-      <c r="C52" s="511" t="s">
+      <c r="C52" s="514" t="s">
         <v>64</v>
       </c>
-      <c r="D52" s="511"/>
-      <c r="E52" s="511"/>
-      <c r="F52" s="511"/>
+      <c r="D52" s="514"/>
+      <c r="E52" s="514"/>
+      <c r="F52" s="514"/>
       <c r="G52" s="202"/>
       <c r="H52" s="202"/>
       <c r="I52" s="200"/>
@@ -45207,12 +45207,12 @@
       <c r="B53" s="193" t="s">
         <v>65</v>
       </c>
-      <c r="C53" s="511" t="s">
+      <c r="C53" s="514" t="s">
         <v>66</v>
       </c>
-      <c r="D53" s="511"/>
-      <c r="E53" s="511"/>
-      <c r="F53" s="511"/>
+      <c r="D53" s="514"/>
+      <c r="E53" s="514"/>
+      <c r="F53" s="514"/>
       <c r="G53" s="202"/>
       <c r="H53" s="202"/>
       <c r="I53" s="200"/>
@@ -45243,12 +45243,12 @@
       <c r="B54" s="193" t="s">
         <v>67</v>
       </c>
-      <c r="C54" s="511" t="s">
+      <c r="C54" s="514" t="s">
         <v>68</v>
       </c>
-      <c r="D54" s="511"/>
-      <c r="E54" s="511"/>
-      <c r="F54" s="511"/>
+      <c r="D54" s="514"/>
+      <c r="E54" s="514"/>
+      <c r="F54" s="514"/>
       <c r="G54" s="202"/>
       <c r="H54" s="202"/>
       <c r="I54" s="200"/>
@@ -45279,12 +45279,12 @@
       <c r="B55" s="193" t="s">
         <v>69</v>
       </c>
-      <c r="C55" s="511" t="s">
+      <c r="C55" s="514" t="s">
         <v>70</v>
       </c>
-      <c r="D55" s="511"/>
-      <c r="E55" s="511"/>
-      <c r="F55" s="511"/>
+      <c r="D55" s="514"/>
+      <c r="E55" s="514"/>
+      <c r="F55" s="514"/>
       <c r="G55" s="202"/>
       <c r="H55" s="202"/>
       <c r="I55" s="200"/>
@@ -45315,12 +45315,12 @@
       <c r="B56" s="200" t="s">
         <v>71</v>
       </c>
-      <c r="C56" s="511" t="s">
+      <c r="C56" s="514" t="s">
         <v>72</v>
       </c>
-      <c r="D56" s="511"/>
-      <c r="E56" s="511"/>
-      <c r="F56" s="511"/>
+      <c r="D56" s="514"/>
+      <c r="E56" s="514"/>
+      <c r="F56" s="514"/>
       <c r="G56" s="202"/>
       <c r="H56" s="202"/>
       <c r="I56" s="200"/>
@@ -45351,12 +45351,12 @@
       <c r="B57" s="193" t="s">
         <v>73</v>
       </c>
-      <c r="C57" s="511" t="s">
+      <c r="C57" s="514" t="s">
         <v>74</v>
       </c>
-      <c r="D57" s="511"/>
-      <c r="E57" s="511"/>
-      <c r="F57" s="511"/>
+      <c r="D57" s="514"/>
+      <c r="E57" s="514"/>
+      <c r="F57" s="514"/>
       <c r="G57" s="202"/>
       <c r="H57" s="202"/>
       <c r="I57" s="200"/>
@@ -45384,12 +45384,12 @@
       <c r="A58" s="192" t="s">
         <v>29</v>
       </c>
-      <c r="C58" s="511" t="s">
+      <c r="C58" s="514" t="s">
         <v>75</v>
       </c>
-      <c r="D58" s="511"/>
-      <c r="E58" s="511"/>
-      <c r="F58" s="511"/>
+      <c r="D58" s="514"/>
+      <c r="E58" s="514"/>
+      <c r="F58" s="514"/>
     </row>
     <row r="59" spans="1:29" ht="17.399999999999999">
       <c r="A59" s="192" t="s">
@@ -45398,12 +45398,12 @@
       <c r="B59" s="203" t="s">
         <v>76</v>
       </c>
-      <c r="C59" s="511" t="s">
+      <c r="C59" s="514" t="s">
         <v>77</v>
       </c>
-      <c r="D59" s="511"/>
-      <c r="E59" s="511"/>
-      <c r="F59" s="511"/>
+      <c r="D59" s="514"/>
+      <c r="E59" s="514"/>
+      <c r="F59" s="514"/>
       <c r="G59" s="191"/>
       <c r="H59" s="191"/>
       <c r="I59" s="193"/>
@@ -47559,40 +47559,6 @@
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="B22:F22"/>
-    <mergeCell ref="B23:F23"/>
-    <mergeCell ref="B24:F24"/>
-    <mergeCell ref="B25:F25"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="A31:F31"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="D43:F43"/>
-    <mergeCell ref="C44:F44"/>
-    <mergeCell ref="C45:F45"/>
-    <mergeCell ref="C46:F46"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="C36:F36"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="D39:F39"/>
-    <mergeCell ref="C40:F40"/>
     <mergeCell ref="C57:F57"/>
     <mergeCell ref="C58:F58"/>
     <mergeCell ref="C59:F59"/>
@@ -47609,6 +47575,40 @@
     <mergeCell ref="C50:F50"/>
     <mergeCell ref="C51:F51"/>
     <mergeCell ref="D42:F42"/>
+    <mergeCell ref="D43:F43"/>
+    <mergeCell ref="C44:F44"/>
+    <mergeCell ref="C45:F45"/>
+    <mergeCell ref="C46:F46"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="C40:F40"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="B25:F25"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="B22:F22"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -47636,106 +47636,106 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="532" t="s">
+      <c r="A1" s="520" t="s">
         <v>232</v>
       </c>
-      <c r="B1" s="532"/>
-      <c r="C1" s="532"/>
-      <c r="D1" s="532"/>
-      <c r="E1" s="532"/>
-      <c r="F1" s="532"/>
-      <c r="G1" s="532"/>
-      <c r="H1" s="532"/>
-      <c r="I1" s="532"/>
-      <c r="J1" s="532"/>
-      <c r="K1" s="532"/>
-      <c r="L1" s="532"/>
-      <c r="M1" s="532"/>
+      <c r="B1" s="520"/>
+      <c r="C1" s="520"/>
+      <c r="D1" s="520"/>
+      <c r="E1" s="520"/>
+      <c r="F1" s="520"/>
+      <c r="G1" s="520"/>
+      <c r="H1" s="520"/>
+      <c r="I1" s="520"/>
+      <c r="J1" s="520"/>
+      <c r="K1" s="520"/>
+      <c r="L1" s="520"/>
+      <c r="M1" s="520"/>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="177"/>
-      <c r="B2" s="533" t="s">
+      <c r="B2" s="521" t="s">
         <v>233</v>
       </c>
-      <c r="C2" s="533"/>
-      <c r="D2" s="533"/>
-      <c r="E2" s="533"/>
-      <c r="F2" s="533"/>
-      <c r="G2" s="533"/>
-      <c r="H2" s="533"/>
-      <c r="I2" s="533"/>
-      <c r="J2" s="533"/>
-      <c r="K2" s="533"/>
-      <c r="L2" s="533"/>
-      <c r="M2" s="533"/>
+      <c r="C2" s="521"/>
+      <c r="D2" s="521"/>
+      <c r="E2" s="521"/>
+      <c r="F2" s="521"/>
+      <c r="G2" s="521"/>
+      <c r="H2" s="521"/>
+      <c r="I2" s="521"/>
+      <c r="J2" s="521"/>
+      <c r="K2" s="521"/>
+      <c r="L2" s="521"/>
+      <c r="M2" s="521"/>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="177"/>
-      <c r="B3" s="533" t="s">
+      <c r="B3" s="521" t="s">
         <v>234</v>
       </c>
-      <c r="C3" s="533"/>
-      <c r="D3" s="533"/>
-      <c r="E3" s="533"/>
-      <c r="F3" s="533"/>
-      <c r="G3" s="533"/>
-      <c r="H3" s="533"/>
-      <c r="I3" s="533"/>
-      <c r="J3" s="533"/>
-      <c r="K3" s="533"/>
-      <c r="L3" s="533"/>
-      <c r="M3" s="533"/>
+      <c r="C3" s="521"/>
+      <c r="D3" s="521"/>
+      <c r="E3" s="521"/>
+      <c r="F3" s="521"/>
+      <c r="G3" s="521"/>
+      <c r="H3" s="521"/>
+      <c r="I3" s="521"/>
+      <c r="J3" s="521"/>
+      <c r="K3" s="521"/>
+      <c r="L3" s="521"/>
+      <c r="M3" s="521"/>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="534" t="s">
+      <c r="A4" s="522" t="s">
         <v>235</v>
       </c>
-      <c r="B4" s="534"/>
-      <c r="C4" s="534"/>
-      <c r="D4" s="534"/>
-      <c r="E4" s="534"/>
-      <c r="F4" s="534"/>
-      <c r="G4" s="534"/>
-      <c r="H4" s="534"/>
-      <c r="I4" s="534"/>
-      <c r="J4" s="534"/>
+      <c r="B4" s="522"/>
+      <c r="C4" s="522"/>
+      <c r="D4" s="522"/>
+      <c r="E4" s="522"/>
+      <c r="F4" s="522"/>
+      <c r="G4" s="522"/>
+      <c r="H4" s="522"/>
+      <c r="I4" s="522"/>
+      <c r="J4" s="522"/>
       <c r="K4" s="187"/>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="535" t="s">
+      <c r="A5" s="523" t="s">
         <v>236</v>
       </c>
-      <c r="B5" s="535"/>
-      <c r="C5" s="535"/>
-      <c r="D5" s="533" t="s">
+      <c r="B5" s="523"/>
+      <c r="C5" s="523"/>
+      <c r="D5" s="521" t="s">
         <v>237</v>
       </c>
-      <c r="E5" s="533"/>
-      <c r="F5" s="533"/>
-      <c r="G5" s="533"/>
-      <c r="H5" s="533"/>
-      <c r="I5" s="533"/>
-      <c r="J5" s="533"/>
-      <c r="K5" s="533"/>
-      <c r="L5" s="533"/>
-      <c r="M5" s="533"/>
+      <c r="E5" s="521"/>
+      <c r="F5" s="521"/>
+      <c r="G5" s="521"/>
+      <c r="H5" s="521"/>
+      <c r="I5" s="521"/>
+      <c r="J5" s="521"/>
+      <c r="K5" s="521"/>
+      <c r="L5" s="521"/>
+      <c r="M5" s="521"/>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="527" t="s">
+      <c r="A6" s="524" t="s">
         <v>238</v>
       </c>
-      <c r="B6" s="527"/>
-      <c r="C6" s="527"/>
-      <c r="D6" s="527"/>
-      <c r="E6" s="527"/>
-      <c r="F6" s="527"/>
-      <c r="G6" s="527"/>
-      <c r="H6" s="527"/>
-      <c r="I6" s="527"/>
-      <c r="J6" s="527"/>
-      <c r="K6" s="527"/>
-      <c r="L6" s="527"/>
-      <c r="M6" s="527"/>
+      <c r="B6" s="524"/>
+      <c r="C6" s="524"/>
+      <c r="D6" s="524"/>
+      <c r="E6" s="524"/>
+      <c r="F6" s="524"/>
+      <c r="G6" s="524"/>
+      <c r="H6" s="524"/>
+      <c r="I6" s="524"/>
+      <c r="J6" s="524"/>
+      <c r="K6" s="524"/>
+      <c r="L6" s="524"/>
+      <c r="M6" s="524"/>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="178" t="s">
@@ -47744,10 +47744,10 @@
       <c r="B7" s="178" t="s">
         <v>240</v>
       </c>
-      <c r="C7" s="528" t="s">
+      <c r="C7" s="525" t="s">
         <v>241</v>
       </c>
-      <c r="D7" s="529"/>
+      <c r="D7" s="526"/>
       <c r="E7" s="178" t="s">
         <v>242</v>
       </c>
@@ -49494,67 +49494,67 @@
       </c>
     </row>
     <row r="62" spans="1:18">
-      <c r="A62" s="530" t="s">
+      <c r="A62" s="527" t="s">
         <v>454</v>
       </c>
-      <c r="B62" s="530"/>
+      <c r="B62" s="527"/>
       <c r="C62" s="185"/>
-      <c r="D62" s="531" t="s">
+      <c r="D62" s="528" t="s">
         <v>455</v>
       </c>
-      <c r="E62" s="531"/>
+      <c r="E62" s="528"/>
       <c r="F62" s="185"/>
-      <c r="G62" s="531" t="s">
+      <c r="G62" s="528" t="s">
         <v>456</v>
       </c>
-      <c r="H62" s="531"/>
+      <c r="H62" s="528"/>
       <c r="I62" s="185"/>
-      <c r="J62" s="531" t="s">
+      <c r="J62" s="528" t="s">
         <v>457</v>
       </c>
-      <c r="K62" s="531"/>
+      <c r="K62" s="528"/>
     </row>
     <row r="63" spans="1:18">
-      <c r="A63" s="523" t="s">
+      <c r="A63" s="529" t="s">
         <v>458</v>
       </c>
-      <c r="B63" s="523"/>
+      <c r="B63" s="529"/>
       <c r="C63" s="185"/>
-      <c r="D63" s="522" t="s">
+      <c r="D63" s="530" t="s">
         <v>459</v>
       </c>
-      <c r="E63" s="522"/>
+      <c r="E63" s="530"/>
       <c r="F63" s="185"/>
-      <c r="G63" s="522" t="s">
+      <c r="G63" s="530" t="s">
         <v>459</v>
       </c>
-      <c r="H63" s="522"/>
+      <c r="H63" s="530"/>
       <c r="I63" s="185"/>
-      <c r="J63" s="522" t="s">
+      <c r="J63" s="530" t="s">
         <v>459</v>
       </c>
-      <c r="K63" s="522"/>
+      <c r="K63" s="530"/>
     </row>
     <row r="64" spans="1:18">
-      <c r="A64" s="523" t="s">
+      <c r="A64" s="529" t="s">
         <v>460</v>
       </c>
-      <c r="B64" s="523"/>
+      <c r="B64" s="529"/>
       <c r="C64" s="185"/>
-      <c r="D64" s="521"/>
-      <c r="E64" s="521"/>
+      <c r="D64" s="531"/>
+      <c r="E64" s="531"/>
       <c r="F64" s="185"/>
-      <c r="G64" s="521"/>
-      <c r="H64" s="521"/>
+      <c r="G64" s="531"/>
+      <c r="H64" s="531"/>
       <c r="I64" s="185"/>
-      <c r="J64" s="521"/>
-      <c r="K64" s="521"/>
+      <c r="J64" s="531"/>
+      <c r="K64" s="531"/>
     </row>
     <row r="65" spans="1:11">
-      <c r="A65" s="523" t="s">
+      <c r="A65" s="529" t="s">
         <v>461</v>
       </c>
-      <c r="B65" s="523"/>
+      <c r="B65" s="529"/>
       <c r="C65" s="186"/>
       <c r="D65" s="186"/>
       <c r="E65" s="186"/>
@@ -49566,61 +49566,41 @@
       <c r="A67" s="189"/>
     </row>
     <row r="68" spans="1:11">
-      <c r="A68" s="524"/>
-      <c r="B68" s="524"/>
+      <c r="A68" s="533"/>
+      <c r="B68" s="533"/>
       <c r="C68" s="185"/>
-      <c r="D68" s="525"/>
-      <c r="E68" s="525"/>
+      <c r="D68" s="534"/>
+      <c r="E68" s="534"/>
       <c r="F68" s="185"/>
-      <c r="G68" s="526" t="s">
+      <c r="G68" s="535" t="s">
         <v>462</v>
       </c>
-      <c r="H68" s="526"/>
+      <c r="H68" s="535"/>
       <c r="I68" s="185"/>
-      <c r="J68" s="526" t="s">
+      <c r="J68" s="535" t="s">
         <v>463</v>
       </c>
-      <c r="K68" s="526"/>
+      <c r="K68" s="535"/>
     </row>
     <row r="69" spans="1:11">
-      <c r="A69" s="520"/>
-      <c r="B69" s="520"/>
+      <c r="A69" s="532"/>
+      <c r="B69" s="532"/>
       <c r="C69" s="185"/>
-      <c r="D69" s="521"/>
-      <c r="E69" s="521"/>
+      <c r="D69" s="531"/>
+      <c r="E69" s="531"/>
       <c r="F69" s="185"/>
-      <c r="G69" s="522" t="s">
+      <c r="G69" s="530" t="s">
         <v>459</v>
       </c>
-      <c r="H69" s="522"/>
+      <c r="H69" s="530"/>
       <c r="I69" s="185"/>
-      <c r="J69" s="522" t="s">
+      <c r="J69" s="530" t="s">
         <v>459</v>
       </c>
-      <c r="K69" s="522"/>
+      <c r="K69" s="530"/>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="B3:M3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:M5"/>
-    <mergeCell ref="A6:M6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="G62:H62"/>
-    <mergeCell ref="J62:K62"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="G63:H63"/>
-    <mergeCell ref="J63:K63"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="G64:H64"/>
-    <mergeCell ref="J64:K64"/>
     <mergeCell ref="A69:B69"/>
     <mergeCell ref="D69:E69"/>
     <mergeCell ref="G69:H69"/>
@@ -49630,6 +49610,26 @@
     <mergeCell ref="D68:E68"/>
     <mergeCell ref="G68:H68"/>
     <mergeCell ref="J68:K68"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="G63:H63"/>
+    <mergeCell ref="J63:K63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="G64:H64"/>
+    <mergeCell ref="J64:K64"/>
+    <mergeCell ref="A6:M6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="G62:H62"/>
+    <mergeCell ref="J62:K62"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="B3:M3"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:M5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -62589,7 +62589,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:EQ271"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BG7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="BA7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="CC20" sqref="CC20"/>
     </sheetView>
   </sheetViews>
@@ -62674,618 +62674,618 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:147" s="318" customFormat="1">
-      <c r="A1" s="622" t="s">
+      <c r="A1" s="607" t="s">
         <v>232</v>
       </c>
-      <c r="B1" s="622"/>
-      <c r="C1" s="622"/>
-      <c r="D1" s="622"/>
-      <c r="E1" s="622"/>
-      <c r="F1" s="622"/>
-      <c r="G1" s="622"/>
-      <c r="H1" s="622"/>
-      <c r="I1" s="622"/>
-      <c r="J1" s="622"/>
-      <c r="K1" s="622"/>
-      <c r="L1" s="622"/>
-      <c r="M1" s="622"/>
-      <c r="N1" s="622"/>
-      <c r="O1" s="622"/>
-      <c r="P1" s="622"/>
-      <c r="Q1" s="622"/>
-      <c r="R1" s="622"/>
-      <c r="S1" s="622"/>
-      <c r="T1" s="622"/>
-      <c r="U1" s="622"/>
-      <c r="V1" s="622"/>
-      <c r="W1" s="622"/>
-      <c r="X1" s="622"/>
-      <c r="Y1" s="622"/>
-      <c r="Z1" s="622"/>
-      <c r="AA1" s="622"/>
-      <c r="AB1" s="622"/>
-      <c r="AC1" s="622"/>
-      <c r="AD1" s="622"/>
-      <c r="AE1" s="622"/>
-      <c r="AF1" s="622"/>
-      <c r="AG1" s="622"/>
-      <c r="AH1" s="622"/>
-      <c r="AI1" s="622"/>
-      <c r="AJ1" s="622"/>
-      <c r="AK1" s="622"/>
-      <c r="AL1" s="622"/>
-      <c r="AM1" s="622"/>
-      <c r="AN1" s="622"/>
-      <c r="AO1" s="622"/>
-      <c r="AP1" s="622"/>
-      <c r="AQ1" s="622"/>
-      <c r="AR1" s="622"/>
-      <c r="AS1" s="622"/>
-      <c r="AT1" s="622"/>
-      <c r="AU1" s="622"/>
-      <c r="AV1" s="622"/>
-      <c r="AW1" s="622"/>
-      <c r="AX1" s="622"/>
-      <c r="AY1" s="622"/>
-      <c r="AZ1" s="622"/>
-      <c r="BA1" s="622"/>
-      <c r="BB1" s="622"/>
-      <c r="BC1" s="622"/>
-      <c r="BD1" s="622"/>
-      <c r="BE1" s="622"/>
-      <c r="BF1" s="622"/>
-      <c r="BG1" s="622"/>
-      <c r="BH1" s="622"/>
-      <c r="BI1" s="622"/>
-      <c r="BJ1" s="622"/>
-      <c r="BK1" s="622"/>
-      <c r="BL1" s="622"/>
-      <c r="BM1" s="622"/>
-      <c r="BN1" s="622"/>
-      <c r="BO1" s="622"/>
-      <c r="BP1" s="622"/>
-      <c r="BQ1" s="622"/>
-      <c r="BR1" s="622"/>
-      <c r="BS1" s="622"/>
-      <c r="BT1" s="622"/>
-      <c r="BU1" s="622"/>
-      <c r="BV1" s="622"/>
-      <c r="BW1" s="622"/>
-      <c r="BX1" s="622"/>
-      <c r="BY1" s="622"/>
-      <c r="BZ1" s="622"/>
-      <c r="CA1" s="622"/>
-      <c r="CB1" s="622"/>
+      <c r="B1" s="607"/>
+      <c r="C1" s="607"/>
+      <c r="D1" s="607"/>
+      <c r="E1" s="607"/>
+      <c r="F1" s="607"/>
+      <c r="G1" s="607"/>
+      <c r="H1" s="607"/>
+      <c r="I1" s="607"/>
+      <c r="J1" s="607"/>
+      <c r="K1" s="607"/>
+      <c r="L1" s="607"/>
+      <c r="M1" s="607"/>
+      <c r="N1" s="607"/>
+      <c r="O1" s="607"/>
+      <c r="P1" s="607"/>
+      <c r="Q1" s="607"/>
+      <c r="R1" s="607"/>
+      <c r="S1" s="607"/>
+      <c r="T1" s="607"/>
+      <c r="U1" s="607"/>
+      <c r="V1" s="607"/>
+      <c r="W1" s="607"/>
+      <c r="X1" s="607"/>
+      <c r="Y1" s="607"/>
+      <c r="Z1" s="607"/>
+      <c r="AA1" s="607"/>
+      <c r="AB1" s="607"/>
+      <c r="AC1" s="607"/>
+      <c r="AD1" s="607"/>
+      <c r="AE1" s="607"/>
+      <c r="AF1" s="607"/>
+      <c r="AG1" s="607"/>
+      <c r="AH1" s="607"/>
+      <c r="AI1" s="607"/>
+      <c r="AJ1" s="607"/>
+      <c r="AK1" s="607"/>
+      <c r="AL1" s="607"/>
+      <c r="AM1" s="607"/>
+      <c r="AN1" s="607"/>
+      <c r="AO1" s="607"/>
+      <c r="AP1" s="607"/>
+      <c r="AQ1" s="607"/>
+      <c r="AR1" s="607"/>
+      <c r="AS1" s="607"/>
+      <c r="AT1" s="607"/>
+      <c r="AU1" s="607"/>
+      <c r="AV1" s="607"/>
+      <c r="AW1" s="607"/>
+      <c r="AX1" s="607"/>
+      <c r="AY1" s="607"/>
+      <c r="AZ1" s="607"/>
+      <c r="BA1" s="607"/>
+      <c r="BB1" s="607"/>
+      <c r="BC1" s="607"/>
+      <c r="BD1" s="607"/>
+      <c r="BE1" s="607"/>
+      <c r="BF1" s="607"/>
+      <c r="BG1" s="607"/>
+      <c r="BH1" s="607"/>
+      <c r="BI1" s="607"/>
+      <c r="BJ1" s="607"/>
+      <c r="BK1" s="607"/>
+      <c r="BL1" s="607"/>
+      <c r="BM1" s="607"/>
+      <c r="BN1" s="607"/>
+      <c r="BO1" s="607"/>
+      <c r="BP1" s="607"/>
+      <c r="BQ1" s="607"/>
+      <c r="BR1" s="607"/>
+      <c r="BS1" s="607"/>
+      <c r="BT1" s="607"/>
+      <c r="BU1" s="607"/>
+      <c r="BV1" s="607"/>
+      <c r="BW1" s="607"/>
+      <c r="BX1" s="607"/>
+      <c r="BY1" s="607"/>
+      <c r="BZ1" s="607"/>
+      <c r="CA1" s="607"/>
+      <c r="CB1" s="607"/>
       <c r="CC1" s="1"/>
     </row>
     <row r="2" spans="1:147" s="318" customFormat="1">
       <c r="A2" s="319"/>
-      <c r="B2" s="623" t="s">
+      <c r="B2" s="608" t="s">
         <v>233</v>
       </c>
-      <c r="C2" s="623"/>
-      <c r="D2" s="623"/>
-      <c r="E2" s="623"/>
-      <c r="F2" s="623"/>
-      <c r="G2" s="623"/>
-      <c r="H2" s="623"/>
-      <c r="I2" s="623"/>
-      <c r="J2" s="623"/>
-      <c r="K2" s="623"/>
-      <c r="L2" s="623"/>
-      <c r="M2" s="623"/>
-      <c r="N2" s="623"/>
-      <c r="O2" s="623"/>
-      <c r="P2" s="623"/>
-      <c r="Q2" s="623"/>
-      <c r="R2" s="623"/>
-      <c r="S2" s="623"/>
-      <c r="T2" s="623"/>
-      <c r="U2" s="623"/>
-      <c r="V2" s="623"/>
-      <c r="W2" s="623"/>
-      <c r="X2" s="623"/>
-      <c r="Y2" s="623"/>
-      <c r="Z2" s="623"/>
-      <c r="AA2" s="623"/>
-      <c r="AB2" s="623"/>
-      <c r="AC2" s="623"/>
-      <c r="AD2" s="623"/>
-      <c r="AE2" s="623"/>
-      <c r="AF2" s="623"/>
-      <c r="AG2" s="623"/>
-      <c r="AH2" s="623"/>
-      <c r="AI2" s="623"/>
-      <c r="AJ2" s="623"/>
-      <c r="AK2" s="623"/>
-      <c r="AL2" s="623"/>
-      <c r="AM2" s="623"/>
-      <c r="AN2" s="623"/>
-      <c r="AO2" s="623"/>
-      <c r="AP2" s="623"/>
-      <c r="AQ2" s="623"/>
-      <c r="AR2" s="623"/>
-      <c r="AS2" s="623"/>
-      <c r="AT2" s="623"/>
-      <c r="AU2" s="623"/>
-      <c r="AV2" s="623"/>
-      <c r="AW2" s="623"/>
-      <c r="AX2" s="623"/>
-      <c r="AY2" s="623"/>
-      <c r="AZ2" s="623"/>
-      <c r="BA2" s="623"/>
-      <c r="BB2" s="623"/>
-      <c r="BC2" s="623"/>
-      <c r="BD2" s="623"/>
-      <c r="BE2" s="623"/>
-      <c r="BF2" s="623"/>
-      <c r="BG2" s="623"/>
-      <c r="BH2" s="623"/>
-      <c r="BI2" s="623"/>
-      <c r="BJ2" s="623"/>
-      <c r="BK2" s="623"/>
-      <c r="BL2" s="623"/>
-      <c r="BM2" s="623"/>
-      <c r="BN2" s="623"/>
-      <c r="BO2" s="623"/>
-      <c r="BP2" s="623"/>
-      <c r="BQ2" s="623"/>
-      <c r="BR2" s="623"/>
-      <c r="BS2" s="623"/>
-      <c r="BT2" s="623"/>
-      <c r="BU2" s="623"/>
-      <c r="BV2" s="623"/>
-      <c r="BW2" s="623"/>
-      <c r="BX2" s="623"/>
-      <c r="BY2" s="623"/>
-      <c r="BZ2" s="623"/>
-      <c r="CA2" s="623"/>
-      <c r="CB2" s="623"/>
+      <c r="C2" s="608"/>
+      <c r="D2" s="608"/>
+      <c r="E2" s="608"/>
+      <c r="F2" s="608"/>
+      <c r="G2" s="608"/>
+      <c r="H2" s="608"/>
+      <c r="I2" s="608"/>
+      <c r="J2" s="608"/>
+      <c r="K2" s="608"/>
+      <c r="L2" s="608"/>
+      <c r="M2" s="608"/>
+      <c r="N2" s="608"/>
+      <c r="O2" s="608"/>
+      <c r="P2" s="608"/>
+      <c r="Q2" s="608"/>
+      <c r="R2" s="608"/>
+      <c r="S2" s="608"/>
+      <c r="T2" s="608"/>
+      <c r="U2" s="608"/>
+      <c r="V2" s="608"/>
+      <c r="W2" s="608"/>
+      <c r="X2" s="608"/>
+      <c r="Y2" s="608"/>
+      <c r="Z2" s="608"/>
+      <c r="AA2" s="608"/>
+      <c r="AB2" s="608"/>
+      <c r="AC2" s="608"/>
+      <c r="AD2" s="608"/>
+      <c r="AE2" s="608"/>
+      <c r="AF2" s="608"/>
+      <c r="AG2" s="608"/>
+      <c r="AH2" s="608"/>
+      <c r="AI2" s="608"/>
+      <c r="AJ2" s="608"/>
+      <c r="AK2" s="608"/>
+      <c r="AL2" s="608"/>
+      <c r="AM2" s="608"/>
+      <c r="AN2" s="608"/>
+      <c r="AO2" s="608"/>
+      <c r="AP2" s="608"/>
+      <c r="AQ2" s="608"/>
+      <c r="AR2" s="608"/>
+      <c r="AS2" s="608"/>
+      <c r="AT2" s="608"/>
+      <c r="AU2" s="608"/>
+      <c r="AV2" s="608"/>
+      <c r="AW2" s="608"/>
+      <c r="AX2" s="608"/>
+      <c r="AY2" s="608"/>
+      <c r="AZ2" s="608"/>
+      <c r="BA2" s="608"/>
+      <c r="BB2" s="608"/>
+      <c r="BC2" s="608"/>
+      <c r="BD2" s="608"/>
+      <c r="BE2" s="608"/>
+      <c r="BF2" s="608"/>
+      <c r="BG2" s="608"/>
+      <c r="BH2" s="608"/>
+      <c r="BI2" s="608"/>
+      <c r="BJ2" s="608"/>
+      <c r="BK2" s="608"/>
+      <c r="BL2" s="608"/>
+      <c r="BM2" s="608"/>
+      <c r="BN2" s="608"/>
+      <c r="BO2" s="608"/>
+      <c r="BP2" s="608"/>
+      <c r="BQ2" s="608"/>
+      <c r="BR2" s="608"/>
+      <c r="BS2" s="608"/>
+      <c r="BT2" s="608"/>
+      <c r="BU2" s="608"/>
+      <c r="BV2" s="608"/>
+      <c r="BW2" s="608"/>
+      <c r="BX2" s="608"/>
+      <c r="BY2" s="608"/>
+      <c r="BZ2" s="608"/>
+      <c r="CA2" s="608"/>
+      <c r="CB2" s="608"/>
       <c r="CC2" s="1"/>
     </row>
     <row r="3" spans="1:147" s="318" customFormat="1">
       <c r="A3" s="319"/>
-      <c r="B3" s="623" t="s">
+      <c r="B3" s="608" t="s">
         <v>2157</v>
       </c>
-      <c r="C3" s="623"/>
-      <c r="D3" s="623"/>
-      <c r="E3" s="623"/>
-      <c r="F3" s="623"/>
-      <c r="G3" s="623"/>
-      <c r="H3" s="623"/>
-      <c r="I3" s="623"/>
-      <c r="J3" s="623"/>
-      <c r="K3" s="623"/>
-      <c r="L3" s="623"/>
-      <c r="M3" s="623"/>
-      <c r="N3" s="623"/>
-      <c r="O3" s="623"/>
-      <c r="P3" s="623"/>
-      <c r="Q3" s="623"/>
-      <c r="R3" s="623"/>
-      <c r="S3" s="623"/>
-      <c r="T3" s="623"/>
-      <c r="U3" s="623"/>
-      <c r="V3" s="623"/>
-      <c r="W3" s="623"/>
-      <c r="X3" s="623"/>
-      <c r="Y3" s="623"/>
-      <c r="Z3" s="623"/>
-      <c r="AA3" s="623"/>
-      <c r="AB3" s="623"/>
-      <c r="AC3" s="623"/>
-      <c r="AD3" s="623"/>
-      <c r="AE3" s="623"/>
-      <c r="AF3" s="623"/>
-      <c r="AG3" s="623"/>
-      <c r="AH3" s="623"/>
-      <c r="AI3" s="623"/>
-      <c r="AJ3" s="623"/>
-      <c r="AK3" s="623"/>
-      <c r="AL3" s="623"/>
-      <c r="AM3" s="623"/>
-      <c r="AN3" s="623"/>
-      <c r="AO3" s="623"/>
-      <c r="AP3" s="623"/>
-      <c r="AQ3" s="623"/>
-      <c r="AR3" s="623"/>
-      <c r="AS3" s="623"/>
-      <c r="AT3" s="623"/>
-      <c r="AU3" s="623"/>
-      <c r="AV3" s="623"/>
-      <c r="AW3" s="623"/>
-      <c r="AX3" s="623"/>
-      <c r="AY3" s="623"/>
-      <c r="AZ3" s="623"/>
-      <c r="BA3" s="623"/>
-      <c r="BB3" s="623"/>
-      <c r="BC3" s="623"/>
-      <c r="BD3" s="623"/>
-      <c r="BE3" s="623"/>
-      <c r="BF3" s="623"/>
-      <c r="BG3" s="623"/>
-      <c r="BH3" s="623"/>
-      <c r="BI3" s="623"/>
-      <c r="BJ3" s="623"/>
-      <c r="BK3" s="623"/>
-      <c r="BL3" s="623"/>
-      <c r="BM3" s="623"/>
-      <c r="BN3" s="623"/>
-      <c r="BO3" s="623"/>
-      <c r="BP3" s="623"/>
-      <c r="BQ3" s="623"/>
-      <c r="BR3" s="623"/>
-      <c r="BS3" s="623"/>
-      <c r="BT3" s="623"/>
-      <c r="BU3" s="623"/>
-      <c r="BV3" s="623"/>
-      <c r="BW3" s="623"/>
-      <c r="BX3" s="623"/>
-      <c r="BY3" s="623"/>
-      <c r="BZ3" s="623"/>
-      <c r="CA3" s="623"/>
-      <c r="CB3" s="623"/>
+      <c r="C3" s="608"/>
+      <c r="D3" s="608"/>
+      <c r="E3" s="608"/>
+      <c r="F3" s="608"/>
+      <c r="G3" s="608"/>
+      <c r="H3" s="608"/>
+      <c r="I3" s="608"/>
+      <c r="J3" s="608"/>
+      <c r="K3" s="608"/>
+      <c r="L3" s="608"/>
+      <c r="M3" s="608"/>
+      <c r="N3" s="608"/>
+      <c r="O3" s="608"/>
+      <c r="P3" s="608"/>
+      <c r="Q3" s="608"/>
+      <c r="R3" s="608"/>
+      <c r="S3" s="608"/>
+      <c r="T3" s="608"/>
+      <c r="U3" s="608"/>
+      <c r="V3" s="608"/>
+      <c r="W3" s="608"/>
+      <c r="X3" s="608"/>
+      <c r="Y3" s="608"/>
+      <c r="Z3" s="608"/>
+      <c r="AA3" s="608"/>
+      <c r="AB3" s="608"/>
+      <c r="AC3" s="608"/>
+      <c r="AD3" s="608"/>
+      <c r="AE3" s="608"/>
+      <c r="AF3" s="608"/>
+      <c r="AG3" s="608"/>
+      <c r="AH3" s="608"/>
+      <c r="AI3" s="608"/>
+      <c r="AJ3" s="608"/>
+      <c r="AK3" s="608"/>
+      <c r="AL3" s="608"/>
+      <c r="AM3" s="608"/>
+      <c r="AN3" s="608"/>
+      <c r="AO3" s="608"/>
+      <c r="AP3" s="608"/>
+      <c r="AQ3" s="608"/>
+      <c r="AR3" s="608"/>
+      <c r="AS3" s="608"/>
+      <c r="AT3" s="608"/>
+      <c r="AU3" s="608"/>
+      <c r="AV3" s="608"/>
+      <c r="AW3" s="608"/>
+      <c r="AX3" s="608"/>
+      <c r="AY3" s="608"/>
+      <c r="AZ3" s="608"/>
+      <c r="BA3" s="608"/>
+      <c r="BB3" s="608"/>
+      <c r="BC3" s="608"/>
+      <c r="BD3" s="608"/>
+      <c r="BE3" s="608"/>
+      <c r="BF3" s="608"/>
+      <c r="BG3" s="608"/>
+      <c r="BH3" s="608"/>
+      <c r="BI3" s="608"/>
+      <c r="BJ3" s="608"/>
+      <c r="BK3" s="608"/>
+      <c r="BL3" s="608"/>
+      <c r="BM3" s="608"/>
+      <c r="BN3" s="608"/>
+      <c r="BO3" s="608"/>
+      <c r="BP3" s="608"/>
+      <c r="BQ3" s="608"/>
+      <c r="BR3" s="608"/>
+      <c r="BS3" s="608"/>
+      <c r="BT3" s="608"/>
+      <c r="BU3" s="608"/>
+      <c r="BV3" s="608"/>
+      <c r="BW3" s="608"/>
+      <c r="BX3" s="608"/>
+      <c r="BY3" s="608"/>
+      <c r="BZ3" s="608"/>
+      <c r="CA3" s="608"/>
+      <c r="CB3" s="608"/>
       <c r="CC3" s="1"/>
     </row>
     <row r="4" spans="1:147" s="318" customFormat="1">
-      <c r="A4" s="562" t="s">
+      <c r="A4" s="609" t="s">
         <v>2330</v>
       </c>
-      <c r="B4" s="562"/>
-      <c r="C4" s="562"/>
-      <c r="D4" s="562"/>
-      <c r="E4" s="562"/>
-      <c r="F4" s="562"/>
-      <c r="G4" s="562"/>
-      <c r="H4" s="562"/>
-      <c r="I4" s="562"/>
-      <c r="J4" s="562"/>
-      <c r="K4" s="562"/>
-      <c r="L4" s="562"/>
-      <c r="M4" s="562"/>
-      <c r="N4" s="562"/>
-      <c r="O4" s="562"/>
-      <c r="P4" s="562"/>
-      <c r="Q4" s="562"/>
-      <c r="R4" s="562"/>
-      <c r="S4" s="562"/>
-      <c r="T4" s="562"/>
-      <c r="U4" s="562"/>
-      <c r="V4" s="562"/>
-      <c r="W4" s="562"/>
-      <c r="X4" s="562"/>
-      <c r="Y4" s="562"/>
-      <c r="Z4" s="562"/>
-      <c r="AA4" s="562"/>
-      <c r="AB4" s="562"/>
-      <c r="AC4" s="562"/>
-      <c r="AD4" s="562"/>
-      <c r="AE4" s="562"/>
-      <c r="AF4" s="562"/>
-      <c r="AG4" s="562"/>
-      <c r="AH4" s="562"/>
-      <c r="AI4" s="562"/>
-      <c r="AJ4" s="562"/>
-      <c r="AK4" s="562"/>
-      <c r="AL4" s="562"/>
-      <c r="AM4" s="562"/>
-      <c r="AN4" s="562"/>
-      <c r="AO4" s="562"/>
-      <c r="AP4" s="562"/>
-      <c r="AQ4" s="562"/>
-      <c r="AR4" s="562"/>
-      <c r="AS4" s="562"/>
-      <c r="AT4" s="562"/>
-      <c r="AU4" s="562"/>
-      <c r="AV4" s="562"/>
-      <c r="AW4" s="562"/>
-      <c r="AX4" s="562"/>
-      <c r="AY4" s="562"/>
-      <c r="AZ4" s="562"/>
-      <c r="BA4" s="562"/>
-      <c r="BB4" s="562"/>
-      <c r="BC4" s="562"/>
-      <c r="BD4" s="562"/>
-      <c r="BE4" s="562"/>
-      <c r="BF4" s="562"/>
-      <c r="BG4" s="562"/>
-      <c r="BH4" s="562"/>
-      <c r="BI4" s="562"/>
-      <c r="BJ4" s="562"/>
-      <c r="BK4" s="562"/>
-      <c r="BL4" s="562"/>
-      <c r="BM4" s="562"/>
-      <c r="BN4" s="562"/>
-      <c r="BO4" s="562"/>
-      <c r="BP4" s="562"/>
-      <c r="BQ4" s="562"/>
-      <c r="BR4" s="562"/>
-      <c r="BS4" s="562"/>
-      <c r="BT4" s="562"/>
-      <c r="BU4" s="562"/>
-      <c r="BV4" s="562"/>
-      <c r="BW4" s="562"/>
-      <c r="BX4" s="562"/>
-      <c r="BY4" s="562"/>
-      <c r="BZ4" s="562"/>
-      <c r="CA4" s="562"/>
-      <c r="CB4" s="562"/>
+      <c r="B4" s="609"/>
+      <c r="C4" s="609"/>
+      <c r="D4" s="609"/>
+      <c r="E4" s="609"/>
+      <c r="F4" s="609"/>
+      <c r="G4" s="609"/>
+      <c r="H4" s="609"/>
+      <c r="I4" s="609"/>
+      <c r="J4" s="609"/>
+      <c r="K4" s="609"/>
+      <c r="L4" s="609"/>
+      <c r="M4" s="609"/>
+      <c r="N4" s="609"/>
+      <c r="O4" s="609"/>
+      <c r="P4" s="609"/>
+      <c r="Q4" s="609"/>
+      <c r="R4" s="609"/>
+      <c r="S4" s="609"/>
+      <c r="T4" s="609"/>
+      <c r="U4" s="609"/>
+      <c r="V4" s="609"/>
+      <c r="W4" s="609"/>
+      <c r="X4" s="609"/>
+      <c r="Y4" s="609"/>
+      <c r="Z4" s="609"/>
+      <c r="AA4" s="609"/>
+      <c r="AB4" s="609"/>
+      <c r="AC4" s="609"/>
+      <c r="AD4" s="609"/>
+      <c r="AE4" s="609"/>
+      <c r="AF4" s="609"/>
+      <c r="AG4" s="609"/>
+      <c r="AH4" s="609"/>
+      <c r="AI4" s="609"/>
+      <c r="AJ4" s="609"/>
+      <c r="AK4" s="609"/>
+      <c r="AL4" s="609"/>
+      <c r="AM4" s="609"/>
+      <c r="AN4" s="609"/>
+      <c r="AO4" s="609"/>
+      <c r="AP4" s="609"/>
+      <c r="AQ4" s="609"/>
+      <c r="AR4" s="609"/>
+      <c r="AS4" s="609"/>
+      <c r="AT4" s="609"/>
+      <c r="AU4" s="609"/>
+      <c r="AV4" s="609"/>
+      <c r="AW4" s="609"/>
+      <c r="AX4" s="609"/>
+      <c r="AY4" s="609"/>
+      <c r="AZ4" s="609"/>
+      <c r="BA4" s="609"/>
+      <c r="BB4" s="609"/>
+      <c r="BC4" s="609"/>
+      <c r="BD4" s="609"/>
+      <c r="BE4" s="609"/>
+      <c r="BF4" s="609"/>
+      <c r="BG4" s="609"/>
+      <c r="BH4" s="609"/>
+      <c r="BI4" s="609"/>
+      <c r="BJ4" s="609"/>
+      <c r="BK4" s="609"/>
+      <c r="BL4" s="609"/>
+      <c r="BM4" s="609"/>
+      <c r="BN4" s="609"/>
+      <c r="BO4" s="609"/>
+      <c r="BP4" s="609"/>
+      <c r="BQ4" s="609"/>
+      <c r="BR4" s="609"/>
+      <c r="BS4" s="609"/>
+      <c r="BT4" s="609"/>
+      <c r="BU4" s="609"/>
+      <c r="BV4" s="609"/>
+      <c r="BW4" s="609"/>
+      <c r="BX4" s="609"/>
+      <c r="BY4" s="609"/>
+      <c r="BZ4" s="609"/>
+      <c r="CA4" s="609"/>
+      <c r="CB4" s="609"/>
       <c r="CC4" s="1"/>
     </row>
     <row r="5" spans="1:147" s="318" customFormat="1">
-      <c r="A5" s="564" t="s">
+      <c r="A5" s="610" t="s">
         <v>236</v>
       </c>
-      <c r="B5" s="564"/>
-      <c r="C5" s="564"/>
-      <c r="D5" s="623" t="s">
+      <c r="B5" s="610"/>
+      <c r="C5" s="610"/>
+      <c r="D5" s="608" t="s">
         <v>2158</v>
       </c>
-      <c r="E5" s="623"/>
-      <c r="F5" s="623"/>
-      <c r="G5" s="623"/>
-      <c r="H5" s="623"/>
-      <c r="I5" s="623"/>
-      <c r="J5" s="623"/>
-      <c r="K5" s="623"/>
-      <c r="L5" s="623"/>
-      <c r="M5" s="623"/>
-      <c r="N5" s="623"/>
-      <c r="O5" s="623"/>
-      <c r="P5" s="623"/>
-      <c r="Q5" s="623"/>
-      <c r="R5" s="623"/>
-      <c r="S5" s="623"/>
-      <c r="T5" s="623"/>
-      <c r="U5" s="623"/>
-      <c r="V5" s="623"/>
-      <c r="W5" s="623"/>
-      <c r="X5" s="623"/>
-      <c r="Y5" s="623"/>
-      <c r="Z5" s="623"/>
-      <c r="AA5" s="623"/>
-      <c r="AB5" s="623"/>
-      <c r="AC5" s="623"/>
-      <c r="AD5" s="623"/>
-      <c r="AE5" s="623"/>
-      <c r="AF5" s="623"/>
-      <c r="AG5" s="623"/>
-      <c r="AH5" s="623"/>
-      <c r="AI5" s="623"/>
-      <c r="AJ5" s="623"/>
-      <c r="AK5" s="623"/>
-      <c r="AL5" s="623"/>
-      <c r="AM5" s="623"/>
-      <c r="AN5" s="623"/>
-      <c r="AO5" s="623"/>
-      <c r="AP5" s="623"/>
-      <c r="AQ5" s="623"/>
-      <c r="AR5" s="623"/>
-      <c r="AS5" s="623"/>
-      <c r="AT5" s="623"/>
-      <c r="AU5" s="623"/>
-      <c r="AV5" s="623"/>
-      <c r="AW5" s="623"/>
-      <c r="AX5" s="623"/>
-      <c r="AY5" s="623"/>
-      <c r="AZ5" s="623"/>
-      <c r="BA5" s="623"/>
-      <c r="BB5" s="623"/>
-      <c r="BC5" s="623"/>
-      <c r="BD5" s="623"/>
-      <c r="BE5" s="623"/>
-      <c r="BF5" s="623"/>
-      <c r="BG5" s="623"/>
-      <c r="BH5" s="623"/>
-      <c r="BI5" s="623"/>
-      <c r="BJ5" s="623"/>
-      <c r="BK5" s="623"/>
-      <c r="BL5" s="623"/>
-      <c r="BM5" s="623"/>
-      <c r="BN5" s="623"/>
-      <c r="BO5" s="623"/>
-      <c r="BP5" s="623"/>
-      <c r="BQ5" s="623"/>
-      <c r="BR5" s="623"/>
-      <c r="BS5" s="623"/>
-      <c r="BT5" s="623"/>
-      <c r="BU5" s="623"/>
-      <c r="BV5" s="623"/>
-      <c r="BW5" s="623"/>
-      <c r="BX5" s="623"/>
-      <c r="BY5" s="623"/>
-      <c r="BZ5" s="623"/>
-      <c r="CA5" s="623"/>
-      <c r="CB5" s="623"/>
+      <c r="E5" s="608"/>
+      <c r="F5" s="608"/>
+      <c r="G5" s="608"/>
+      <c r="H5" s="608"/>
+      <c r="I5" s="608"/>
+      <c r="J5" s="608"/>
+      <c r="K5" s="608"/>
+      <c r="L5" s="608"/>
+      <c r="M5" s="608"/>
+      <c r="N5" s="608"/>
+      <c r="O5" s="608"/>
+      <c r="P5" s="608"/>
+      <c r="Q5" s="608"/>
+      <c r="R5" s="608"/>
+      <c r="S5" s="608"/>
+      <c r="T5" s="608"/>
+      <c r="U5" s="608"/>
+      <c r="V5" s="608"/>
+      <c r="W5" s="608"/>
+      <c r="X5" s="608"/>
+      <c r="Y5" s="608"/>
+      <c r="Z5" s="608"/>
+      <c r="AA5" s="608"/>
+      <c r="AB5" s="608"/>
+      <c r="AC5" s="608"/>
+      <c r="AD5" s="608"/>
+      <c r="AE5" s="608"/>
+      <c r="AF5" s="608"/>
+      <c r="AG5" s="608"/>
+      <c r="AH5" s="608"/>
+      <c r="AI5" s="608"/>
+      <c r="AJ5" s="608"/>
+      <c r="AK5" s="608"/>
+      <c r="AL5" s="608"/>
+      <c r="AM5" s="608"/>
+      <c r="AN5" s="608"/>
+      <c r="AO5" s="608"/>
+      <c r="AP5" s="608"/>
+      <c r="AQ5" s="608"/>
+      <c r="AR5" s="608"/>
+      <c r="AS5" s="608"/>
+      <c r="AT5" s="608"/>
+      <c r="AU5" s="608"/>
+      <c r="AV5" s="608"/>
+      <c r="AW5" s="608"/>
+      <c r="AX5" s="608"/>
+      <c r="AY5" s="608"/>
+      <c r="AZ5" s="608"/>
+      <c r="BA5" s="608"/>
+      <c r="BB5" s="608"/>
+      <c r="BC5" s="608"/>
+      <c r="BD5" s="608"/>
+      <c r="BE5" s="608"/>
+      <c r="BF5" s="608"/>
+      <c r="BG5" s="608"/>
+      <c r="BH5" s="608"/>
+      <c r="BI5" s="608"/>
+      <c r="BJ5" s="608"/>
+      <c r="BK5" s="608"/>
+      <c r="BL5" s="608"/>
+      <c r="BM5" s="608"/>
+      <c r="BN5" s="608"/>
+      <c r="BO5" s="608"/>
+      <c r="BP5" s="608"/>
+      <c r="BQ5" s="608"/>
+      <c r="BR5" s="608"/>
+      <c r="BS5" s="608"/>
+      <c r="BT5" s="608"/>
+      <c r="BU5" s="608"/>
+      <c r="BV5" s="608"/>
+      <c r="BW5" s="608"/>
+      <c r="BX5" s="608"/>
+      <c r="BY5" s="608"/>
+      <c r="BZ5" s="608"/>
+      <c r="CA5" s="608"/>
+      <c r="CB5" s="608"/>
       <c r="CC5" s="1"/>
     </row>
     <row r="6" spans="1:147" s="318" customFormat="1" ht="14.4">
-      <c r="A6" s="627" t="s">
+      <c r="A6" s="614" t="s">
         <v>2159</v>
       </c>
-      <c r="B6" s="627"/>
-      <c r="C6" s="627"/>
-      <c r="D6" s="627"/>
-      <c r="E6" s="627"/>
-      <c r="F6" s="627"/>
-      <c r="G6" s="627"/>
-      <c r="H6" s="627"/>
-      <c r="I6" s="627"/>
-      <c r="J6" s="627"/>
-      <c r="K6" s="627"/>
-      <c r="L6" s="627"/>
-      <c r="M6" s="627"/>
-      <c r="N6" s="627"/>
-      <c r="O6" s="627"/>
-      <c r="P6" s="627"/>
-      <c r="Q6" s="627"/>
-      <c r="R6" s="627"/>
-      <c r="S6" s="627"/>
-      <c r="T6" s="627"/>
-      <c r="U6" s="627"/>
-      <c r="V6" s="627"/>
-      <c r="W6" s="627"/>
-      <c r="X6" s="627"/>
-      <c r="Y6" s="627"/>
-      <c r="Z6" s="627"/>
-      <c r="AA6" s="627"/>
-      <c r="AB6" s="627"/>
-      <c r="AC6" s="627"/>
-      <c r="AD6" s="627"/>
-      <c r="AE6" s="627"/>
-      <c r="AF6" s="627"/>
-      <c r="AG6" s="627"/>
-      <c r="AH6" s="627"/>
-      <c r="AI6" s="627"/>
-      <c r="AJ6" s="627"/>
-      <c r="AK6" s="627"/>
-      <c r="AL6" s="627"/>
-      <c r="AM6" s="627"/>
-      <c r="AN6" s="627"/>
-      <c r="AO6" s="627"/>
-      <c r="AP6" s="627"/>
-      <c r="AQ6" s="627"/>
-      <c r="AR6" s="627"/>
-      <c r="AS6" s="627"/>
-      <c r="AT6" s="627"/>
-      <c r="AU6" s="627"/>
-      <c r="AV6" s="627"/>
-      <c r="AW6" s="627"/>
-      <c r="AX6" s="627"/>
-      <c r="AY6" s="627"/>
-      <c r="AZ6" s="627"/>
-      <c r="BA6" s="627"/>
-      <c r="BB6" s="627"/>
-      <c r="BC6" s="627"/>
-      <c r="BD6" s="627"/>
-      <c r="BE6" s="627"/>
-      <c r="BF6" s="627"/>
-      <c r="BG6" s="627"/>
-      <c r="BH6" s="627"/>
-      <c r="BI6" s="627"/>
-      <c r="BJ6" s="627"/>
-      <c r="BK6" s="627"/>
-      <c r="BL6" s="627"/>
-      <c r="BM6" s="627"/>
-      <c r="BN6" s="627"/>
-      <c r="BO6" s="627"/>
-      <c r="BP6" s="627"/>
-      <c r="BQ6" s="627"/>
-      <c r="BR6" s="627"/>
-      <c r="BS6" s="627"/>
-      <c r="BT6" s="627"/>
-      <c r="BU6" s="627"/>
-      <c r="BV6" s="627"/>
-      <c r="BW6" s="627"/>
-      <c r="BX6" s="627"/>
-      <c r="BY6" s="627"/>
-      <c r="BZ6" s="627"/>
-      <c r="CA6" s="627"/>
-      <c r="CB6" s="627"/>
+      <c r="B6" s="614"/>
+      <c r="C6" s="614"/>
+      <c r="D6" s="614"/>
+      <c r="E6" s="614"/>
+      <c r="F6" s="614"/>
+      <c r="G6" s="614"/>
+      <c r="H6" s="614"/>
+      <c r="I6" s="614"/>
+      <c r="J6" s="614"/>
+      <c r="K6" s="614"/>
+      <c r="L6" s="614"/>
+      <c r="M6" s="614"/>
+      <c r="N6" s="614"/>
+      <c r="O6" s="614"/>
+      <c r="P6" s="614"/>
+      <c r="Q6" s="614"/>
+      <c r="R6" s="614"/>
+      <c r="S6" s="614"/>
+      <c r="T6" s="614"/>
+      <c r="U6" s="614"/>
+      <c r="V6" s="614"/>
+      <c r="W6" s="614"/>
+      <c r="X6" s="614"/>
+      <c r="Y6" s="614"/>
+      <c r="Z6" s="614"/>
+      <c r="AA6" s="614"/>
+      <c r="AB6" s="614"/>
+      <c r="AC6" s="614"/>
+      <c r="AD6" s="614"/>
+      <c r="AE6" s="614"/>
+      <c r="AF6" s="614"/>
+      <c r="AG6" s="614"/>
+      <c r="AH6" s="614"/>
+      <c r="AI6" s="614"/>
+      <c r="AJ6" s="614"/>
+      <c r="AK6" s="614"/>
+      <c r="AL6" s="614"/>
+      <c r="AM6" s="614"/>
+      <c r="AN6" s="614"/>
+      <c r="AO6" s="614"/>
+      <c r="AP6" s="614"/>
+      <c r="AQ6" s="614"/>
+      <c r="AR6" s="614"/>
+      <c r="AS6" s="614"/>
+      <c r="AT6" s="614"/>
+      <c r="AU6" s="614"/>
+      <c r="AV6" s="614"/>
+      <c r="AW6" s="614"/>
+      <c r="AX6" s="614"/>
+      <c r="AY6" s="614"/>
+      <c r="AZ6" s="614"/>
+      <c r="BA6" s="614"/>
+      <c r="BB6" s="614"/>
+      <c r="BC6" s="614"/>
+      <c r="BD6" s="614"/>
+      <c r="BE6" s="614"/>
+      <c r="BF6" s="614"/>
+      <c r="BG6" s="614"/>
+      <c r="BH6" s="614"/>
+      <c r="BI6" s="614"/>
+      <c r="BJ6" s="614"/>
+      <c r="BK6" s="614"/>
+      <c r="BL6" s="614"/>
+      <c r="BM6" s="614"/>
+      <c r="BN6" s="614"/>
+      <c r="BO6" s="614"/>
+      <c r="BP6" s="614"/>
+      <c r="BQ6" s="614"/>
+      <c r="BR6" s="614"/>
+      <c r="BS6" s="614"/>
+      <c r="BT6" s="614"/>
+      <c r="BU6" s="614"/>
+      <c r="BV6" s="614"/>
+      <c r="BW6" s="614"/>
+      <c r="BX6" s="614"/>
+      <c r="BY6" s="614"/>
+      <c r="BZ6" s="614"/>
+      <c r="CA6" s="614"/>
+      <c r="CB6" s="614"/>
       <c r="CC6" s="1"/>
     </row>
     <row r="7" spans="1:147" s="320" customFormat="1" ht="30" customHeight="1">
-      <c r="A7" s="567" t="s">
+      <c r="A7" s="615" t="s">
         <v>239</v>
       </c>
-      <c r="B7" s="567" t="s">
+      <c r="B7" s="615" t="s">
         <v>240</v>
       </c>
-      <c r="C7" s="616" t="s">
+      <c r="C7" s="617" t="s">
         <v>241</v>
       </c>
-      <c r="D7" s="616"/>
-      <c r="E7" s="568" t="s">
+      <c r="D7" s="617"/>
+      <c r="E7" s="618" t="s">
         <v>2160</v>
       </c>
-      <c r="F7" s="629"/>
-      <c r="G7" s="629"/>
-      <c r="H7" s="569"/>
-      <c r="I7" s="567" t="s">
+      <c r="F7" s="619"/>
+      <c r="G7" s="619"/>
+      <c r="H7" s="620"/>
+      <c r="I7" s="615" t="s">
         <v>2161</v>
       </c>
-      <c r="J7" s="567"/>
-      <c r="K7" s="567"/>
-      <c r="L7" s="567"/>
-      <c r="M7" s="567"/>
-      <c r="N7" s="567"/>
-      <c r="O7" s="567"/>
-      <c r="P7" s="567"/>
-      <c r="Q7" s="567"/>
-      <c r="R7" s="567"/>
-      <c r="S7" s="567"/>
-      <c r="T7" s="567"/>
-      <c r="U7" s="567"/>
-      <c r="V7" s="567"/>
-      <c r="W7" s="567"/>
-      <c r="X7" s="567"/>
-      <c r="Y7" s="567"/>
-      <c r="Z7" s="567"/>
-      <c r="AA7" s="567"/>
-      <c r="AB7" s="567"/>
-      <c r="AC7" s="567"/>
-      <c r="AD7" s="567"/>
-      <c r="AE7" s="567"/>
-      <c r="AF7" s="567"/>
-      <c r="AG7" s="567"/>
-      <c r="AH7" s="567"/>
-      <c r="AI7" s="567"/>
-      <c r="AJ7" s="567"/>
-      <c r="AK7" s="567"/>
-      <c r="AL7" s="567"/>
-      <c r="AM7" s="567"/>
-      <c r="AN7" s="630" t="s">
+      <c r="J7" s="615"/>
+      <c r="K7" s="615"/>
+      <c r="L7" s="615"/>
+      <c r="M7" s="615"/>
+      <c r="N7" s="615"/>
+      <c r="O7" s="615"/>
+      <c r="P7" s="615"/>
+      <c r="Q7" s="615"/>
+      <c r="R7" s="615"/>
+      <c r="S7" s="615"/>
+      <c r="T7" s="615"/>
+      <c r="U7" s="615"/>
+      <c r="V7" s="615"/>
+      <c r="W7" s="615"/>
+      <c r="X7" s="615"/>
+      <c r="Y7" s="615"/>
+      <c r="Z7" s="615"/>
+      <c r="AA7" s="615"/>
+      <c r="AB7" s="615"/>
+      <c r="AC7" s="615"/>
+      <c r="AD7" s="615"/>
+      <c r="AE7" s="615"/>
+      <c r="AF7" s="615"/>
+      <c r="AG7" s="615"/>
+      <c r="AH7" s="615"/>
+      <c r="AI7" s="615"/>
+      <c r="AJ7" s="615"/>
+      <c r="AK7" s="615"/>
+      <c r="AL7" s="615"/>
+      <c r="AM7" s="615"/>
+      <c r="AN7" s="621" t="s">
         <v>2162</v>
       </c>
-      <c r="AO7" s="631"/>
-      <c r="AP7" s="631"/>
-      <c r="AQ7" s="631"/>
-      <c r="AR7" s="631"/>
-      <c r="AS7" s="631"/>
-      <c r="AT7" s="631"/>
-      <c r="AU7" s="631"/>
-      <c r="AV7" s="631"/>
-      <c r="AW7" s="631"/>
-      <c r="AX7" s="632"/>
-      <c r="AY7" s="615" t="s">
+      <c r="AO7" s="622"/>
+      <c r="AP7" s="622"/>
+      <c r="AQ7" s="622"/>
+      <c r="AR7" s="622"/>
+      <c r="AS7" s="622"/>
+      <c r="AT7" s="622"/>
+      <c r="AU7" s="622"/>
+      <c r="AV7" s="622"/>
+      <c r="AW7" s="622"/>
+      <c r="AX7" s="623"/>
+      <c r="AY7" s="624" t="s">
         <v>2163</v>
       </c>
-      <c r="AZ7" s="592"/>
-      <c r="BA7" s="567" t="s">
+      <c r="AZ7" s="625"/>
+      <c r="BA7" s="615" t="s">
         <v>2164</v>
       </c>
-      <c r="BB7" s="567"/>
-      <c r="BC7" s="567"/>
-      <c r="BD7" s="567"/>
-      <c r="BE7" s="567"/>
-      <c r="BF7" s="567"/>
-      <c r="BG7" s="567"/>
-      <c r="BH7" s="567"/>
-      <c r="BI7" s="567"/>
-      <c r="BJ7" s="567"/>
-      <c r="BK7" s="567"/>
-      <c r="BL7" s="567"/>
-      <c r="BM7" s="567"/>
-      <c r="BN7" s="567"/>
-      <c r="BO7" s="618" t="s">
+      <c r="BB7" s="615"/>
+      <c r="BC7" s="615"/>
+      <c r="BD7" s="615"/>
+      <c r="BE7" s="615"/>
+      <c r="BF7" s="615"/>
+      <c r="BG7" s="615"/>
+      <c r="BH7" s="615"/>
+      <c r="BI7" s="615"/>
+      <c r="BJ7" s="615"/>
+      <c r="BK7" s="615"/>
+      <c r="BL7" s="615"/>
+      <c r="BM7" s="615"/>
+      <c r="BN7" s="615"/>
+      <c r="BO7" s="626" t="s">
         <v>2165</v>
       </c>
-      <c r="BP7" s="618"/>
-      <c r="BQ7" s="618"/>
-      <c r="BR7" s="618"/>
-      <c r="BS7" s="618"/>
-      <c r="BT7" s="618"/>
-      <c r="BU7" s="618"/>
-      <c r="BV7" s="618"/>
-      <c r="BW7" s="567" t="s">
+      <c r="BP7" s="626"/>
+      <c r="BQ7" s="626"/>
+      <c r="BR7" s="626"/>
+      <c r="BS7" s="626"/>
+      <c r="BT7" s="626"/>
+      <c r="BU7" s="626"/>
+      <c r="BV7" s="626"/>
+      <c r="BW7" s="615" t="s">
         <v>2166</v>
       </c>
-      <c r="BX7" s="567"/>
-      <c r="BY7" s="567"/>
-      <c r="BZ7" s="567"/>
-      <c r="CA7" s="567"/>
-      <c r="CB7" s="567"/>
+      <c r="BX7" s="615"/>
+      <c r="BY7" s="615"/>
+      <c r="BZ7" s="615"/>
+      <c r="CA7" s="615"/>
+      <c r="CB7" s="615"/>
       <c r="CC7" s="400" t="s">
         <v>2329</v>
       </c>
@@ -63297,49 +63297,49 @@
       <c r="DD7" s="227"/>
     </row>
     <row r="8" spans="1:147" s="320" customFormat="1" ht="14.4" hidden="1" customHeight="1">
-      <c r="A8" s="567"/>
-      <c r="B8" s="567"/>
-      <c r="C8" s="623"/>
-      <c r="D8" s="623"/>
+      <c r="A8" s="615"/>
+      <c r="B8" s="615"/>
+      <c r="C8" s="608"/>
+      <c r="D8" s="608"/>
       <c r="E8" s="469"/>
       <c r="F8" s="319"/>
       <c r="G8" s="321"/>
       <c r="H8" s="322"/>
-      <c r="I8" s="633" t="s">
+      <c r="I8" s="627" t="s">
         <v>2167</v>
       </c>
-      <c r="J8" s="571"/>
-      <c r="K8" s="634" t="s">
+      <c r="J8" s="628"/>
+      <c r="K8" s="583" t="s">
         <v>2168</v>
       </c>
-      <c r="L8" s="557"/>
-      <c r="M8" s="557"/>
-      <c r="N8" s="637"/>
-      <c r="O8" s="638"/>
-      <c r="P8" s="638"/>
-      <c r="Q8" s="638"/>
-      <c r="R8" s="638"/>
-      <c r="S8" s="638"/>
-      <c r="T8" s="638"/>
-      <c r="U8" s="638"/>
-      <c r="V8" s="638"/>
-      <c r="W8" s="638"/>
-      <c r="X8" s="638"/>
-      <c r="Y8" s="638"/>
-      <c r="Z8" s="638"/>
-      <c r="AA8" s="638"/>
-      <c r="AB8" s="638"/>
-      <c r="AC8" s="638"/>
-      <c r="AD8" s="638"/>
-      <c r="AE8" s="638"/>
-      <c r="AF8" s="638"/>
-      <c r="AG8" s="638"/>
-      <c r="AH8" s="638"/>
-      <c r="AI8" s="638"/>
-      <c r="AJ8" s="638"/>
-      <c r="AK8" s="638"/>
-      <c r="AL8" s="638"/>
-      <c r="AM8" s="638"/>
+      <c r="L8" s="584"/>
+      <c r="M8" s="584"/>
+      <c r="N8" s="629"/>
+      <c r="O8" s="630"/>
+      <c r="P8" s="630"/>
+      <c r="Q8" s="630"/>
+      <c r="R8" s="630"/>
+      <c r="S8" s="630"/>
+      <c r="T8" s="630"/>
+      <c r="U8" s="630"/>
+      <c r="V8" s="630"/>
+      <c r="W8" s="630"/>
+      <c r="X8" s="630"/>
+      <c r="Y8" s="630"/>
+      <c r="Z8" s="630"/>
+      <c r="AA8" s="630"/>
+      <c r="AB8" s="630"/>
+      <c r="AC8" s="630"/>
+      <c r="AD8" s="630"/>
+      <c r="AE8" s="630"/>
+      <c r="AF8" s="630"/>
+      <c r="AG8" s="630"/>
+      <c r="AH8" s="630"/>
+      <c r="AI8" s="630"/>
+      <c r="AJ8" s="630"/>
+      <c r="AK8" s="630"/>
+      <c r="AL8" s="630"/>
+      <c r="AM8" s="630"/>
       <c r="AN8" s="323"/>
       <c r="AO8" s="323"/>
       <c r="AP8" s="324"/>
@@ -63347,54 +63347,54 @@
       <c r="AR8" s="325"/>
       <c r="AS8" s="325"/>
       <c r="AT8" s="325"/>
-      <c r="AU8" s="629"/>
-      <c r="AV8" s="639"/>
-      <c r="AW8" s="630"/>
-      <c r="AX8" s="632"/>
-      <c r="AY8" s="615"/>
-      <c r="AZ8" s="592"/>
+      <c r="AU8" s="619"/>
+      <c r="AV8" s="631"/>
+      <c r="AW8" s="621"/>
+      <c r="AX8" s="623"/>
+      <c r="AY8" s="624"/>
+      <c r="AZ8" s="625"/>
       <c r="BA8" s="326"/>
       <c r="BB8" s="327"/>
       <c r="BC8" s="327"/>
       <c r="BD8" s="327"/>
       <c r="BE8" s="328"/>
       <c r="BF8" s="328"/>
-      <c r="BG8" s="610" t="s">
+      <c r="BG8" s="632" t="s">
         <v>2169</v>
       </c>
-      <c r="BH8" s="611"/>
-      <c r="BI8" s="612"/>
-      <c r="BJ8" s="613" t="s">
+      <c r="BH8" s="633"/>
+      <c r="BI8" s="634"/>
+      <c r="BJ8" s="635" t="s">
         <v>2170</v>
       </c>
       <c r="BK8" s="240"/>
       <c r="BL8" s="240"/>
       <c r="BM8" s="240"/>
       <c r="BN8" s="240"/>
-      <c r="BO8" s="615" t="s">
+      <c r="BO8" s="624" t="s">
         <v>2171</v>
       </c>
-      <c r="BP8" s="616"/>
-      <c r="BQ8" s="617" t="s">
+      <c r="BP8" s="617"/>
+      <c r="BQ8" s="637" t="s">
         <v>2172</v>
       </c>
-      <c r="BR8" s="618"/>
-      <c r="BS8" s="618"/>
-      <c r="BT8" s="618"/>
-      <c r="BU8" s="618"/>
-      <c r="BV8" s="618"/>
+      <c r="BR8" s="626"/>
+      <c r="BS8" s="626"/>
+      <c r="BT8" s="626"/>
+      <c r="BU8" s="626"/>
+      <c r="BV8" s="626"/>
       <c r="BW8" s="319"/>
       <c r="BX8" s="319"/>
-      <c r="BY8" s="577" t="s">
+      <c r="BY8" s="638" t="s">
         <v>2173</v>
       </c>
-      <c r="BZ8" s="577" t="s">
+      <c r="BZ8" s="638" t="s">
         <v>2174</v>
       </c>
-      <c r="CA8" s="577" t="s">
+      <c r="CA8" s="638" t="s">
         <v>2175</v>
       </c>
-      <c r="CB8" s="577" t="s">
+      <c r="CB8" s="638" t="s">
         <v>2176</v>
       </c>
       <c r="CC8" s="401"/>
@@ -63406,74 +63406,74 @@
       <c r="DD8" s="329"/>
     </row>
     <row r="9" spans="1:147" s="320" customFormat="1" ht="16.2" customHeight="1">
-      <c r="A9" s="567"/>
-      <c r="B9" s="567"/>
-      <c r="C9" s="623"/>
-      <c r="D9" s="623"/>
-      <c r="E9" s="566" t="s">
+      <c r="A9" s="615"/>
+      <c r="B9" s="615"/>
+      <c r="C9" s="608"/>
+      <c r="D9" s="608"/>
+      <c r="E9" s="639" t="s">
         <v>2177</v>
       </c>
-      <c r="F9" s="566" t="s">
+      <c r="F9" s="639" t="s">
         <v>2178</v>
       </c>
-      <c r="G9" s="567" t="s">
+      <c r="G9" s="615" t="s">
         <v>2179</v>
       </c>
-      <c r="H9" s="567"/>
-      <c r="I9" s="568" t="s">
+      <c r="H9" s="615"/>
+      <c r="I9" s="618" t="s">
         <v>2180</v>
       </c>
-      <c r="J9" s="569"/>
-      <c r="K9" s="634"/>
-      <c r="L9" s="557"/>
-      <c r="M9" s="557"/>
-      <c r="N9" s="572" t="s">
+      <c r="J9" s="620"/>
+      <c r="K9" s="583"/>
+      <c r="L9" s="584"/>
+      <c r="M9" s="584"/>
+      <c r="N9" s="665" t="s">
         <v>2181</v>
       </c>
-      <c r="O9" s="572"/>
-      <c r="P9" s="572"/>
-      <c r="Q9" s="572"/>
-      <c r="R9" s="572"/>
-      <c r="S9" s="572"/>
-      <c r="T9" s="572"/>
-      <c r="U9" s="572"/>
-      <c r="V9" s="572"/>
-      <c r="W9" s="572"/>
-      <c r="X9" s="572"/>
-      <c r="Y9" s="572"/>
-      <c r="Z9" s="572"/>
-      <c r="AA9" s="572"/>
-      <c r="AB9" s="572"/>
-      <c r="AC9" s="572"/>
-      <c r="AD9" s="572"/>
-      <c r="AE9" s="572"/>
-      <c r="AF9" s="572"/>
-      <c r="AG9" s="572"/>
-      <c r="AH9" s="572"/>
-      <c r="AI9" s="572"/>
-      <c r="AJ9" s="572"/>
-      <c r="AK9" s="572"/>
-      <c r="AL9" s="572"/>
-      <c r="AM9" s="572"/>
-      <c r="AN9" s="606" t="s">
+      <c r="O9" s="665"/>
+      <c r="P9" s="665"/>
+      <c r="Q9" s="665"/>
+      <c r="R9" s="665"/>
+      <c r="S9" s="665"/>
+      <c r="T9" s="665"/>
+      <c r="U9" s="665"/>
+      <c r="V9" s="665"/>
+      <c r="W9" s="665"/>
+      <c r="X9" s="665"/>
+      <c r="Y9" s="665"/>
+      <c r="Z9" s="665"/>
+      <c r="AA9" s="665"/>
+      <c r="AB9" s="665"/>
+      <c r="AC9" s="665"/>
+      <c r="AD9" s="665"/>
+      <c r="AE9" s="665"/>
+      <c r="AF9" s="665"/>
+      <c r="AG9" s="665"/>
+      <c r="AH9" s="665"/>
+      <c r="AI9" s="665"/>
+      <c r="AJ9" s="665"/>
+      <c r="AK9" s="665"/>
+      <c r="AL9" s="665"/>
+      <c r="AM9" s="665"/>
+      <c r="AN9" s="644" t="s">
         <v>2182</v>
       </c>
-      <c r="AO9" s="607"/>
-      <c r="AP9" s="588" t="s">
+      <c r="AO9" s="645"/>
+      <c r="AP9" s="654" t="s">
         <v>2183</v>
       </c>
-      <c r="AQ9" s="589"/>
-      <c r="AR9" s="589"/>
-      <c r="AS9" s="589"/>
-      <c r="AT9" s="589"/>
-      <c r="AU9" s="589"/>
-      <c r="AV9" s="589"/>
-      <c r="AW9" s="589"/>
-      <c r="AX9" s="590"/>
-      <c r="AY9" s="591" t="s">
+      <c r="AQ9" s="655"/>
+      <c r="AR9" s="655"/>
+      <c r="AS9" s="655"/>
+      <c r="AT9" s="655"/>
+      <c r="AU9" s="655"/>
+      <c r="AV9" s="655"/>
+      <c r="AW9" s="655"/>
+      <c r="AX9" s="656"/>
+      <c r="AY9" s="657" t="s">
         <v>2184</v>
       </c>
-      <c r="AZ9" s="592"/>
+      <c r="AZ9" s="625"/>
       <c r="BA9" s="330" t="s">
         <v>2185</v>
       </c>
@@ -63483,52 +63483,52 @@
       <c r="BC9" s="331" t="s">
         <v>2187</v>
       </c>
-      <c r="BD9" s="593" t="s">
+      <c r="BD9" s="658" t="s">
         <v>2188</v>
       </c>
-      <c r="BE9" s="594"/>
+      <c r="BE9" s="659"/>
       <c r="BF9" s="332" t="s">
         <v>2189</v>
       </c>
-      <c r="BG9" s="595" t="s">
+      <c r="BG9" s="660" t="s">
         <v>2190</v>
       </c>
-      <c r="BH9" s="596"/>
-      <c r="BI9" s="597"/>
-      <c r="BJ9" s="614"/>
-      <c r="BK9" s="598" t="s">
+      <c r="BH9" s="661"/>
+      <c r="BI9" s="662"/>
+      <c r="BJ9" s="636"/>
+      <c r="BK9" s="663" t="s">
         <v>2191</v>
       </c>
-      <c r="BL9" s="598"/>
-      <c r="BM9" s="598"/>
-      <c r="BN9" s="598"/>
-      <c r="BO9" s="567" t="s">
+      <c r="BL9" s="663"/>
+      <c r="BM9" s="663"/>
+      <c r="BN9" s="663"/>
+      <c r="BO9" s="615" t="s">
         <v>2171</v>
       </c>
-      <c r="BP9" s="567"/>
-      <c r="BQ9" s="620" t="s">
+      <c r="BP9" s="615"/>
+      <c r="BQ9" s="642" t="s">
         <v>2172</v>
       </c>
-      <c r="BR9" s="618"/>
-      <c r="BS9" s="618"/>
-      <c r="BT9" s="618"/>
-      <c r="BU9" s="618"/>
-      <c r="BV9" s="618"/>
-      <c r="BW9" s="621" t="str">
+      <c r="BR9" s="626"/>
+      <c r="BS9" s="626"/>
+      <c r="BT9" s="626"/>
+      <c r="BU9" s="626"/>
+      <c r="BV9" s="626"/>
+      <c r="BW9" s="643" t="str">
         <f>$AJ11</f>
         <v>[W]
 (mm)</v>
       </c>
-      <c r="BX9" s="621" t="str">
+      <c r="BX9" s="643" t="str">
         <f>$AA11</f>
         <v>205
 (mm)</v>
       </c>
-      <c r="BY9" s="566"/>
-      <c r="BZ9" s="566"/>
-      <c r="CA9" s="566"/>
-      <c r="CB9" s="566"/>
-      <c r="CC9" s="560"/>
+      <c r="BY9" s="639"/>
+      <c r="BZ9" s="639"/>
+      <c r="CA9" s="639"/>
+      <c r="CB9" s="639"/>
+      <c r="CC9" s="671"/>
       <c r="CD9" s="319"/>
       <c r="CZ9" s="329"/>
       <c r="DA9" s="329"/>
@@ -63537,96 +63537,96 @@
       <c r="DD9" s="329"/>
     </row>
     <row r="10" spans="1:147" s="320" customFormat="1" ht="14.4" customHeight="1">
-      <c r="A10" s="567"/>
-      <c r="B10" s="567"/>
-      <c r="C10" s="623"/>
-      <c r="D10" s="623"/>
-      <c r="E10" s="566"/>
-      <c r="F10" s="566"/>
-      <c r="G10" s="573" t="s">
+      <c r="A10" s="615"/>
+      <c r="B10" s="615"/>
+      <c r="C10" s="608"/>
+      <c r="D10" s="608"/>
+      <c r="E10" s="639"/>
+      <c r="F10" s="639"/>
+      <c r="G10" s="652" t="s">
         <v>2192</v>
       </c>
-      <c r="H10" s="573" t="s">
+      <c r="H10" s="652" t="s">
         <v>2193</v>
       </c>
-      <c r="I10" s="570"/>
-      <c r="J10" s="571"/>
-      <c r="K10" s="635"/>
-      <c r="L10" s="636"/>
-      <c r="M10" s="636"/>
-      <c r="N10" s="574" t="s">
+      <c r="I10" s="664"/>
+      <c r="J10" s="628"/>
+      <c r="K10" s="590"/>
+      <c r="L10" s="591"/>
+      <c r="M10" s="591"/>
+      <c r="N10" s="666" t="s">
         <v>2194</v>
       </c>
-      <c r="O10" s="576" t="s">
+      <c r="O10" s="650" t="s">
         <v>2195</v>
       </c>
-      <c r="P10" s="576" t="s">
+      <c r="P10" s="650" t="s">
         <v>2196</v>
       </c>
-      <c r="Q10" s="578" t="s">
+      <c r="Q10" s="567" t="s">
         <v>2197</v>
       </c>
-      <c r="R10" s="579"/>
-      <c r="S10" s="579"/>
-      <c r="T10" s="579"/>
-      <c r="U10" s="579"/>
-      <c r="V10" s="579"/>
-      <c r="W10" s="579"/>
-      <c r="X10" s="579"/>
-      <c r="Y10" s="579"/>
-      <c r="Z10" s="579"/>
-      <c r="AA10" s="579"/>
-      <c r="AB10" s="579"/>
-      <c r="AC10" s="579"/>
-      <c r="AD10" s="579"/>
-      <c r="AE10" s="579"/>
-      <c r="AF10" s="579"/>
-      <c r="AG10" s="579"/>
-      <c r="AH10" s="579"/>
-      <c r="AI10" s="580"/>
-      <c r="AJ10" s="578" t="s">
+      <c r="R10" s="568"/>
+      <c r="S10" s="568"/>
+      <c r="T10" s="568"/>
+      <c r="U10" s="568"/>
+      <c r="V10" s="568"/>
+      <c r="W10" s="568"/>
+      <c r="X10" s="568"/>
+      <c r="Y10" s="568"/>
+      <c r="Z10" s="568"/>
+      <c r="AA10" s="568"/>
+      <c r="AB10" s="568"/>
+      <c r="AC10" s="568"/>
+      <c r="AD10" s="568"/>
+      <c r="AE10" s="568"/>
+      <c r="AF10" s="568"/>
+      <c r="AG10" s="568"/>
+      <c r="AH10" s="568"/>
+      <c r="AI10" s="651"/>
+      <c r="AJ10" s="567" t="s">
         <v>2198</v>
       </c>
-      <c r="AK10" s="579"/>
-      <c r="AL10" s="579"/>
-      <c r="AM10" s="580"/>
-      <c r="AN10" s="573" t="s">
+      <c r="AK10" s="568"/>
+      <c r="AL10" s="568"/>
+      <c r="AM10" s="651"/>
+      <c r="AN10" s="652" t="s">
         <v>2199</v>
       </c>
-      <c r="AO10" s="573" t="s">
+      <c r="AO10" s="652" t="s">
         <v>2200</v>
       </c>
-      <c r="AP10" s="566" t="s">
+      <c r="AP10" s="639" t="s">
         <v>2201</v>
       </c>
-      <c r="AQ10" s="566" t="s">
+      <c r="AQ10" s="639" t="s">
         <v>2202</v>
       </c>
-      <c r="AR10" s="609" t="s">
+      <c r="AR10" s="653" t="s">
         <v>2203</v>
       </c>
-      <c r="AS10" s="573" t="s">
+      <c r="AS10" s="652" t="s">
         <v>2204</v>
       </c>
-      <c r="AT10" s="573" t="s">
+      <c r="AT10" s="652" t="s">
         <v>831</v>
       </c>
-      <c r="AU10" s="573" t="s">
+      <c r="AU10" s="652" t="s">
         <v>832</v>
       </c>
-      <c r="AV10" s="573" t="s">
+      <c r="AV10" s="652" t="s">
         <v>833</v>
       </c>
-      <c r="AW10" s="573" t="s">
+      <c r="AW10" s="652" t="s">
         <v>2205</v>
       </c>
-      <c r="AX10" s="585" t="s">
+      <c r="AX10" s="596" t="s">
         <v>2206</v>
       </c>
-      <c r="AY10" s="599" t="s">
+      <c r="AY10" s="646" t="s">
         <v>1633</v>
       </c>
-      <c r="AZ10" s="599" t="s">
+      <c r="AZ10" s="646" t="s">
         <v>1634</v>
       </c>
       <c r="BA10" s="333"/>
@@ -63635,51 +63635,51 @@
       <c r="BD10" s="334"/>
       <c r="BE10" s="335"/>
       <c r="BF10" s="335"/>
-      <c r="BG10" s="576" t="s">
+      <c r="BG10" s="650" t="s">
         <v>2207</v>
       </c>
-      <c r="BH10" s="578" t="s">
+      <c r="BH10" s="567" t="s">
         <v>2208</v>
       </c>
-      <c r="BI10" s="580"/>
-      <c r="BJ10" s="619" t="s">
+      <c r="BI10" s="651"/>
+      <c r="BJ10" s="640" t="s">
         <v>2209</v>
       </c>
-      <c r="BK10" s="599" t="s">
+      <c r="BK10" s="646" t="s">
         <v>2210</v>
       </c>
-      <c r="BL10" s="599" t="s">
+      <c r="BL10" s="646" t="s">
         <v>2211</v>
       </c>
-      <c r="BM10" s="599" t="s">
+      <c r="BM10" s="646" t="s">
         <v>2212</v>
       </c>
-      <c r="BN10" s="599" t="s">
+      <c r="BN10" s="646" t="s">
         <v>2213</v>
       </c>
-      <c r="BO10" s="566" t="s">
+      <c r="BO10" s="639" t="s">
         <v>2214</v>
       </c>
-      <c r="BP10" s="566" t="s">
+      <c r="BP10" s="639" t="s">
         <v>1665</v>
       </c>
-      <c r="BQ10" s="602" t="s">
+      <c r="BQ10" s="647" t="s">
         <v>1664</v>
       </c>
-      <c r="BR10" s="603"/>
-      <c r="BS10" s="603"/>
-      <c r="BT10" s="608"/>
-      <c r="BU10" s="602" t="s">
+      <c r="BR10" s="648"/>
+      <c r="BS10" s="648"/>
+      <c r="BT10" s="649"/>
+      <c r="BU10" s="647" t="s">
         <v>1665</v>
       </c>
-      <c r="BV10" s="603"/>
-      <c r="BW10" s="621"/>
-      <c r="BX10" s="621"/>
-      <c r="BY10" s="566"/>
-      <c r="BZ10" s="566"/>
-      <c r="CA10" s="566"/>
-      <c r="CB10" s="566"/>
-      <c r="CC10" s="560"/>
+      <c r="BV10" s="648"/>
+      <c r="BW10" s="643"/>
+      <c r="BX10" s="643"/>
+      <c r="BY10" s="639"/>
+      <c r="BZ10" s="639"/>
+      <c r="CA10" s="639"/>
+      <c r="CB10" s="639"/>
+      <c r="CC10" s="671"/>
       <c r="CD10" s="319"/>
       <c r="CZ10" s="329"/>
       <c r="DA10" s="329"/>
@@ -63688,14 +63688,14 @@
       <c r="DD10" s="329"/>
     </row>
     <row r="11" spans="1:147" s="320" customFormat="1" ht="39.6" customHeight="1">
-      <c r="A11" s="628"/>
-      <c r="B11" s="628"/>
-      <c r="C11" s="623"/>
-      <c r="D11" s="623"/>
-      <c r="E11" s="566"/>
-      <c r="F11" s="566"/>
-      <c r="G11" s="573"/>
-      <c r="H11" s="573"/>
+      <c r="A11" s="616"/>
+      <c r="B11" s="616"/>
+      <c r="C11" s="608"/>
+      <c r="D11" s="608"/>
+      <c r="E11" s="639"/>
+      <c r="F11" s="639"/>
+      <c r="G11" s="652"/>
+      <c r="H11" s="652"/>
       <c r="I11" s="336" t="s">
         <v>2215</v>
       </c>
@@ -63711,9 +63711,9 @@
       <c r="M11" s="337" t="s">
         <v>2219</v>
       </c>
-      <c r="N11" s="575"/>
-      <c r="O11" s="577"/>
-      <c r="P11" s="577"/>
+      <c r="N11" s="667"/>
+      <c r="O11" s="638"/>
+      <c r="P11" s="638"/>
       <c r="Q11" s="338" t="s">
         <v>2220</v>
       </c>
@@ -63785,19 +63785,19 @@
       <c r="AM11" s="338" t="s">
         <v>2238</v>
       </c>
-      <c r="AN11" s="573"/>
-      <c r="AO11" s="573"/>
-      <c r="AP11" s="566"/>
-      <c r="AQ11" s="566"/>
-      <c r="AR11" s="609"/>
-      <c r="AS11" s="573"/>
-      <c r="AT11" s="573"/>
-      <c r="AU11" s="573"/>
-      <c r="AV11" s="573"/>
-      <c r="AW11" s="573"/>
-      <c r="AX11" s="601"/>
-      <c r="AY11" s="600"/>
-      <c r="AZ11" s="600"/>
+      <c r="AN11" s="652"/>
+      <c r="AO11" s="652"/>
+      <c r="AP11" s="639"/>
+      <c r="AQ11" s="639"/>
+      <c r="AR11" s="653"/>
+      <c r="AS11" s="652"/>
+      <c r="AT11" s="652"/>
+      <c r="AU11" s="652"/>
+      <c r="AV11" s="652"/>
+      <c r="AW11" s="652"/>
+      <c r="AX11" s="589"/>
+      <c r="AY11" s="641"/>
+      <c r="AZ11" s="641"/>
       <c r="BA11" s="341" t="s">
         <v>2239</v>
       </c>
@@ -63816,20 +63816,20 @@
       <c r="BF11" s="339" t="s">
         <v>2244</v>
       </c>
-      <c r="BG11" s="577"/>
+      <c r="BG11" s="638"/>
       <c r="BH11" s="338" t="s">
         <v>2245</v>
       </c>
       <c r="BI11" s="338" t="s">
         <v>2246</v>
       </c>
-      <c r="BJ11" s="600"/>
-      <c r="BK11" s="600"/>
-      <c r="BL11" s="600"/>
-      <c r="BM11" s="600"/>
-      <c r="BN11" s="600"/>
-      <c r="BO11" s="566"/>
-      <c r="BP11" s="566"/>
+      <c r="BJ11" s="641"/>
+      <c r="BK11" s="641"/>
+      <c r="BL11" s="641"/>
+      <c r="BM11" s="641"/>
+      <c r="BN11" s="641"/>
+      <c r="BO11" s="639"/>
+      <c r="BP11" s="639"/>
       <c r="BQ11" s="342" t="s">
         <v>2214</v>
       </c>
@@ -63848,13 +63848,13 @@
       <c r="BV11" s="343" t="s">
         <v>2250</v>
       </c>
-      <c r="BW11" s="621"/>
-      <c r="BX11" s="621"/>
-      <c r="BY11" s="566"/>
-      <c r="BZ11" s="566"/>
-      <c r="CA11" s="566"/>
-      <c r="CB11" s="566"/>
-      <c r="CC11" s="561"/>
+      <c r="BW11" s="643"/>
+      <c r="BX11" s="643"/>
+      <c r="BY11" s="639"/>
+      <c r="BZ11" s="639"/>
+      <c r="CA11" s="639"/>
+      <c r="CB11" s="639"/>
+      <c r="CC11" s="672"/>
       <c r="CD11" s="319"/>
       <c r="CZ11" s="329"/>
       <c r="DA11" s="329"/>
@@ -63932,16 +63932,16 @@
         <f>$G12</f>
         <v>3</v>
       </c>
-      <c r="Z12" s="578">
+      <c r="Z12" s="567">
         <v>22</v>
       </c>
-      <c r="AA12" s="579"/>
-      <c r="AB12" s="579"/>
-      <c r="AC12" s="579"/>
-      <c r="AD12" s="579"/>
-      <c r="AE12" s="579"/>
-      <c r="AF12" s="579"/>
-      <c r="AG12" s="580"/>
+      <c r="AA12" s="568"/>
+      <c r="AB12" s="568"/>
+      <c r="AC12" s="568"/>
+      <c r="AD12" s="568"/>
+      <c r="AE12" s="568"/>
+      <c r="AF12" s="568"/>
+      <c r="AG12" s="651"/>
       <c r="AH12" s="348">
         <v>23</v>
       </c>
@@ -64029,12 +64029,12 @@
       <c r="BJ12" s="349">
         <v>51</v>
       </c>
-      <c r="BK12" s="624">
+      <c r="BK12" s="611">
         <f>$Z12</f>
         <v>22</v>
       </c>
-      <c r="BL12" s="625"/>
-      <c r="BM12" s="626"/>
+      <c r="BL12" s="612"/>
+      <c r="BM12" s="613"/>
       <c r="BN12" s="349">
         <v>52</v>
       </c>
@@ -64163,27 +64163,27 @@
       <c r="P13" s="353" t="s">
         <v>678</v>
       </c>
-      <c r="Q13" s="581"/>
-      <c r="R13" s="582"/>
-      <c r="S13" s="583"/>
+      <c r="Q13" s="592"/>
+      <c r="R13" s="593"/>
+      <c r="S13" s="594"/>
       <c r="T13" s="346" t="s">
         <v>616</v>
       </c>
       <c r="U13" s="353" t="s">
         <v>623</v>
       </c>
-      <c r="V13" s="584"/>
-      <c r="W13" s="582"/>
-      <c r="X13" s="582"/>
-      <c r="Y13" s="582"/>
-      <c r="Z13" s="582"/>
-      <c r="AA13" s="582"/>
-      <c r="AB13" s="582"/>
-      <c r="AC13" s="582"/>
-      <c r="AD13" s="582"/>
-      <c r="AE13" s="582"/>
-      <c r="AF13" s="582"/>
-      <c r="AG13" s="585"/>
+      <c r="V13" s="595"/>
+      <c r="W13" s="593"/>
+      <c r="X13" s="593"/>
+      <c r="Y13" s="593"/>
+      <c r="Z13" s="593"/>
+      <c r="AA13" s="593"/>
+      <c r="AB13" s="593"/>
+      <c r="AC13" s="593"/>
+      <c r="AD13" s="593"/>
+      <c r="AE13" s="593"/>
+      <c r="AF13" s="593"/>
+      <c r="AG13" s="596"/>
       <c r="AH13" s="353" t="s">
         <v>630</v>
       </c>
@@ -64202,53 +64202,53 @@
       <c r="AM13" s="337" t="s">
         <v>738</v>
       </c>
-      <c r="AN13" s="586"/>
-      <c r="AO13" s="587"/>
+      <c r="AN13" s="597"/>
+      <c r="AO13" s="598"/>
       <c r="AP13" s="349" t="s">
         <v>189</v>
       </c>
-      <c r="AQ13" s="604"/>
-      <c r="AR13" s="605"/>
-      <c r="AS13" s="605"/>
-      <c r="AT13" s="605"/>
-      <c r="AU13" s="605"/>
-      <c r="AV13" s="587"/>
+      <c r="AQ13" s="599"/>
+      <c r="AR13" s="600"/>
+      <c r="AS13" s="600"/>
+      <c r="AT13" s="600"/>
+      <c r="AU13" s="600"/>
+      <c r="AV13" s="598"/>
       <c r="AW13" s="404" t="s">
         <v>2342</v>
       </c>
       <c r="AX13" s="362" t="s">
         <v>2343</v>
       </c>
-      <c r="AY13" s="604"/>
-      <c r="AZ13" s="605"/>
-      <c r="BA13" s="605"/>
-      <c r="BB13" s="605"/>
-      <c r="BC13" s="605"/>
-      <c r="BD13" s="605"/>
-      <c r="BE13" s="605"/>
-      <c r="BF13" s="605"/>
-      <c r="BG13" s="605"/>
-      <c r="BH13" s="605"/>
-      <c r="BI13" s="605"/>
-      <c r="BJ13" s="605"/>
-      <c r="BK13" s="605"/>
-      <c r="BL13" s="605"/>
-      <c r="BM13" s="605"/>
-      <c r="BN13" s="605"/>
-      <c r="BO13" s="605"/>
-      <c r="BP13" s="605"/>
-      <c r="BQ13" s="605"/>
-      <c r="BR13" s="605"/>
-      <c r="BS13" s="605"/>
-      <c r="BT13" s="605"/>
-      <c r="BU13" s="605"/>
-      <c r="BV13" s="605"/>
-      <c r="BW13" s="605"/>
-      <c r="BX13" s="605"/>
-      <c r="BY13" s="605"/>
-      <c r="BZ13" s="605"/>
-      <c r="CA13" s="605"/>
-      <c r="CB13" s="605"/>
+      <c r="AY13" s="599"/>
+      <c r="AZ13" s="600"/>
+      <c r="BA13" s="600"/>
+      <c r="BB13" s="600"/>
+      <c r="BC13" s="600"/>
+      <c r="BD13" s="600"/>
+      <c r="BE13" s="600"/>
+      <c r="BF13" s="600"/>
+      <c r="BG13" s="600"/>
+      <c r="BH13" s="600"/>
+      <c r="BI13" s="600"/>
+      <c r="BJ13" s="600"/>
+      <c r="BK13" s="600"/>
+      <c r="BL13" s="600"/>
+      <c r="BM13" s="600"/>
+      <c r="BN13" s="600"/>
+      <c r="BO13" s="600"/>
+      <c r="BP13" s="600"/>
+      <c r="BQ13" s="600"/>
+      <c r="BR13" s="600"/>
+      <c r="BS13" s="600"/>
+      <c r="BT13" s="600"/>
+      <c r="BU13" s="600"/>
+      <c r="BV13" s="600"/>
+      <c r="BW13" s="600"/>
+      <c r="BX13" s="600"/>
+      <c r="BY13" s="600"/>
+      <c r="BZ13" s="600"/>
+      <c r="CA13" s="600"/>
+      <c r="CB13" s="600"/>
       <c r="CC13" s="349" t="s">
         <v>2390</v>
       </c>
@@ -64292,16 +64292,16 @@
       <c r="EB13" s="329"/>
       <c r="EC13" s="329"/>
       <c r="ED13" s="329"/>
-      <c r="EE13" s="557"/>
-      <c r="EF13" s="557"/>
-      <c r="EG13" s="557"/>
+      <c r="EE13" s="584"/>
+      <c r="EF13" s="584"/>
+      <c r="EG13" s="584"/>
       <c r="EH13" s="329"/>
       <c r="EI13" s="329"/>
-      <c r="EJ13" s="557"/>
-      <c r="EK13" s="557"/>
-      <c r="EL13" s="557"/>
-      <c r="EM13" s="557"/>
-      <c r="EN13" s="557"/>
+      <c r="EJ13" s="584"/>
+      <c r="EK13" s="584"/>
+      <c r="EL13" s="584"/>
+      <c r="EM13" s="584"/>
+      <c r="EN13" s="584"/>
       <c r="EO13" s="329"/>
       <c r="EP13" s="329"/>
       <c r="EQ13" s="329"/>
@@ -64309,27 +64309,27 @@
     <row r="14" spans="1:147" s="344" customFormat="1">
       <c r="A14" s="457"/>
       <c r="B14" s="348"/>
-      <c r="C14" s="644" t="s">
+      <c r="C14" s="606" t="s">
         <v>2332</v>
       </c>
-      <c r="D14" s="644"/>
+      <c r="D14" s="606"/>
       <c r="E14" s="432"/>
       <c r="F14" s="347">
         <f>$V14-($Q14+($I15+$J15)*$E13)</f>
         <v>37</v>
       </c>
-      <c r="G14" s="640"/>
-      <c r="H14" s="641"/>
-      <c r="I14" s="641"/>
-      <c r="J14" s="641"/>
-      <c r="K14" s="641"/>
-      <c r="L14" s="641"/>
-      <c r="M14" s="642"/>
+      <c r="G14" s="563"/>
+      <c r="H14" s="564"/>
+      <c r="I14" s="564"/>
+      <c r="J14" s="564"/>
+      <c r="K14" s="564"/>
+      <c r="L14" s="564"/>
+      <c r="M14" s="565"/>
       <c r="N14" s="354" t="s">
         <v>2332</v>
       </c>
-      <c r="O14" s="640"/>
-      <c r="P14" s="643"/>
+      <c r="O14" s="563"/>
+      <c r="P14" s="566"/>
       <c r="Q14" s="347">
         <v>1000</v>
       </c>
@@ -64431,25 +64431,25 @@
       <c r="BI14" s="347" t="s">
         <v>2458</v>
       </c>
-      <c r="BJ14" s="578"/>
-      <c r="BK14" s="579"/>
-      <c r="BL14" s="579"/>
-      <c r="BM14" s="579"/>
-      <c r="BN14" s="579"/>
-      <c r="BO14" s="579"/>
-      <c r="BP14" s="579"/>
-      <c r="BQ14" s="579"/>
-      <c r="BR14" s="579"/>
-      <c r="BS14" s="579"/>
-      <c r="BT14" s="579"/>
-      <c r="BU14" s="579"/>
-      <c r="BV14" s="579"/>
-      <c r="BW14" s="579"/>
-      <c r="BX14" s="579"/>
-      <c r="BY14" s="579"/>
-      <c r="BZ14" s="579"/>
-      <c r="CA14" s="579"/>
-      <c r="CB14" s="579"/>
+      <c r="BJ14" s="567"/>
+      <c r="BK14" s="568"/>
+      <c r="BL14" s="568"/>
+      <c r="BM14" s="568"/>
+      <c r="BN14" s="568"/>
+      <c r="BO14" s="568"/>
+      <c r="BP14" s="568"/>
+      <c r="BQ14" s="568"/>
+      <c r="BR14" s="568"/>
+      <c r="BS14" s="568"/>
+      <c r="BT14" s="568"/>
+      <c r="BU14" s="568"/>
+      <c r="BV14" s="568"/>
+      <c r="BW14" s="568"/>
+      <c r="BX14" s="568"/>
+      <c r="BY14" s="568"/>
+      <c r="BZ14" s="568"/>
+      <c r="CA14" s="568"/>
+      <c r="CB14" s="568"/>
       <c r="CC14" s="347" t="s">
         <v>2391</v>
       </c>
@@ -64484,15 +64484,15 @@
       <c r="DD14" s="227"/>
       <c r="DT14" s="230"/>
       <c r="DU14" s="230"/>
-      <c r="DV14" s="558"/>
-      <c r="DW14" s="558"/>
-      <c r="DX14" s="558"/>
-      <c r="DY14" s="558"/>
-      <c r="DZ14" s="558"/>
-      <c r="EA14" s="558"/>
+      <c r="DV14" s="669"/>
+      <c r="DW14" s="669"/>
+      <c r="DX14" s="669"/>
+      <c r="DY14" s="669"/>
+      <c r="DZ14" s="669"/>
+      <c r="EA14" s="669"/>
       <c r="EB14" s="227"/>
-      <c r="EC14" s="558"/>
-      <c r="ED14" s="558"/>
+      <c r="EC14" s="669"/>
+      <c r="ED14" s="669"/>
       <c r="EE14" s="227"/>
       <c r="EF14" s="227"/>
       <c r="EG14" s="227"/>
@@ -64871,27 +64871,27 @@
       <c r="P16" s="353" t="s">
         <v>678</v>
       </c>
-      <c r="Q16" s="581"/>
-      <c r="R16" s="582"/>
-      <c r="S16" s="583"/>
+      <c r="Q16" s="592"/>
+      <c r="R16" s="593"/>
+      <c r="S16" s="594"/>
       <c r="T16" s="353" t="s">
         <v>616</v>
       </c>
       <c r="U16" s="353" t="s">
         <v>623</v>
       </c>
-      <c r="V16" s="584"/>
-      <c r="W16" s="582"/>
-      <c r="X16" s="582"/>
-      <c r="Y16" s="582"/>
-      <c r="Z16" s="582"/>
-      <c r="AA16" s="582"/>
-      <c r="AB16" s="582"/>
-      <c r="AC16" s="582"/>
-      <c r="AD16" s="582"/>
-      <c r="AE16" s="582"/>
-      <c r="AF16" s="582"/>
-      <c r="AG16" s="585"/>
+      <c r="V16" s="595"/>
+      <c r="W16" s="593"/>
+      <c r="X16" s="593"/>
+      <c r="Y16" s="593"/>
+      <c r="Z16" s="593"/>
+      <c r="AA16" s="593"/>
+      <c r="AB16" s="593"/>
+      <c r="AC16" s="593"/>
+      <c r="AD16" s="593"/>
+      <c r="AE16" s="593"/>
+      <c r="AF16" s="593"/>
+      <c r="AG16" s="596"/>
       <c r="AH16" s="353" t="s">
         <v>630</v>
       </c>
@@ -64910,53 +64910,53 @@
       <c r="AM16" s="353" t="s">
         <v>738</v>
       </c>
-      <c r="AN16" s="586"/>
-      <c r="AO16" s="587"/>
+      <c r="AN16" s="597"/>
+      <c r="AO16" s="598"/>
       <c r="AP16" s="349" t="s">
         <v>17</v>
       </c>
-      <c r="AQ16" s="604"/>
-      <c r="AR16" s="605"/>
-      <c r="AS16" s="605"/>
-      <c r="AT16" s="605"/>
-      <c r="AU16" s="605"/>
-      <c r="AV16" s="587"/>
+      <c r="AQ16" s="599"/>
+      <c r="AR16" s="600"/>
+      <c r="AS16" s="600"/>
+      <c r="AT16" s="600"/>
+      <c r="AU16" s="600"/>
+      <c r="AV16" s="598"/>
       <c r="AW16" s="346" t="s">
         <v>2465</v>
       </c>
       <c r="AX16" s="346" t="s">
         <v>814</v>
       </c>
-      <c r="AY16" s="604"/>
-      <c r="AZ16" s="605"/>
-      <c r="BA16" s="605"/>
-      <c r="BB16" s="605"/>
-      <c r="BC16" s="605"/>
-      <c r="BD16" s="605"/>
-      <c r="BE16" s="605"/>
-      <c r="BF16" s="605"/>
-      <c r="BG16" s="605"/>
-      <c r="BH16" s="605"/>
-      <c r="BI16" s="605"/>
-      <c r="BJ16" s="605"/>
-      <c r="BK16" s="605"/>
-      <c r="BL16" s="605"/>
-      <c r="BM16" s="605"/>
-      <c r="BN16" s="605"/>
-      <c r="BO16" s="605"/>
-      <c r="BP16" s="605"/>
-      <c r="BQ16" s="605"/>
-      <c r="BR16" s="605"/>
-      <c r="BS16" s="605"/>
-      <c r="BT16" s="605"/>
-      <c r="BU16" s="605"/>
-      <c r="BV16" s="605"/>
-      <c r="BW16" s="605"/>
-      <c r="BX16" s="605"/>
-      <c r="BY16" s="605"/>
-      <c r="BZ16" s="605"/>
-      <c r="CA16" s="605"/>
-      <c r="CB16" s="605"/>
+      <c r="AY16" s="599"/>
+      <c r="AZ16" s="600"/>
+      <c r="BA16" s="600"/>
+      <c r="BB16" s="600"/>
+      <c r="BC16" s="600"/>
+      <c r="BD16" s="600"/>
+      <c r="BE16" s="600"/>
+      <c r="BF16" s="600"/>
+      <c r="BG16" s="600"/>
+      <c r="BH16" s="600"/>
+      <c r="BI16" s="600"/>
+      <c r="BJ16" s="600"/>
+      <c r="BK16" s="600"/>
+      <c r="BL16" s="600"/>
+      <c r="BM16" s="600"/>
+      <c r="BN16" s="600"/>
+      <c r="BO16" s="600"/>
+      <c r="BP16" s="600"/>
+      <c r="BQ16" s="600"/>
+      <c r="BR16" s="600"/>
+      <c r="BS16" s="600"/>
+      <c r="BT16" s="600"/>
+      <c r="BU16" s="600"/>
+      <c r="BV16" s="600"/>
+      <c r="BW16" s="600"/>
+      <c r="BX16" s="600"/>
+      <c r="BY16" s="600"/>
+      <c r="BZ16" s="600"/>
+      <c r="CA16" s="600"/>
+      <c r="CB16" s="600"/>
       <c r="CC16" s="349" t="s">
         <v>2371</v>
       </c>
@@ -65043,18 +65043,18 @@
         <f>$V17-($Q17+($I18+$J18)*$E16)</f>
         <v>370</v>
       </c>
-      <c r="G17" s="640"/>
-      <c r="H17" s="641"/>
-      <c r="I17" s="641"/>
-      <c r="J17" s="641"/>
-      <c r="K17" s="641"/>
-      <c r="L17" s="641"/>
-      <c r="M17" s="642"/>
+      <c r="G17" s="563"/>
+      <c r="H17" s="564"/>
+      <c r="I17" s="564"/>
+      <c r="J17" s="564"/>
+      <c r="K17" s="564"/>
+      <c r="L17" s="564"/>
+      <c r="M17" s="565"/>
       <c r="N17" s="354" t="s">
         <v>2366</v>
       </c>
-      <c r="O17" s="640"/>
-      <c r="P17" s="643"/>
+      <c r="O17" s="563"/>
+      <c r="P17" s="566"/>
       <c r="Q17" s="347">
         <v>1740</v>
       </c>
@@ -65156,25 +65156,25 @@
       <c r="BI17" s="347" t="s">
         <v>2458</v>
       </c>
-      <c r="BJ17" s="578"/>
-      <c r="BK17" s="579"/>
-      <c r="BL17" s="579"/>
-      <c r="BM17" s="579"/>
-      <c r="BN17" s="579"/>
-      <c r="BO17" s="579"/>
-      <c r="BP17" s="579"/>
-      <c r="BQ17" s="579"/>
-      <c r="BR17" s="579"/>
-      <c r="BS17" s="579"/>
-      <c r="BT17" s="579"/>
-      <c r="BU17" s="579"/>
-      <c r="BV17" s="579"/>
-      <c r="BW17" s="579"/>
-      <c r="BX17" s="579"/>
-      <c r="BY17" s="579"/>
-      <c r="BZ17" s="579"/>
-      <c r="CA17" s="579"/>
-      <c r="CB17" s="579"/>
+      <c r="BJ17" s="567"/>
+      <c r="BK17" s="568"/>
+      <c r="BL17" s="568"/>
+      <c r="BM17" s="568"/>
+      <c r="BN17" s="568"/>
+      <c r="BO17" s="568"/>
+      <c r="BP17" s="568"/>
+      <c r="BQ17" s="568"/>
+      <c r="BR17" s="568"/>
+      <c r="BS17" s="568"/>
+      <c r="BT17" s="568"/>
+      <c r="BU17" s="568"/>
+      <c r="BV17" s="568"/>
+      <c r="BW17" s="568"/>
+      <c r="BX17" s="568"/>
+      <c r="BY17" s="568"/>
+      <c r="BZ17" s="568"/>
+      <c r="CA17" s="568"/>
+      <c r="CB17" s="568"/>
       <c r="CC17" s="347" t="s">
         <v>2467</v>
       </c>
@@ -65608,27 +65608,27 @@
       <c r="P19" s="415" t="s">
         <v>2433</v>
       </c>
-      <c r="Q19" s="645"/>
-      <c r="R19" s="645"/>
-      <c r="S19" s="645"/>
+      <c r="Q19" s="605"/>
+      <c r="R19" s="605"/>
+      <c r="S19" s="605"/>
       <c r="T19" s="415" t="s">
         <v>616</v>
       </c>
       <c r="U19" s="415" t="s">
         <v>623</v>
       </c>
-      <c r="V19" s="645"/>
-      <c r="W19" s="645"/>
-      <c r="X19" s="645"/>
-      <c r="Y19" s="645"/>
-      <c r="Z19" s="645"/>
-      <c r="AA19" s="645"/>
-      <c r="AB19" s="645"/>
-      <c r="AC19" s="645"/>
-      <c r="AD19" s="645"/>
-      <c r="AE19" s="645"/>
-      <c r="AF19" s="645"/>
-      <c r="AG19" s="645"/>
+      <c r="V19" s="605"/>
+      <c r="W19" s="605"/>
+      <c r="X19" s="605"/>
+      <c r="Y19" s="605"/>
+      <c r="Z19" s="605"/>
+      <c r="AA19" s="605"/>
+      <c r="AB19" s="605"/>
+      <c r="AC19" s="605"/>
+      <c r="AD19" s="605"/>
+      <c r="AE19" s="605"/>
+      <c r="AF19" s="605"/>
+      <c r="AG19" s="605"/>
       <c r="AH19" s="415" t="s">
         <v>630</v>
       </c>
@@ -65647,53 +65647,53 @@
       <c r="AM19" s="415" t="s">
         <v>738</v>
       </c>
-      <c r="AN19" s="645"/>
-      <c r="AO19" s="645"/>
+      <c r="AN19" s="605"/>
+      <c r="AO19" s="605"/>
       <c r="AP19" s="415" t="s">
         <v>189</v>
       </c>
-      <c r="AQ19" s="645"/>
-      <c r="AR19" s="645"/>
-      <c r="AS19" s="645"/>
-      <c r="AT19" s="645"/>
-      <c r="AU19" s="645"/>
-      <c r="AV19" s="645"/>
+      <c r="AQ19" s="605"/>
+      <c r="AR19" s="605"/>
+      <c r="AS19" s="605"/>
+      <c r="AT19" s="605"/>
+      <c r="AU19" s="605"/>
+      <c r="AV19" s="605"/>
       <c r="AW19" s="415" t="s">
         <v>812</v>
       </c>
       <c r="AX19" s="415" t="s">
         <v>814</v>
       </c>
-      <c r="AY19" s="645"/>
-      <c r="AZ19" s="645"/>
-      <c r="BA19" s="645"/>
-      <c r="BB19" s="645"/>
-      <c r="BC19" s="645"/>
-      <c r="BD19" s="645"/>
-      <c r="BE19" s="645"/>
-      <c r="BF19" s="645"/>
-      <c r="BG19" s="645"/>
-      <c r="BH19" s="645"/>
-      <c r="BI19" s="645"/>
-      <c r="BJ19" s="645"/>
-      <c r="BK19" s="645"/>
-      <c r="BL19" s="645"/>
-      <c r="BM19" s="645"/>
-      <c r="BN19" s="645"/>
-      <c r="BO19" s="645"/>
-      <c r="BP19" s="645"/>
-      <c r="BQ19" s="645"/>
-      <c r="BR19" s="645"/>
-      <c r="BS19" s="645"/>
-      <c r="BT19" s="645"/>
-      <c r="BU19" s="645"/>
-      <c r="BV19" s="645"/>
-      <c r="BW19" s="645"/>
-      <c r="BX19" s="645"/>
-      <c r="BY19" s="645"/>
-      <c r="BZ19" s="645"/>
-      <c r="CA19" s="645"/>
-      <c r="CB19" s="645"/>
+      <c r="AY19" s="605"/>
+      <c r="AZ19" s="605"/>
+      <c r="BA19" s="605"/>
+      <c r="BB19" s="605"/>
+      <c r="BC19" s="605"/>
+      <c r="BD19" s="605"/>
+      <c r="BE19" s="605"/>
+      <c r="BF19" s="605"/>
+      <c r="BG19" s="605"/>
+      <c r="BH19" s="605"/>
+      <c r="BI19" s="605"/>
+      <c r="BJ19" s="605"/>
+      <c r="BK19" s="605"/>
+      <c r="BL19" s="605"/>
+      <c r="BM19" s="605"/>
+      <c r="BN19" s="605"/>
+      <c r="BO19" s="605"/>
+      <c r="BP19" s="605"/>
+      <c r="BQ19" s="605"/>
+      <c r="BR19" s="605"/>
+      <c r="BS19" s="605"/>
+      <c r="BT19" s="605"/>
+      <c r="BU19" s="605"/>
+      <c r="BV19" s="605"/>
+      <c r="BW19" s="605"/>
+      <c r="BX19" s="605"/>
+      <c r="BY19" s="605"/>
+      <c r="BZ19" s="605"/>
+      <c r="CA19" s="605"/>
+      <c r="CB19" s="605"/>
       <c r="CC19" s="446" t="s">
         <v>2390</v>
       </c>
@@ -65779,18 +65779,18 @@
       <c r="F20" s="438">
         <v>20</v>
       </c>
-      <c r="G20" s="645"/>
-      <c r="H20" s="645"/>
-      <c r="I20" s="645"/>
-      <c r="J20" s="645"/>
-      <c r="K20" s="645"/>
-      <c r="L20" s="645"/>
-      <c r="M20" s="645"/>
+      <c r="G20" s="605"/>
+      <c r="H20" s="605"/>
+      <c r="I20" s="605"/>
+      <c r="J20" s="605"/>
+      <c r="K20" s="605"/>
+      <c r="L20" s="605"/>
+      <c r="M20" s="605"/>
       <c r="N20" s="438" t="s">
         <v>2363</v>
       </c>
-      <c r="O20" s="645"/>
-      <c r="P20" s="645"/>
+      <c r="O20" s="605"/>
+      <c r="P20" s="605"/>
       <c r="Q20" s="438">
         <v>1630</v>
       </c>
@@ -65882,25 +65882,25 @@
       <c r="BI20" s="438" t="s">
         <v>2364</v>
       </c>
-      <c r="BJ20" s="645"/>
-      <c r="BK20" s="645"/>
-      <c r="BL20" s="645"/>
-      <c r="BM20" s="645"/>
-      <c r="BN20" s="645"/>
-      <c r="BO20" s="645"/>
-      <c r="BP20" s="645"/>
-      <c r="BQ20" s="645"/>
-      <c r="BR20" s="645"/>
-      <c r="BS20" s="645"/>
-      <c r="BT20" s="645"/>
-      <c r="BU20" s="645"/>
-      <c r="BV20" s="645"/>
-      <c r="BW20" s="645"/>
-      <c r="BX20" s="645"/>
-      <c r="BY20" s="645"/>
-      <c r="BZ20" s="645"/>
-      <c r="CA20" s="645"/>
-      <c r="CB20" s="645"/>
+      <c r="BJ20" s="605"/>
+      <c r="BK20" s="605"/>
+      <c r="BL20" s="605"/>
+      <c r="BM20" s="605"/>
+      <c r="BN20" s="605"/>
+      <c r="BO20" s="605"/>
+      <c r="BP20" s="605"/>
+      <c r="BQ20" s="605"/>
+      <c r="BR20" s="605"/>
+      <c r="BS20" s="605"/>
+      <c r="BT20" s="605"/>
+      <c r="BU20" s="605"/>
+      <c r="BV20" s="605"/>
+      <c r="BW20" s="605"/>
+      <c r="BX20" s="605"/>
+      <c r="BY20" s="605"/>
+      <c r="BZ20" s="605"/>
+      <c r="CA20" s="605"/>
+      <c r="CB20" s="605"/>
       <c r="CC20" s="454" t="s">
         <v>2459</v>
       </c>
@@ -66333,27 +66333,27 @@
       <c r="P22" s="353" t="s">
         <v>678</v>
       </c>
-      <c r="Q22" s="634"/>
-      <c r="R22" s="557"/>
-      <c r="S22" s="652"/>
+      <c r="Q22" s="583"/>
+      <c r="R22" s="584"/>
+      <c r="S22" s="585"/>
       <c r="T22" s="353" t="s">
         <v>616</v>
       </c>
       <c r="U22" s="353" t="s">
         <v>623</v>
       </c>
-      <c r="V22" s="653"/>
-      <c r="W22" s="557"/>
-      <c r="X22" s="557"/>
-      <c r="Y22" s="557"/>
-      <c r="Z22" s="557"/>
-      <c r="AA22" s="557"/>
-      <c r="AB22" s="557"/>
-      <c r="AC22" s="557"/>
-      <c r="AD22" s="557"/>
-      <c r="AE22" s="557"/>
-      <c r="AF22" s="557"/>
-      <c r="AG22" s="654"/>
+      <c r="V22" s="586"/>
+      <c r="W22" s="584"/>
+      <c r="X22" s="584"/>
+      <c r="Y22" s="584"/>
+      <c r="Z22" s="584"/>
+      <c r="AA22" s="584"/>
+      <c r="AB22" s="584"/>
+      <c r="AC22" s="584"/>
+      <c r="AD22" s="584"/>
+      <c r="AE22" s="584"/>
+      <c r="AF22" s="584"/>
+      <c r="AG22" s="587"/>
       <c r="AH22" s="353" t="s">
         <v>630</v>
       </c>
@@ -66372,53 +66372,53 @@
       <c r="AM22" s="353" t="s">
         <v>738</v>
       </c>
-      <c r="AN22" s="655"/>
-      <c r="AO22" s="601"/>
+      <c r="AN22" s="588"/>
+      <c r="AO22" s="589"/>
       <c r="AP22" s="410" t="s">
         <v>17</v>
       </c>
-      <c r="AQ22" s="635"/>
-      <c r="AR22" s="636"/>
-      <c r="AS22" s="636"/>
-      <c r="AT22" s="636"/>
-      <c r="AU22" s="636"/>
-      <c r="AV22" s="601"/>
+      <c r="AQ22" s="590"/>
+      <c r="AR22" s="591"/>
+      <c r="AS22" s="591"/>
+      <c r="AT22" s="591"/>
+      <c r="AU22" s="591"/>
+      <c r="AV22" s="589"/>
       <c r="AW22" s="409" t="s">
         <v>812</v>
       </c>
       <c r="AX22" s="409" t="s">
         <v>814</v>
       </c>
-      <c r="AY22" s="635"/>
-      <c r="AZ22" s="636"/>
-      <c r="BA22" s="636"/>
-      <c r="BB22" s="636"/>
-      <c r="BC22" s="636"/>
-      <c r="BD22" s="636"/>
-      <c r="BE22" s="636"/>
-      <c r="BF22" s="636"/>
-      <c r="BG22" s="636"/>
-      <c r="BH22" s="636"/>
-      <c r="BI22" s="636"/>
-      <c r="BJ22" s="636"/>
-      <c r="BK22" s="636"/>
-      <c r="BL22" s="636"/>
-      <c r="BM22" s="636"/>
-      <c r="BN22" s="636"/>
-      <c r="BO22" s="636"/>
-      <c r="BP22" s="636"/>
-      <c r="BQ22" s="636"/>
-      <c r="BR22" s="636"/>
-      <c r="BS22" s="636"/>
-      <c r="BT22" s="636"/>
-      <c r="BU22" s="636"/>
-      <c r="BV22" s="636"/>
-      <c r="BW22" s="636"/>
-      <c r="BX22" s="636"/>
-      <c r="BY22" s="636"/>
-      <c r="BZ22" s="636"/>
-      <c r="CA22" s="636"/>
-      <c r="CB22" s="636"/>
+      <c r="AY22" s="590"/>
+      <c r="AZ22" s="591"/>
+      <c r="BA22" s="591"/>
+      <c r="BB22" s="591"/>
+      <c r="BC22" s="591"/>
+      <c r="BD22" s="591"/>
+      <c r="BE22" s="591"/>
+      <c r="BF22" s="591"/>
+      <c r="BG22" s="591"/>
+      <c r="BH22" s="591"/>
+      <c r="BI22" s="591"/>
+      <c r="BJ22" s="591"/>
+      <c r="BK22" s="591"/>
+      <c r="BL22" s="591"/>
+      <c r="BM22" s="591"/>
+      <c r="BN22" s="591"/>
+      <c r="BO22" s="591"/>
+      <c r="BP22" s="591"/>
+      <c r="BQ22" s="591"/>
+      <c r="BR22" s="591"/>
+      <c r="BS22" s="591"/>
+      <c r="BT22" s="591"/>
+      <c r="BU22" s="591"/>
+      <c r="BV22" s="591"/>
+      <c r="BW22" s="591"/>
+      <c r="BX22" s="591"/>
+      <c r="BY22" s="591"/>
+      <c r="BZ22" s="591"/>
+      <c r="CA22" s="591"/>
+      <c r="CB22" s="591"/>
       <c r="CC22" s="349" t="s">
         <v>2390</v>
       </c>
@@ -66511,18 +66511,18 @@
         <f>$V23-($Q23+($I24+$J24)*$E23)</f>
         <v>220</v>
       </c>
-      <c r="G23" s="640"/>
-      <c r="H23" s="641"/>
-      <c r="I23" s="641"/>
-      <c r="J23" s="641"/>
-      <c r="K23" s="641"/>
-      <c r="L23" s="641"/>
-      <c r="M23" s="642"/>
+      <c r="G23" s="563"/>
+      <c r="H23" s="564"/>
+      <c r="I23" s="564"/>
+      <c r="J23" s="564"/>
+      <c r="K23" s="564"/>
+      <c r="L23" s="564"/>
+      <c r="M23" s="565"/>
       <c r="N23" s="354" t="s">
         <v>2372</v>
       </c>
-      <c r="O23" s="640"/>
-      <c r="P23" s="643"/>
+      <c r="O23" s="563"/>
+      <c r="P23" s="566"/>
       <c r="Q23" s="347">
         <v>1340</v>
       </c>
@@ -66624,25 +66624,25 @@
       <c r="BI23" s="347" t="s">
         <v>2375</v>
       </c>
-      <c r="BJ23" s="578"/>
-      <c r="BK23" s="579"/>
-      <c r="BL23" s="579"/>
-      <c r="BM23" s="579"/>
-      <c r="BN23" s="579"/>
-      <c r="BO23" s="579"/>
-      <c r="BP23" s="579"/>
-      <c r="BQ23" s="579"/>
-      <c r="BR23" s="579"/>
-      <c r="BS23" s="579"/>
-      <c r="BT23" s="579"/>
-      <c r="BU23" s="579"/>
-      <c r="BV23" s="579"/>
-      <c r="BW23" s="579"/>
-      <c r="BX23" s="579"/>
-      <c r="BY23" s="579"/>
-      <c r="BZ23" s="579"/>
-      <c r="CA23" s="579"/>
-      <c r="CB23" s="579"/>
+      <c r="BJ23" s="567"/>
+      <c r="BK23" s="568"/>
+      <c r="BL23" s="568"/>
+      <c r="BM23" s="568"/>
+      <c r="BN23" s="568"/>
+      <c r="BO23" s="568"/>
+      <c r="BP23" s="568"/>
+      <c r="BQ23" s="568"/>
+      <c r="BR23" s="568"/>
+      <c r="BS23" s="568"/>
+      <c r="BT23" s="568"/>
+      <c r="BU23" s="568"/>
+      <c r="BV23" s="568"/>
+      <c r="BW23" s="568"/>
+      <c r="BX23" s="568"/>
+      <c r="BY23" s="568"/>
+      <c r="BZ23" s="568"/>
+      <c r="CA23" s="568"/>
+      <c r="CB23" s="568"/>
       <c r="CC23" s="347" t="s">
         <v>2376</v>
       </c>
@@ -67079,27 +67079,27 @@
       <c r="P25" s="353" t="s">
         <v>678</v>
       </c>
-      <c r="Q25" s="581"/>
-      <c r="R25" s="582"/>
-      <c r="S25" s="583"/>
+      <c r="Q25" s="592"/>
+      <c r="R25" s="593"/>
+      <c r="S25" s="594"/>
       <c r="T25" s="353" t="s">
         <v>616</v>
       </c>
       <c r="U25" s="353" t="s">
         <v>623</v>
       </c>
-      <c r="V25" s="584"/>
-      <c r="W25" s="582"/>
-      <c r="X25" s="582"/>
-      <c r="Y25" s="582"/>
-      <c r="Z25" s="582"/>
-      <c r="AA25" s="582"/>
-      <c r="AB25" s="582"/>
-      <c r="AC25" s="582"/>
-      <c r="AD25" s="582"/>
-      <c r="AE25" s="582"/>
-      <c r="AF25" s="582"/>
-      <c r="AG25" s="585"/>
+      <c r="V25" s="595"/>
+      <c r="W25" s="593"/>
+      <c r="X25" s="593"/>
+      <c r="Y25" s="593"/>
+      <c r="Z25" s="593"/>
+      <c r="AA25" s="593"/>
+      <c r="AB25" s="593"/>
+      <c r="AC25" s="593"/>
+      <c r="AD25" s="593"/>
+      <c r="AE25" s="593"/>
+      <c r="AF25" s="593"/>
+      <c r="AG25" s="596"/>
       <c r="AH25" s="353" t="s">
         <v>630</v>
       </c>
@@ -67118,53 +67118,53 @@
       <c r="AM25" s="353" t="s">
         <v>738</v>
       </c>
-      <c r="AN25" s="586"/>
-      <c r="AO25" s="587"/>
+      <c r="AN25" s="597"/>
+      <c r="AO25" s="598"/>
       <c r="AP25" s="349" t="s">
         <v>17</v>
       </c>
-      <c r="AQ25" s="604"/>
-      <c r="AR25" s="605"/>
-      <c r="AS25" s="605"/>
-      <c r="AT25" s="605"/>
-      <c r="AU25" s="605"/>
-      <c r="AV25" s="587"/>
+      <c r="AQ25" s="599"/>
+      <c r="AR25" s="600"/>
+      <c r="AS25" s="600"/>
+      <c r="AT25" s="600"/>
+      <c r="AU25" s="600"/>
+      <c r="AV25" s="598"/>
       <c r="AW25" s="346" t="s">
         <v>812</v>
       </c>
       <c r="AX25" s="346" t="s">
         <v>814</v>
       </c>
-      <c r="AY25" s="604"/>
-      <c r="AZ25" s="605"/>
-      <c r="BA25" s="605"/>
-      <c r="BB25" s="605"/>
-      <c r="BC25" s="605"/>
-      <c r="BD25" s="605"/>
-      <c r="BE25" s="605"/>
-      <c r="BF25" s="605"/>
-      <c r="BG25" s="605"/>
-      <c r="BH25" s="605"/>
-      <c r="BI25" s="605"/>
-      <c r="BJ25" s="605"/>
-      <c r="BK25" s="605"/>
-      <c r="BL25" s="605"/>
-      <c r="BM25" s="605"/>
-      <c r="BN25" s="605"/>
-      <c r="BO25" s="605"/>
-      <c r="BP25" s="605"/>
-      <c r="BQ25" s="605"/>
-      <c r="BR25" s="605"/>
-      <c r="BS25" s="605"/>
-      <c r="BT25" s="605"/>
-      <c r="BU25" s="605"/>
-      <c r="BV25" s="605"/>
-      <c r="BW25" s="605"/>
-      <c r="BX25" s="605"/>
-      <c r="BY25" s="605"/>
-      <c r="BZ25" s="605"/>
-      <c r="CA25" s="605"/>
-      <c r="CB25" s="605"/>
+      <c r="AY25" s="599"/>
+      <c r="AZ25" s="600"/>
+      <c r="BA25" s="600"/>
+      <c r="BB25" s="600"/>
+      <c r="BC25" s="600"/>
+      <c r="BD25" s="600"/>
+      <c r="BE25" s="600"/>
+      <c r="BF25" s="600"/>
+      <c r="BG25" s="600"/>
+      <c r="BH25" s="600"/>
+      <c r="BI25" s="600"/>
+      <c r="BJ25" s="600"/>
+      <c r="BK25" s="600"/>
+      <c r="BL25" s="600"/>
+      <c r="BM25" s="600"/>
+      <c r="BN25" s="600"/>
+      <c r="BO25" s="600"/>
+      <c r="BP25" s="600"/>
+      <c r="BQ25" s="600"/>
+      <c r="BR25" s="600"/>
+      <c r="BS25" s="600"/>
+      <c r="BT25" s="600"/>
+      <c r="BU25" s="600"/>
+      <c r="BV25" s="600"/>
+      <c r="BW25" s="600"/>
+      <c r="BX25" s="600"/>
+      <c r="BY25" s="600"/>
+      <c r="BZ25" s="600"/>
+      <c r="CA25" s="600"/>
+      <c r="CB25" s="600"/>
       <c r="CC25" s="349" t="s">
         <v>2390</v>
       </c>
@@ -67257,18 +67257,18 @@
         <f>$V26-($Q26+($I27+$J27)*$E26)</f>
         <v>85</v>
       </c>
-      <c r="G26" s="640"/>
-      <c r="H26" s="641"/>
-      <c r="I26" s="641"/>
-      <c r="J26" s="641"/>
-      <c r="K26" s="641"/>
-      <c r="L26" s="641"/>
-      <c r="M26" s="642"/>
+      <c r="G26" s="563"/>
+      <c r="H26" s="564"/>
+      <c r="I26" s="564"/>
+      <c r="J26" s="564"/>
+      <c r="K26" s="564"/>
+      <c r="L26" s="564"/>
+      <c r="M26" s="565"/>
       <c r="N26" s="451" t="s">
         <v>2447</v>
       </c>
-      <c r="O26" s="640"/>
-      <c r="P26" s="643"/>
+      <c r="O26" s="563"/>
+      <c r="P26" s="566"/>
       <c r="Q26" s="347">
         <v>1665</v>
       </c>
@@ -67370,25 +67370,25 @@
       <c r="BI26" s="347" t="s">
         <v>2414</v>
       </c>
-      <c r="BJ26" s="578"/>
-      <c r="BK26" s="579"/>
-      <c r="BL26" s="579"/>
-      <c r="BM26" s="579"/>
-      <c r="BN26" s="579"/>
-      <c r="BO26" s="579"/>
-      <c r="BP26" s="579"/>
-      <c r="BQ26" s="579"/>
-      <c r="BR26" s="579"/>
-      <c r="BS26" s="579"/>
-      <c r="BT26" s="579"/>
-      <c r="BU26" s="579"/>
-      <c r="BV26" s="579"/>
-      <c r="BW26" s="579"/>
-      <c r="BX26" s="579"/>
-      <c r="BY26" s="579"/>
-      <c r="BZ26" s="579"/>
-      <c r="CA26" s="579"/>
-      <c r="CB26" s="579"/>
+      <c r="BJ26" s="567"/>
+      <c r="BK26" s="568"/>
+      <c r="BL26" s="568"/>
+      <c r="BM26" s="568"/>
+      <c r="BN26" s="568"/>
+      <c r="BO26" s="568"/>
+      <c r="BP26" s="568"/>
+      <c r="BQ26" s="568"/>
+      <c r="BR26" s="568"/>
+      <c r="BS26" s="568"/>
+      <c r="BT26" s="568"/>
+      <c r="BU26" s="568"/>
+      <c r="BV26" s="568"/>
+      <c r="BW26" s="568"/>
+      <c r="BX26" s="568"/>
+      <c r="BY26" s="568"/>
+      <c r="BZ26" s="568"/>
+      <c r="CA26" s="568"/>
+      <c r="CB26" s="568"/>
       <c r="CC26" s="347" t="s">
         <v>2376</v>
       </c>
@@ -67816,27 +67816,27 @@
       <c r="P28" s="477" t="s">
         <v>678</v>
       </c>
-      <c r="Q28" s="661"/>
-      <c r="R28" s="662"/>
-      <c r="S28" s="663"/>
+      <c r="Q28" s="557"/>
+      <c r="R28" s="558"/>
+      <c r="S28" s="559"/>
       <c r="T28" s="477" t="s">
         <v>616</v>
       </c>
       <c r="U28" s="477" t="s">
         <v>2420</v>
       </c>
-      <c r="V28" s="661"/>
-      <c r="W28" s="662"/>
-      <c r="X28" s="662"/>
-      <c r="Y28" s="662"/>
-      <c r="Z28" s="662"/>
-      <c r="AA28" s="662"/>
-      <c r="AB28" s="662"/>
-      <c r="AC28" s="662"/>
-      <c r="AD28" s="662"/>
-      <c r="AE28" s="662"/>
-      <c r="AF28" s="662"/>
-      <c r="AG28" s="663"/>
+      <c r="V28" s="557"/>
+      <c r="W28" s="558"/>
+      <c r="X28" s="558"/>
+      <c r="Y28" s="558"/>
+      <c r="Z28" s="558"/>
+      <c r="AA28" s="558"/>
+      <c r="AB28" s="558"/>
+      <c r="AC28" s="558"/>
+      <c r="AD28" s="558"/>
+      <c r="AE28" s="558"/>
+      <c r="AF28" s="558"/>
+      <c r="AG28" s="559"/>
       <c r="AH28" s="477" t="s">
         <v>630</v>
       </c>
@@ -67855,53 +67855,53 @@
       <c r="AM28" s="477" t="s">
         <v>738</v>
       </c>
-      <c r="AN28" s="664"/>
-      <c r="AO28" s="665"/>
+      <c r="AN28" s="560"/>
+      <c r="AO28" s="561"/>
       <c r="AP28" s="478" t="s">
         <v>189</v>
       </c>
-      <c r="AQ28" s="664"/>
-      <c r="AR28" s="660"/>
-      <c r="AS28" s="660"/>
-      <c r="AT28" s="660"/>
-      <c r="AU28" s="660"/>
-      <c r="AV28" s="665"/>
+      <c r="AQ28" s="560"/>
+      <c r="AR28" s="562"/>
+      <c r="AS28" s="562"/>
+      <c r="AT28" s="562"/>
+      <c r="AU28" s="562"/>
+      <c r="AV28" s="561"/>
       <c r="AW28" s="475" t="s">
         <v>812</v>
       </c>
       <c r="AX28" s="475" t="s">
         <v>814</v>
       </c>
-      <c r="AY28" s="664"/>
-      <c r="AZ28" s="660"/>
-      <c r="BA28" s="660"/>
-      <c r="BB28" s="660"/>
-      <c r="BC28" s="660"/>
-      <c r="BD28" s="660"/>
-      <c r="BE28" s="660"/>
-      <c r="BF28" s="660"/>
-      <c r="BG28" s="660"/>
-      <c r="BH28" s="660"/>
-      <c r="BI28" s="660"/>
-      <c r="BJ28" s="660"/>
-      <c r="BK28" s="660"/>
-      <c r="BL28" s="660"/>
-      <c r="BM28" s="660"/>
-      <c r="BN28" s="660"/>
-      <c r="BO28" s="660"/>
-      <c r="BP28" s="660"/>
-      <c r="BQ28" s="660"/>
-      <c r="BR28" s="660"/>
-      <c r="BS28" s="660"/>
-      <c r="BT28" s="660"/>
-      <c r="BU28" s="660"/>
-      <c r="BV28" s="660"/>
-      <c r="BW28" s="660"/>
-      <c r="BX28" s="660"/>
-      <c r="BY28" s="660"/>
-      <c r="BZ28" s="660"/>
-      <c r="CA28" s="660"/>
-      <c r="CB28" s="660"/>
+      <c r="AY28" s="560"/>
+      <c r="AZ28" s="562"/>
+      <c r="BA28" s="562"/>
+      <c r="BB28" s="562"/>
+      <c r="BC28" s="562"/>
+      <c r="BD28" s="562"/>
+      <c r="BE28" s="562"/>
+      <c r="BF28" s="562"/>
+      <c r="BG28" s="562"/>
+      <c r="BH28" s="562"/>
+      <c r="BI28" s="562"/>
+      <c r="BJ28" s="562"/>
+      <c r="BK28" s="562"/>
+      <c r="BL28" s="562"/>
+      <c r="BM28" s="562"/>
+      <c r="BN28" s="562"/>
+      <c r="BO28" s="562"/>
+      <c r="BP28" s="562"/>
+      <c r="BQ28" s="562"/>
+      <c r="BR28" s="562"/>
+      <c r="BS28" s="562"/>
+      <c r="BT28" s="562"/>
+      <c r="BU28" s="562"/>
+      <c r="BV28" s="562"/>
+      <c r="BW28" s="562"/>
+      <c r="BX28" s="562"/>
+      <c r="BY28" s="562"/>
+      <c r="BZ28" s="562"/>
+      <c r="CA28" s="562"/>
+      <c r="CB28" s="562"/>
       <c r="CC28" s="436" t="s">
         <v>2390</v>
       </c>
@@ -67992,18 +67992,18 @@
         <f>$V29-($Q29+($I30+$J30)*$E28)</f>
         <v>100</v>
       </c>
-      <c r="G29" s="656"/>
-      <c r="H29" s="657"/>
-      <c r="I29" s="657"/>
-      <c r="J29" s="657"/>
-      <c r="K29" s="657"/>
-      <c r="L29" s="657"/>
-      <c r="M29" s="658"/>
+      <c r="G29" s="601"/>
+      <c r="H29" s="602"/>
+      <c r="I29" s="602"/>
+      <c r="J29" s="602"/>
+      <c r="K29" s="602"/>
+      <c r="L29" s="602"/>
+      <c r="M29" s="603"/>
       <c r="N29" s="480" t="s">
         <v>2422</v>
       </c>
-      <c r="O29" s="656"/>
-      <c r="P29" s="658"/>
+      <c r="O29" s="601"/>
+      <c r="P29" s="603"/>
       <c r="Q29" s="481">
         <v>1400</v>
       </c>
@@ -68095,25 +68095,25 @@
       <c r="BI29" s="481">
         <v>6</v>
       </c>
-      <c r="BJ29" s="659"/>
-      <c r="BK29" s="660"/>
-      <c r="BL29" s="660"/>
-      <c r="BM29" s="660"/>
-      <c r="BN29" s="660"/>
-      <c r="BO29" s="660"/>
-      <c r="BP29" s="660"/>
-      <c r="BQ29" s="660"/>
-      <c r="BR29" s="660"/>
-      <c r="BS29" s="660"/>
-      <c r="BT29" s="660"/>
-      <c r="BU29" s="660"/>
-      <c r="BV29" s="660"/>
-      <c r="BW29" s="660"/>
-      <c r="BX29" s="660"/>
-      <c r="BY29" s="660"/>
-      <c r="BZ29" s="660"/>
-      <c r="CA29" s="660"/>
-      <c r="CB29" s="660"/>
+      <c r="BJ29" s="604"/>
+      <c r="BK29" s="562"/>
+      <c r="BL29" s="562"/>
+      <c r="BM29" s="562"/>
+      <c r="BN29" s="562"/>
+      <c r="BO29" s="562"/>
+      <c r="BP29" s="562"/>
+      <c r="BQ29" s="562"/>
+      <c r="BR29" s="562"/>
+      <c r="BS29" s="562"/>
+      <c r="BT29" s="562"/>
+      <c r="BU29" s="562"/>
+      <c r="BV29" s="562"/>
+      <c r="BW29" s="562"/>
+      <c r="BX29" s="562"/>
+      <c r="BY29" s="562"/>
+      <c r="BZ29" s="562"/>
+      <c r="CA29" s="562"/>
+      <c r="CB29" s="562"/>
       <c r="CC29" s="442" t="s">
         <v>2469</v>
       </c>
@@ -68553,27 +68553,27 @@
       <c r="P31" s="353" t="s">
         <v>678</v>
       </c>
-      <c r="Q31" s="581"/>
-      <c r="R31" s="582"/>
-      <c r="S31" s="583"/>
+      <c r="Q31" s="592"/>
+      <c r="R31" s="593"/>
+      <c r="S31" s="594"/>
       <c r="T31" s="353" t="s">
         <v>616</v>
       </c>
       <c r="U31" s="353" t="s">
         <v>623</v>
       </c>
-      <c r="V31" s="584"/>
-      <c r="W31" s="582"/>
-      <c r="X31" s="582"/>
-      <c r="Y31" s="582"/>
-      <c r="Z31" s="582"/>
-      <c r="AA31" s="582"/>
-      <c r="AB31" s="582"/>
-      <c r="AC31" s="582"/>
-      <c r="AD31" s="582"/>
-      <c r="AE31" s="582"/>
-      <c r="AF31" s="582"/>
-      <c r="AG31" s="585"/>
+      <c r="V31" s="595"/>
+      <c r="W31" s="593"/>
+      <c r="X31" s="593"/>
+      <c r="Y31" s="593"/>
+      <c r="Z31" s="593"/>
+      <c r="AA31" s="593"/>
+      <c r="AB31" s="593"/>
+      <c r="AC31" s="593"/>
+      <c r="AD31" s="593"/>
+      <c r="AE31" s="593"/>
+      <c r="AF31" s="593"/>
+      <c r="AG31" s="596"/>
       <c r="AH31" s="353" t="s">
         <v>630</v>
       </c>
@@ -68592,53 +68592,53 @@
       <c r="AM31" s="353" t="s">
         <v>738</v>
       </c>
-      <c r="AN31" s="586"/>
-      <c r="AO31" s="587"/>
+      <c r="AN31" s="597"/>
+      <c r="AO31" s="598"/>
       <c r="AP31" s="349" t="s">
         <v>17</v>
       </c>
-      <c r="AQ31" s="604"/>
-      <c r="AR31" s="605"/>
-      <c r="AS31" s="605"/>
-      <c r="AT31" s="605"/>
-      <c r="AU31" s="605"/>
-      <c r="AV31" s="587"/>
+      <c r="AQ31" s="599"/>
+      <c r="AR31" s="600"/>
+      <c r="AS31" s="600"/>
+      <c r="AT31" s="600"/>
+      <c r="AU31" s="600"/>
+      <c r="AV31" s="598"/>
       <c r="AW31" s="346" t="s">
         <v>812</v>
       </c>
       <c r="AX31" s="346" t="s">
         <v>814</v>
       </c>
-      <c r="AY31" s="604"/>
-      <c r="AZ31" s="605"/>
-      <c r="BA31" s="605"/>
-      <c r="BB31" s="605"/>
-      <c r="BC31" s="605"/>
-      <c r="BD31" s="605"/>
-      <c r="BE31" s="605"/>
-      <c r="BF31" s="605"/>
-      <c r="BG31" s="605"/>
-      <c r="BH31" s="605"/>
-      <c r="BI31" s="605"/>
-      <c r="BJ31" s="605"/>
-      <c r="BK31" s="605"/>
-      <c r="BL31" s="605"/>
-      <c r="BM31" s="605"/>
-      <c r="BN31" s="605"/>
-      <c r="BO31" s="605"/>
-      <c r="BP31" s="605"/>
-      <c r="BQ31" s="605"/>
-      <c r="BR31" s="605"/>
-      <c r="BS31" s="605"/>
-      <c r="BT31" s="605"/>
-      <c r="BU31" s="605"/>
-      <c r="BV31" s="605"/>
-      <c r="BW31" s="605"/>
-      <c r="BX31" s="605"/>
-      <c r="BY31" s="605"/>
-      <c r="BZ31" s="605"/>
-      <c r="CA31" s="605"/>
-      <c r="CB31" s="605"/>
+      <c r="AY31" s="599"/>
+      <c r="AZ31" s="600"/>
+      <c r="BA31" s="600"/>
+      <c r="BB31" s="600"/>
+      <c r="BC31" s="600"/>
+      <c r="BD31" s="600"/>
+      <c r="BE31" s="600"/>
+      <c r="BF31" s="600"/>
+      <c r="BG31" s="600"/>
+      <c r="BH31" s="600"/>
+      <c r="BI31" s="600"/>
+      <c r="BJ31" s="600"/>
+      <c r="BK31" s="600"/>
+      <c r="BL31" s="600"/>
+      <c r="BM31" s="600"/>
+      <c r="BN31" s="600"/>
+      <c r="BO31" s="600"/>
+      <c r="BP31" s="600"/>
+      <c r="BQ31" s="600"/>
+      <c r="BR31" s="600"/>
+      <c r="BS31" s="600"/>
+      <c r="BT31" s="600"/>
+      <c r="BU31" s="600"/>
+      <c r="BV31" s="600"/>
+      <c r="BW31" s="600"/>
+      <c r="BX31" s="600"/>
+      <c r="BY31" s="600"/>
+      <c r="BZ31" s="600"/>
+      <c r="CA31" s="600"/>
+      <c r="CB31" s="600"/>
       <c r="CC31" s="349" t="s">
         <v>2390</v>
       </c>
@@ -68727,18 +68727,18 @@
         <f>$V32-($Q32+($I33+$J33)*$E32)</f>
         <v>140</v>
       </c>
-      <c r="G32" s="640"/>
-      <c r="H32" s="641"/>
-      <c r="I32" s="641"/>
-      <c r="J32" s="641"/>
-      <c r="K32" s="641"/>
-      <c r="L32" s="641"/>
-      <c r="M32" s="642"/>
+      <c r="G32" s="563"/>
+      <c r="H32" s="564"/>
+      <c r="I32" s="564"/>
+      <c r="J32" s="564"/>
+      <c r="K32" s="564"/>
+      <c r="L32" s="564"/>
+      <c r="M32" s="565"/>
       <c r="N32" s="354" t="s">
         <v>2385</v>
       </c>
-      <c r="O32" s="640"/>
-      <c r="P32" s="643"/>
+      <c r="O32" s="563"/>
+      <c r="P32" s="566"/>
       <c r="Q32" s="347">
         <v>1570</v>
       </c>
@@ -68840,25 +68840,25 @@
       <c r="BI32" s="347" t="s">
         <v>2454</v>
       </c>
-      <c r="BJ32" s="578"/>
-      <c r="BK32" s="579"/>
-      <c r="BL32" s="579"/>
-      <c r="BM32" s="579"/>
-      <c r="BN32" s="579"/>
-      <c r="BO32" s="579"/>
-      <c r="BP32" s="579"/>
-      <c r="BQ32" s="579"/>
-      <c r="BR32" s="579"/>
-      <c r="BS32" s="579"/>
-      <c r="BT32" s="579"/>
-      <c r="BU32" s="579"/>
-      <c r="BV32" s="579"/>
-      <c r="BW32" s="579"/>
-      <c r="BX32" s="579"/>
-      <c r="BY32" s="579"/>
-      <c r="BZ32" s="579"/>
-      <c r="CA32" s="579"/>
-      <c r="CB32" s="579"/>
+      <c r="BJ32" s="567"/>
+      <c r="BK32" s="568"/>
+      <c r="BL32" s="568"/>
+      <c r="BM32" s="568"/>
+      <c r="BN32" s="568"/>
+      <c r="BO32" s="568"/>
+      <c r="BP32" s="568"/>
+      <c r="BQ32" s="568"/>
+      <c r="BR32" s="568"/>
+      <c r="BS32" s="568"/>
+      <c r="BT32" s="568"/>
+      <c r="BU32" s="568"/>
+      <c r="BV32" s="568"/>
+      <c r="BW32" s="568"/>
+      <c r="BX32" s="568"/>
+      <c r="BY32" s="568"/>
+      <c r="BZ32" s="568"/>
+      <c r="CA32" s="568"/>
+      <c r="CB32" s="568"/>
       <c r="CC32" s="347" t="s">
         <v>2376</v>
       </c>
@@ -69298,27 +69298,27 @@
       <c r="P34" s="493" t="s">
         <v>678</v>
       </c>
-      <c r="Q34" s="666"/>
-      <c r="R34" s="667"/>
-      <c r="S34" s="668"/>
+      <c r="Q34" s="569"/>
+      <c r="R34" s="570"/>
+      <c r="S34" s="571"/>
       <c r="T34" s="493" t="s">
         <v>616</v>
       </c>
       <c r="U34" s="493" t="s">
         <v>623</v>
       </c>
-      <c r="V34" s="669"/>
-      <c r="W34" s="667"/>
-      <c r="X34" s="667"/>
-      <c r="Y34" s="667"/>
-      <c r="Z34" s="667"/>
-      <c r="AA34" s="667"/>
-      <c r="AB34" s="667"/>
-      <c r="AC34" s="667"/>
-      <c r="AD34" s="667"/>
-      <c r="AE34" s="667"/>
-      <c r="AF34" s="667"/>
-      <c r="AG34" s="667"/>
+      <c r="V34" s="572"/>
+      <c r="W34" s="570"/>
+      <c r="X34" s="570"/>
+      <c r="Y34" s="570"/>
+      <c r="Z34" s="570"/>
+      <c r="AA34" s="570"/>
+      <c r="AB34" s="570"/>
+      <c r="AC34" s="570"/>
+      <c r="AD34" s="570"/>
+      <c r="AE34" s="570"/>
+      <c r="AF34" s="570"/>
+      <c r="AG34" s="570"/>
       <c r="AH34" s="507" t="s">
         <v>2387</v>
       </c>
@@ -69337,53 +69337,53 @@
       <c r="AM34" s="507" t="s">
         <v>738</v>
       </c>
-      <c r="AN34" s="670"/>
-      <c r="AO34" s="671"/>
+      <c r="AN34" s="573"/>
+      <c r="AO34" s="574"/>
       <c r="AP34" s="494" t="s">
         <v>17</v>
       </c>
-      <c r="AQ34" s="672"/>
-      <c r="AR34" s="673"/>
-      <c r="AS34" s="673"/>
-      <c r="AT34" s="673"/>
-      <c r="AU34" s="673"/>
-      <c r="AV34" s="671"/>
+      <c r="AQ34" s="575"/>
+      <c r="AR34" s="576"/>
+      <c r="AS34" s="576"/>
+      <c r="AT34" s="576"/>
+      <c r="AU34" s="576"/>
+      <c r="AV34" s="574"/>
       <c r="AW34" s="491" t="s">
         <v>812</v>
       </c>
       <c r="AX34" s="491" t="s">
         <v>814</v>
       </c>
-      <c r="AY34" s="672"/>
-      <c r="AZ34" s="673"/>
-      <c r="BA34" s="673"/>
-      <c r="BB34" s="673"/>
-      <c r="BC34" s="673"/>
-      <c r="BD34" s="673"/>
-      <c r="BE34" s="673"/>
-      <c r="BF34" s="673"/>
-      <c r="BG34" s="673"/>
-      <c r="BH34" s="673"/>
-      <c r="BI34" s="673"/>
-      <c r="BJ34" s="673"/>
-      <c r="BK34" s="673"/>
-      <c r="BL34" s="673"/>
-      <c r="BM34" s="673"/>
-      <c r="BN34" s="673"/>
-      <c r="BO34" s="673"/>
-      <c r="BP34" s="673"/>
-      <c r="BQ34" s="673"/>
-      <c r="BR34" s="673"/>
-      <c r="BS34" s="673"/>
-      <c r="BT34" s="673"/>
-      <c r="BU34" s="673"/>
-      <c r="BV34" s="673"/>
-      <c r="BW34" s="673"/>
-      <c r="BX34" s="673"/>
-      <c r="BY34" s="673"/>
-      <c r="BZ34" s="673"/>
-      <c r="CA34" s="673"/>
-      <c r="CB34" s="673"/>
+      <c r="AY34" s="575"/>
+      <c r="AZ34" s="576"/>
+      <c r="BA34" s="576"/>
+      <c r="BB34" s="576"/>
+      <c r="BC34" s="576"/>
+      <c r="BD34" s="576"/>
+      <c r="BE34" s="576"/>
+      <c r="BF34" s="576"/>
+      <c r="BG34" s="576"/>
+      <c r="BH34" s="576"/>
+      <c r="BI34" s="576"/>
+      <c r="BJ34" s="576"/>
+      <c r="BK34" s="576"/>
+      <c r="BL34" s="576"/>
+      <c r="BM34" s="576"/>
+      <c r="BN34" s="576"/>
+      <c r="BO34" s="576"/>
+      <c r="BP34" s="576"/>
+      <c r="BQ34" s="576"/>
+      <c r="BR34" s="576"/>
+      <c r="BS34" s="576"/>
+      <c r="BT34" s="576"/>
+      <c r="BU34" s="576"/>
+      <c r="BV34" s="576"/>
+      <c r="BW34" s="576"/>
+      <c r="BX34" s="576"/>
+      <c r="BY34" s="576"/>
+      <c r="BZ34" s="576"/>
+      <c r="CA34" s="576"/>
+      <c r="CB34" s="576"/>
       <c r="CC34" s="349" t="s">
         <v>2390</v>
       </c>
@@ -69476,18 +69476,18 @@
         <f>$V35-($Q35+($I36+$J36)*$E35)</f>
         <v>156</v>
       </c>
-      <c r="G35" s="646"/>
-      <c r="H35" s="647"/>
-      <c r="I35" s="647"/>
-      <c r="J35" s="647"/>
-      <c r="K35" s="647"/>
-      <c r="L35" s="647"/>
-      <c r="M35" s="648"/>
+      <c r="G35" s="577"/>
+      <c r="H35" s="578"/>
+      <c r="I35" s="578"/>
+      <c r="J35" s="578"/>
+      <c r="K35" s="578"/>
+      <c r="L35" s="578"/>
+      <c r="M35" s="579"/>
       <c r="N35" s="496" t="s">
         <v>2457</v>
       </c>
-      <c r="O35" s="646"/>
-      <c r="P35" s="649"/>
+      <c r="O35" s="577"/>
+      <c r="P35" s="580"/>
       <c r="Q35" s="497">
         <v>1453</v>
       </c>
@@ -69573,25 +69573,25 @@
         <v>3933</v>
       </c>
       <c r="BI35" s="497"/>
-      <c r="BJ35" s="650"/>
-      <c r="BK35" s="651"/>
-      <c r="BL35" s="651"/>
-      <c r="BM35" s="651"/>
-      <c r="BN35" s="651"/>
-      <c r="BO35" s="651"/>
-      <c r="BP35" s="651"/>
-      <c r="BQ35" s="651"/>
-      <c r="BR35" s="651"/>
-      <c r="BS35" s="651"/>
-      <c r="BT35" s="651"/>
-      <c r="BU35" s="651"/>
-      <c r="BV35" s="651"/>
-      <c r="BW35" s="651"/>
-      <c r="BX35" s="651"/>
-      <c r="BY35" s="651"/>
-      <c r="BZ35" s="651"/>
-      <c r="CA35" s="651"/>
-      <c r="CB35" s="651"/>
+      <c r="BJ35" s="581"/>
+      <c r="BK35" s="582"/>
+      <c r="BL35" s="582"/>
+      <c r="BM35" s="582"/>
+      <c r="BN35" s="582"/>
+      <c r="BO35" s="582"/>
+      <c r="BP35" s="582"/>
+      <c r="BQ35" s="582"/>
+      <c r="BR35" s="582"/>
+      <c r="BS35" s="582"/>
+      <c r="BT35" s="582"/>
+      <c r="BU35" s="582"/>
+      <c r="BV35" s="582"/>
+      <c r="BW35" s="582"/>
+      <c r="BX35" s="582"/>
+      <c r="BY35" s="582"/>
+      <c r="BZ35" s="582"/>
+      <c r="CA35" s="582"/>
+      <c r="CB35" s="582"/>
       <c r="CC35" s="420" t="s">
         <v>2463</v>
       </c>
@@ -71159,17 +71159,17 @@
       <c r="DD47" s="382"/>
     </row>
     <row r="48" spans="1:147" s="391" customFormat="1">
-      <c r="B48" s="562" t="s">
+      <c r="B48" s="609" t="s">
         <v>1466</v>
       </c>
-      <c r="C48" s="562"/>
-      <c r="D48" s="562"/>
-      <c r="E48" s="562"/>
-      <c r="F48" s="562"/>
-      <c r="G48" s="562"/>
-      <c r="H48" s="562"/>
-      <c r="I48" s="562"/>
-      <c r="J48" s="562"/>
+      <c r="C48" s="609"/>
+      <c r="D48" s="609"/>
+      <c r="E48" s="609"/>
+      <c r="F48" s="609"/>
+      <c r="G48" s="609"/>
+      <c r="H48" s="609"/>
+      <c r="I48" s="609"/>
+      <c r="J48" s="609"/>
       <c r="K48" s="377"/>
       <c r="L48" s="392" t="s">
         <v>1460</v>
@@ -71234,17 +71234,17 @@
     </row>
     <row r="49" spans="1:81" s="329" customFormat="1" ht="16.2">
       <c r="A49" s="393"/>
-      <c r="B49" s="564" t="s">
+      <c r="B49" s="610" t="s">
         <v>2270</v>
       </c>
-      <c r="C49" s="564"/>
-      <c r="D49" s="564"/>
-      <c r="E49" s="564"/>
-      <c r="F49" s="564"/>
-      <c r="G49" s="564"/>
-      <c r="H49" s="564"/>
-      <c r="I49" s="564"/>
-      <c r="J49" s="564"/>
+      <c r="C49" s="610"/>
+      <c r="D49" s="610"/>
+      <c r="E49" s="610"/>
+      <c r="F49" s="610"/>
+      <c r="G49" s="610"/>
+      <c r="H49" s="610"/>
+      <c r="I49" s="610"/>
+      <c r="J49" s="610"/>
       <c r="K49" s="320"/>
       <c r="L49" s="391" t="s">
         <v>2271</v>
@@ -71286,16 +71286,16 @@
       <c r="M50" s="320"/>
     </row>
     <row r="51" spans="1:81" s="391" customFormat="1" ht="16.2">
-      <c r="B51" s="562" t="s">
+      <c r="B51" s="609" t="s">
         <v>1465</v>
       </c>
-      <c r="C51" s="562"/>
-      <c r="D51" s="562"/>
-      <c r="E51" s="562"/>
-      <c r="F51" s="562"/>
-      <c r="G51" s="562"/>
-      <c r="H51" s="562"/>
-      <c r="I51" s="562"/>
+      <c r="C51" s="609"/>
+      <c r="D51" s="609"/>
+      <c r="E51" s="609"/>
+      <c r="F51" s="609"/>
+      <c r="G51" s="609"/>
+      <c r="H51" s="609"/>
+      <c r="I51" s="609"/>
       <c r="J51" s="377"/>
       <c r="K51" s="377"/>
       <c r="L51" s="392" t="s">
@@ -71360,16 +71360,16 @@
       <c r="CC51" s="350"/>
     </row>
     <row r="52" spans="1:81" s="391" customFormat="1">
-      <c r="B52" s="562" t="s">
+      <c r="B52" s="609" t="s">
         <v>2275</v>
       </c>
-      <c r="C52" s="562"/>
-      <c r="D52" s="562"/>
-      <c r="E52" s="562"/>
-      <c r="F52" s="562"/>
-      <c r="G52" s="562"/>
-      <c r="H52" s="562"/>
-      <c r="I52" s="562"/>
+      <c r="C52" s="609"/>
+      <c r="D52" s="609"/>
+      <c r="E52" s="609"/>
+      <c r="F52" s="609"/>
+      <c r="G52" s="609"/>
+      <c r="H52" s="609"/>
+      <c r="I52" s="609"/>
       <c r="J52" s="393"/>
       <c r="K52" s="393"/>
       <c r="L52" s="392"/>
@@ -71432,16 +71432,16 @@
       <c r="CC52" s="350"/>
     </row>
     <row r="53" spans="1:81" s="391" customFormat="1">
-      <c r="B53" s="564" t="s">
+      <c r="B53" s="610" t="s">
         <v>2276</v>
       </c>
-      <c r="C53" s="564"/>
-      <c r="D53" s="564"/>
-      <c r="E53" s="564"/>
-      <c r="F53" s="564"/>
-      <c r="G53" s="564"/>
-      <c r="H53" s="564"/>
-      <c r="I53" s="564"/>
+      <c r="C53" s="610"/>
+      <c r="D53" s="610"/>
+      <c r="E53" s="610"/>
+      <c r="F53" s="610"/>
+      <c r="G53" s="610"/>
+      <c r="H53" s="610"/>
+      <c r="I53" s="610"/>
       <c r="J53" s="320"/>
       <c r="K53" s="393"/>
       <c r="L53" s="391" t="s">
@@ -71507,17 +71507,17 @@
       <c r="CC53" s="350"/>
     </row>
     <row r="54" spans="1:81" s="391" customFormat="1" ht="16.2">
-      <c r="B54" s="564" t="s">
+      <c r="B54" s="610" t="s">
         <v>2277</v>
       </c>
-      <c r="C54" s="564"/>
-      <c r="D54" s="564"/>
-      <c r="E54" s="564"/>
-      <c r="F54" s="564"/>
-      <c r="G54" s="564"/>
-      <c r="H54" s="564"/>
-      <c r="I54" s="564"/>
-      <c r="J54" s="564"/>
+      <c r="C54" s="610"/>
+      <c r="D54" s="610"/>
+      <c r="E54" s="610"/>
+      <c r="F54" s="610"/>
+      <c r="G54" s="610"/>
+      <c r="H54" s="610"/>
+      <c r="I54" s="610"/>
+      <c r="J54" s="610"/>
       <c r="K54" s="393"/>
       <c r="L54" s="391" t="s">
         <v>2278</v>
@@ -71583,16 +71583,16 @@
     </row>
     <row r="55" spans="1:81" s="329" customFormat="1">
       <c r="A55" s="393"/>
-      <c r="B55" s="564" t="s">
+      <c r="B55" s="610" t="s">
         <v>2279</v>
       </c>
-      <c r="C55" s="564"/>
-      <c r="D55" s="564"/>
-      <c r="E55" s="564"/>
-      <c r="F55" s="564"/>
-      <c r="G55" s="564"/>
-      <c r="H55" s="564"/>
-      <c r="I55" s="564"/>
+      <c r="C55" s="610"/>
+      <c r="D55" s="610"/>
+      <c r="E55" s="610"/>
+      <c r="F55" s="610"/>
+      <c r="G55" s="610"/>
+      <c r="H55" s="610"/>
+      <c r="I55" s="610"/>
       <c r="J55" s="320"/>
       <c r="K55" s="320"/>
       <c r="L55" s="391" t="s">
@@ -71615,10 +71615,10 @@
       <c r="AH55" s="394"/>
     </row>
     <row r="56" spans="1:81" s="391" customFormat="1" ht="16.2">
-      <c r="B56" s="562" t="s">
+      <c r="B56" s="609" t="s">
         <v>1462</v>
       </c>
-      <c r="C56" s="562"/>
+      <c r="C56" s="609"/>
       <c r="D56" s="231"/>
       <c r="E56" s="227"/>
       <c r="F56" s="227"/>
@@ -71688,10 +71688,10 @@
       <c r="CC56" s="350"/>
     </row>
     <row r="57" spans="1:81" s="391" customFormat="1">
-      <c r="B57" s="565" t="s">
+      <c r="B57" s="668" t="s">
         <v>2281</v>
       </c>
-      <c r="C57" s="565"/>
+      <c r="C57" s="668"/>
       <c r="D57" s="231"/>
       <c r="E57" s="227"/>
       <c r="F57" s="227"/>
@@ -71759,8 +71759,8 @@
       <c r="CC57" s="350"/>
     </row>
     <row r="58" spans="1:81" s="391" customFormat="1" ht="16.2">
-      <c r="B58" s="565"/>
-      <c r="C58" s="565"/>
+      <c r="B58" s="668"/>
+      <c r="C58" s="668"/>
       <c r="E58" s="350"/>
       <c r="F58" s="350"/>
       <c r="L58" s="320" t="s">
@@ -71825,16 +71825,16 @@
       <c r="CC58" s="350"/>
     </row>
     <row r="59" spans="1:81" s="391" customFormat="1" ht="16.2">
-      <c r="B59" s="562" t="s">
+      <c r="B59" s="609" t="s">
         <v>2283</v>
       </c>
-      <c r="C59" s="562"/>
-      <c r="D59" s="562"/>
-      <c r="E59" s="562"/>
-      <c r="F59" s="562"/>
-      <c r="G59" s="562"/>
-      <c r="H59" s="562"/>
-      <c r="I59" s="562"/>
+      <c r="C59" s="609"/>
+      <c r="D59" s="609"/>
+      <c r="E59" s="609"/>
+      <c r="F59" s="609"/>
+      <c r="G59" s="609"/>
+      <c r="H59" s="609"/>
+      <c r="I59" s="609"/>
       <c r="J59" s="377"/>
       <c r="K59" s="377"/>
       <c r="L59" s="228" t="s">
@@ -71899,11 +71899,11 @@
       <c r="CC59" s="350"/>
     </row>
     <row r="60" spans="1:81" s="391" customFormat="1" ht="16.2">
-      <c r="B60" s="562" t="s">
+      <c r="B60" s="609" t="s">
         <v>2285</v>
       </c>
-      <c r="C60" s="562"/>
-      <c r="D60" s="562"/>
+      <c r="C60" s="609"/>
+      <c r="D60" s="609"/>
       <c r="E60" s="329"/>
       <c r="F60" s="329"/>
       <c r="G60" s="393"/>
@@ -71973,16 +71973,16 @@
       <c r="CC60" s="350"/>
     </row>
     <row r="61" spans="1:81" s="391" customFormat="1">
-      <c r="B61" s="562" t="s">
+      <c r="B61" s="609" t="s">
         <v>2287</v>
       </c>
-      <c r="C61" s="562"/>
-      <c r="D61" s="562"/>
-      <c r="E61" s="562"/>
-      <c r="F61" s="562"/>
-      <c r="G61" s="562"/>
-      <c r="H61" s="562"/>
-      <c r="I61" s="562"/>
+      <c r="C61" s="609"/>
+      <c r="D61" s="609"/>
+      <c r="E61" s="609"/>
+      <c r="F61" s="609"/>
+      <c r="G61" s="609"/>
+      <c r="H61" s="609"/>
+      <c r="I61" s="609"/>
       <c r="J61" s="377"/>
       <c r="K61" s="377"/>
       <c r="L61" s="228"/>
@@ -72045,16 +72045,16 @@
       <c r="CC61" s="350"/>
     </row>
     <row r="62" spans="1:81" s="391" customFormat="1" ht="16.2">
-      <c r="B62" s="562" t="s">
+      <c r="B62" s="609" t="s">
         <v>2288</v>
       </c>
-      <c r="C62" s="562"/>
-      <c r="D62" s="562"/>
-      <c r="E62" s="562"/>
-      <c r="F62" s="562"/>
-      <c r="G62" s="562"/>
-      <c r="H62" s="562"/>
-      <c r="I62" s="562"/>
+      <c r="C62" s="609"/>
+      <c r="D62" s="609"/>
+      <c r="E62" s="609"/>
+      <c r="F62" s="609"/>
+      <c r="G62" s="609"/>
+      <c r="H62" s="609"/>
+      <c r="I62" s="609"/>
       <c r="J62" s="377"/>
       <c r="K62" s="377"/>
       <c r="L62" s="228" t="s">
@@ -72119,11 +72119,11 @@
       <c r="CC62" s="350"/>
     </row>
     <row r="63" spans="1:81" s="391" customFormat="1" ht="16.2">
-      <c r="B63" s="562" t="s">
+      <c r="B63" s="609" t="s">
         <v>2290</v>
       </c>
-      <c r="C63" s="562"/>
-      <c r="D63" s="562"/>
+      <c r="C63" s="609"/>
+      <c r="D63" s="609"/>
       <c r="E63" s="329"/>
       <c r="F63" s="329"/>
       <c r="G63" s="393"/>
@@ -72193,16 +72193,16 @@
       <c r="CC63" s="350"/>
     </row>
     <row r="64" spans="1:81" s="391" customFormat="1" ht="16.2">
-      <c r="B64" s="562" t="s">
+      <c r="B64" s="609" t="s">
         <v>2292</v>
       </c>
-      <c r="C64" s="562"/>
-      <c r="D64" s="562"/>
-      <c r="E64" s="562"/>
-      <c r="F64" s="562"/>
-      <c r="G64" s="562"/>
-      <c r="H64" s="562"/>
-      <c r="I64" s="562"/>
+      <c r="C64" s="609"/>
+      <c r="D64" s="609"/>
+      <c r="E64" s="609"/>
+      <c r="F64" s="609"/>
+      <c r="G64" s="609"/>
+      <c r="H64" s="609"/>
+      <c r="I64" s="609"/>
       <c r="J64" s="377"/>
       <c r="K64" s="377"/>
       <c r="L64" s="228" t="s">
@@ -72266,16 +72266,16 @@
       <c r="CC64" s="350"/>
     </row>
     <row r="65" spans="1:81" s="391" customFormat="1">
-      <c r="B65" s="562" t="s">
+      <c r="B65" s="609" t="s">
         <v>2294</v>
       </c>
-      <c r="C65" s="562"/>
-      <c r="D65" s="562"/>
-      <c r="E65" s="562"/>
-      <c r="F65" s="562"/>
-      <c r="G65" s="562"/>
-      <c r="H65" s="562"/>
-      <c r="I65" s="562"/>
+      <c r="C65" s="609"/>
+      <c r="D65" s="609"/>
+      <c r="E65" s="609"/>
+      <c r="F65" s="609"/>
+      <c r="G65" s="609"/>
+      <c r="H65" s="609"/>
+      <c r="I65" s="609"/>
       <c r="J65" s="377"/>
       <c r="K65" s="377"/>
       <c r="L65" s="228"/>
@@ -72338,15 +72338,15 @@
     </row>
     <row r="66" spans="1:81" s="329" customFormat="1" ht="16.2">
       <c r="A66" s="393"/>
-      <c r="B66" s="564" t="s">
+      <c r="B66" s="610" t="s">
         <v>2295</v>
       </c>
-      <c r="C66" s="564"/>
-      <c r="D66" s="564"/>
-      <c r="E66" s="564"/>
-      <c r="F66" s="564"/>
-      <c r="G66" s="564"/>
-      <c r="H66" s="564"/>
+      <c r="C66" s="610"/>
+      <c r="D66" s="610"/>
+      <c r="E66" s="610"/>
+      <c r="F66" s="610"/>
+      <c r="G66" s="610"/>
+      <c r="H66" s="610"/>
       <c r="I66" s="320"/>
       <c r="J66" s="320"/>
       <c r="K66" s="320"/>
@@ -72371,15 +72371,15 @@
     </row>
     <row r="67" spans="1:81" s="329" customFormat="1" ht="16.2">
       <c r="A67" s="393"/>
-      <c r="B67" s="564" t="s">
+      <c r="B67" s="610" t="s">
         <v>2297</v>
       </c>
-      <c r="C67" s="564"/>
-      <c r="D67" s="564"/>
-      <c r="E67" s="564"/>
-      <c r="F67" s="564"/>
-      <c r="G67" s="564"/>
-      <c r="H67" s="564"/>
+      <c r="C67" s="610"/>
+      <c r="D67" s="610"/>
+      <c r="E67" s="610"/>
+      <c r="F67" s="610"/>
+      <c r="G67" s="610"/>
+      <c r="H67" s="610"/>
       <c r="I67" s="320"/>
       <c r="J67" s="320"/>
       <c r="K67" s="320"/>
@@ -72404,16 +72404,16 @@
     </row>
     <row r="68" spans="1:81" s="329" customFormat="1" ht="16.2">
       <c r="A68" s="393"/>
-      <c r="B68" s="564" t="s">
+      <c r="B68" s="610" t="s">
         <v>2299</v>
       </c>
-      <c r="C68" s="564"/>
-      <c r="D68" s="564"/>
-      <c r="E68" s="564"/>
-      <c r="F68" s="564"/>
-      <c r="G68" s="564"/>
-      <c r="H68" s="564"/>
-      <c r="I68" s="564"/>
+      <c r="C68" s="610"/>
+      <c r="D68" s="610"/>
+      <c r="E68" s="610"/>
+      <c r="F68" s="610"/>
+      <c r="G68" s="610"/>
+      <c r="H68" s="610"/>
+      <c r="I68" s="610"/>
       <c r="J68" s="320"/>
       <c r="K68" s="320"/>
       <c r="L68" s="391" t="s">
@@ -72437,16 +72437,16 @@
     </row>
     <row r="69" spans="1:81" s="329" customFormat="1" ht="16.2">
       <c r="A69" s="393"/>
-      <c r="B69" s="564" t="s">
+      <c r="B69" s="610" t="s">
         <v>2301</v>
       </c>
-      <c r="C69" s="564"/>
-      <c r="D69" s="564"/>
-      <c r="E69" s="564"/>
-      <c r="F69" s="564"/>
-      <c r="G69" s="564"/>
-      <c r="H69" s="564"/>
-      <c r="I69" s="564"/>
+      <c r="C69" s="610"/>
+      <c r="D69" s="610"/>
+      <c r="E69" s="610"/>
+      <c r="F69" s="610"/>
+      <c r="G69" s="610"/>
+      <c r="H69" s="610"/>
+      <c r="I69" s="610"/>
       <c r="J69" s="320"/>
       <c r="K69" s="320"/>
       <c r="L69" s="391" t="s">
@@ -72470,16 +72470,16 @@
     </row>
     <row r="70" spans="1:81" s="329" customFormat="1">
       <c r="A70" s="393"/>
-      <c r="B70" s="564" t="s">
+      <c r="B70" s="610" t="s">
         <v>2302</v>
       </c>
-      <c r="C70" s="564"/>
-      <c r="D70" s="564"/>
-      <c r="E70" s="564"/>
-      <c r="F70" s="564"/>
-      <c r="G70" s="564"/>
-      <c r="H70" s="564"/>
-      <c r="I70" s="564"/>
+      <c r="C70" s="610"/>
+      <c r="D70" s="610"/>
+      <c r="E70" s="610"/>
+      <c r="F70" s="610"/>
+      <c r="G70" s="610"/>
+      <c r="H70" s="610"/>
+      <c r="I70" s="610"/>
       <c r="J70" s="320"/>
       <c r="K70" s="320"/>
       <c r="L70" s="391" t="s">
@@ -72503,15 +72503,15 @@
     </row>
     <row r="71" spans="1:81" s="329" customFormat="1" ht="16.2">
       <c r="A71" s="393"/>
-      <c r="B71" s="564" t="s">
+      <c r="B71" s="610" t="s">
         <v>2303</v>
       </c>
-      <c r="C71" s="564"/>
-      <c r="D71" s="564"/>
-      <c r="E71" s="564"/>
-      <c r="F71" s="564"/>
-      <c r="G71" s="564"/>
-      <c r="H71" s="564"/>
+      <c r="C71" s="610"/>
+      <c r="D71" s="610"/>
+      <c r="E71" s="610"/>
+      <c r="F71" s="610"/>
+      <c r="G71" s="610"/>
+      <c r="H71" s="610"/>
       <c r="I71" s="320"/>
       <c r="J71" s="320"/>
       <c r="K71" s="320"/>
@@ -72536,16 +72536,16 @@
     </row>
     <row r="72" spans="1:81" s="329" customFormat="1" ht="16.2">
       <c r="A72" s="393"/>
-      <c r="B72" s="564" t="s">
+      <c r="B72" s="610" t="s">
         <v>2305</v>
       </c>
-      <c r="C72" s="564"/>
-      <c r="D72" s="564"/>
-      <c r="E72" s="564"/>
-      <c r="F72" s="564"/>
-      <c r="G72" s="564"/>
-      <c r="H72" s="564"/>
-      <c r="I72" s="564"/>
+      <c r="C72" s="610"/>
+      <c r="D72" s="610"/>
+      <c r="E72" s="610"/>
+      <c r="F72" s="610"/>
+      <c r="G72" s="610"/>
+      <c r="H72" s="610"/>
+      <c r="I72" s="610"/>
       <c r="J72" s="320"/>
       <c r="K72" s="320"/>
       <c r="L72" s="391" t="s">
@@ -72569,15 +72569,15 @@
     </row>
     <row r="73" spans="1:81" s="329" customFormat="1" ht="16.2">
       <c r="A73" s="393"/>
-      <c r="B73" s="564" t="s">
+      <c r="B73" s="610" t="s">
         <v>2307</v>
       </c>
-      <c r="C73" s="564"/>
-      <c r="D73" s="564"/>
-      <c r="E73" s="564"/>
-      <c r="F73" s="564"/>
-      <c r="G73" s="564"/>
-      <c r="H73" s="564"/>
+      <c r="C73" s="610"/>
+      <c r="D73" s="610"/>
+      <c r="E73" s="610"/>
+      <c r="F73" s="610"/>
+      <c r="G73" s="610"/>
+      <c r="H73" s="610"/>
       <c r="I73" s="320"/>
       <c r="J73" s="320"/>
       <c r="K73" s="320"/>
@@ -72602,16 +72602,16 @@
     </row>
     <row r="74" spans="1:81" s="329" customFormat="1">
       <c r="A74" s="393"/>
-      <c r="B74" s="559" t="s">
+      <c r="B74" s="670" t="s">
         <v>2309</v>
       </c>
-      <c r="C74" s="559"/>
-      <c r="D74" s="559"/>
-      <c r="E74" s="559"/>
-      <c r="F74" s="559"/>
-      <c r="G74" s="559"/>
-      <c r="H74" s="559"/>
-      <c r="I74" s="559"/>
+      <c r="C74" s="670"/>
+      <c r="D74" s="670"/>
+      <c r="E74" s="670"/>
+      <c r="F74" s="670"/>
+      <c r="G74" s="670"/>
+      <c r="H74" s="670"/>
+      <c r="I74" s="670"/>
       <c r="J74" s="395"/>
       <c r="K74" s="395"/>
       <c r="L74" s="391"/>
@@ -72634,17 +72634,17 @@
     </row>
     <row r="75" spans="1:81" s="329" customFormat="1" ht="16.2">
       <c r="A75" s="393"/>
-      <c r="B75" s="559" t="s">
+      <c r="B75" s="670" t="s">
         <v>2310</v>
       </c>
-      <c r="C75" s="559"/>
-      <c r="D75" s="559"/>
-      <c r="E75" s="559"/>
-      <c r="F75" s="559"/>
-      <c r="G75" s="559"/>
-      <c r="H75" s="559"/>
-      <c r="I75" s="559"/>
-      <c r="J75" s="559"/>
+      <c r="C75" s="670"/>
+      <c r="D75" s="670"/>
+      <c r="E75" s="670"/>
+      <c r="F75" s="670"/>
+      <c r="G75" s="670"/>
+      <c r="H75" s="670"/>
+      <c r="I75" s="670"/>
+      <c r="J75" s="670"/>
       <c r="K75" s="395"/>
       <c r="L75" s="392" t="s">
         <v>2311</v>
@@ -72667,16 +72667,16 @@
     </row>
     <row r="76" spans="1:81" s="329" customFormat="1" ht="16.2">
       <c r="A76" s="393"/>
-      <c r="B76" s="559" t="s">
+      <c r="B76" s="670" t="s">
         <v>2312</v>
       </c>
-      <c r="C76" s="559"/>
-      <c r="D76" s="559"/>
-      <c r="E76" s="559"/>
-      <c r="F76" s="559"/>
-      <c r="G76" s="559"/>
-      <c r="H76" s="559"/>
-      <c r="I76" s="559"/>
+      <c r="C76" s="670"/>
+      <c r="D76" s="670"/>
+      <c r="E76" s="670"/>
+      <c r="F76" s="670"/>
+      <c r="G76" s="670"/>
+      <c r="H76" s="670"/>
+      <c r="I76" s="670"/>
       <c r="J76" s="395"/>
       <c r="K76" s="396"/>
       <c r="L76" s="392" t="s">
@@ -72700,16 +72700,16 @@
     </row>
     <row r="77" spans="1:81" s="329" customFormat="1" ht="16.2">
       <c r="A77" s="393"/>
-      <c r="B77" s="559" t="s">
+      <c r="B77" s="670" t="s">
         <v>2314</v>
       </c>
-      <c r="C77" s="559"/>
-      <c r="D77" s="559"/>
-      <c r="E77" s="559"/>
-      <c r="F77" s="559"/>
-      <c r="G77" s="559"/>
-      <c r="H77" s="559"/>
-      <c r="I77" s="559"/>
+      <c r="C77" s="670"/>
+      <c r="D77" s="670"/>
+      <c r="E77" s="670"/>
+      <c r="F77" s="670"/>
+      <c r="G77" s="670"/>
+      <c r="H77" s="670"/>
+      <c r="I77" s="670"/>
       <c r="J77" s="395"/>
       <c r="K77" s="396"/>
       <c r="L77" s="392" t="s">
@@ -72749,16 +72749,16 @@
     </row>
     <row r="79" spans="1:81" s="329" customFormat="1">
       <c r="A79" s="393"/>
-      <c r="B79" s="562" t="s">
+      <c r="B79" s="609" t="s">
         <v>2317</v>
       </c>
-      <c r="C79" s="562"/>
-      <c r="D79" s="562"/>
-      <c r="E79" s="562"/>
-      <c r="F79" s="562"/>
-      <c r="G79" s="562"/>
-      <c r="H79" s="562"/>
-      <c r="I79" s="562"/>
+      <c r="C79" s="609"/>
+      <c r="D79" s="609"/>
+      <c r="E79" s="609"/>
+      <c r="F79" s="609"/>
+      <c r="G79" s="609"/>
+      <c r="H79" s="609"/>
+      <c r="I79" s="609"/>
       <c r="J79" s="377"/>
       <c r="K79" s="377"/>
       <c r="L79" s="397"/>
@@ -72767,16 +72767,16 @@
     </row>
     <row r="80" spans="1:81" s="329" customFormat="1">
       <c r="A80" s="393"/>
-      <c r="B80" s="562" t="s">
+      <c r="B80" s="609" t="s">
         <v>2318</v>
       </c>
-      <c r="C80" s="562"/>
-      <c r="D80" s="562"/>
-      <c r="E80" s="562"/>
-      <c r="F80" s="562"/>
-      <c r="G80" s="562"/>
-      <c r="H80" s="562"/>
-      <c r="I80" s="562"/>
+      <c r="C80" s="609"/>
+      <c r="D80" s="609"/>
+      <c r="E80" s="609"/>
+      <c r="F80" s="609"/>
+      <c r="G80" s="609"/>
+      <c r="H80" s="609"/>
+      <c r="I80" s="609"/>
       <c r="J80" s="377"/>
       <c r="K80" s="377"/>
       <c r="L80" s="391"/>
@@ -72785,16 +72785,16 @@
     </row>
     <row r="81" spans="1:34" s="329" customFormat="1" ht="16.2">
       <c r="A81" s="393"/>
-      <c r="B81" s="563" t="s">
+      <c r="B81" s="673" t="s">
         <v>2319</v>
       </c>
-      <c r="C81" s="563"/>
-      <c r="D81" s="563"/>
-      <c r="E81" s="563"/>
-      <c r="F81" s="563"/>
-      <c r="G81" s="563"/>
-      <c r="H81" s="563"/>
-      <c r="I81" s="563"/>
+      <c r="C81" s="673"/>
+      <c r="D81" s="673"/>
+      <c r="E81" s="673"/>
+      <c r="F81" s="673"/>
+      <c r="G81" s="673"/>
+      <c r="H81" s="673"/>
+      <c r="I81" s="673"/>
       <c r="J81" s="398"/>
       <c r="K81" s="398"/>
       <c r="L81" s="391" t="s">
@@ -72818,16 +72818,16 @@
     </row>
     <row r="82" spans="1:34" s="329" customFormat="1">
       <c r="A82" s="393"/>
-      <c r="B82" s="559" t="s">
+      <c r="B82" s="670" t="s">
         <v>2321</v>
       </c>
-      <c r="C82" s="559"/>
-      <c r="D82" s="559"/>
-      <c r="E82" s="559"/>
-      <c r="F82" s="559"/>
-      <c r="G82" s="559"/>
-      <c r="H82" s="559"/>
-      <c r="I82" s="559"/>
+      <c r="C82" s="670"/>
+      <c r="D82" s="670"/>
+      <c r="E82" s="670"/>
+      <c r="F82" s="670"/>
+      <c r="G82" s="670"/>
+      <c r="H82" s="670"/>
+      <c r="I82" s="670"/>
       <c r="J82" s="396"/>
       <c r="K82" s="396"/>
       <c r="L82" s="392" t="s">
@@ -72851,16 +72851,16 @@
     </row>
     <row r="83" spans="1:34" s="329" customFormat="1">
       <c r="A83" s="393"/>
-      <c r="B83" s="559" t="s">
+      <c r="B83" s="670" t="s">
         <v>1086</v>
       </c>
-      <c r="C83" s="559"/>
-      <c r="D83" s="559"/>
-      <c r="E83" s="559"/>
-      <c r="F83" s="559"/>
-      <c r="G83" s="559"/>
-      <c r="H83" s="559"/>
-      <c r="I83" s="559"/>
+      <c r="C83" s="670"/>
+      <c r="D83" s="670"/>
+      <c r="E83" s="670"/>
+      <c r="F83" s="670"/>
+      <c r="G83" s="670"/>
+      <c r="H83" s="670"/>
+      <c r="I83" s="670"/>
       <c r="J83" s="396"/>
       <c r="K83" s="396"/>
       <c r="L83" s="392"/>
@@ -72882,17 +72882,17 @@
     </row>
     <row r="84" spans="1:34" s="329" customFormat="1">
       <c r="A84" s="393"/>
-      <c r="B84" s="559" t="s">
+      <c r="B84" s="670" t="s">
         <v>2322</v>
       </c>
-      <c r="C84" s="559"/>
-      <c r="D84" s="559"/>
-      <c r="E84" s="559"/>
-      <c r="F84" s="559"/>
-      <c r="G84" s="559"/>
-      <c r="H84" s="559"/>
-      <c r="I84" s="559"/>
-      <c r="J84" s="559"/>
+      <c r="C84" s="670"/>
+      <c r="D84" s="670"/>
+      <c r="E84" s="670"/>
+      <c r="F84" s="670"/>
+      <c r="G84" s="670"/>
+      <c r="H84" s="670"/>
+      <c r="I84" s="670"/>
+      <c r="J84" s="670"/>
       <c r="K84" s="396"/>
       <c r="L84" s="392" t="s">
         <v>2323</v>
@@ -72915,17 +72915,17 @@
     </row>
     <row r="85" spans="1:34" s="329" customFormat="1">
       <c r="A85" s="393"/>
-      <c r="B85" s="559" t="s">
+      <c r="B85" s="670" t="s">
         <v>2324</v>
       </c>
-      <c r="C85" s="559"/>
-      <c r="D85" s="559"/>
-      <c r="E85" s="559"/>
-      <c r="F85" s="559"/>
-      <c r="G85" s="559"/>
-      <c r="H85" s="559"/>
-      <c r="I85" s="559"/>
-      <c r="J85" s="559"/>
+      <c r="C85" s="670"/>
+      <c r="D85" s="670"/>
+      <c r="E85" s="670"/>
+      <c r="F85" s="670"/>
+      <c r="G85" s="670"/>
+      <c r="H85" s="670"/>
+      <c r="I85" s="670"/>
+      <c r="J85" s="670"/>
       <c r="K85" s="396"/>
       <c r="L85" s="392" t="s">
         <v>2325</v>
@@ -72948,17 +72948,17 @@
     </row>
     <row r="86" spans="1:34" s="329" customFormat="1">
       <c r="A86" s="393"/>
-      <c r="B86" s="559" t="s">
+      <c r="B86" s="670" t="s">
         <v>2326</v>
       </c>
-      <c r="C86" s="559"/>
-      <c r="D86" s="559"/>
-      <c r="E86" s="559"/>
-      <c r="F86" s="559"/>
-      <c r="G86" s="559"/>
-      <c r="H86" s="559"/>
-      <c r="I86" s="559"/>
-      <c r="J86" s="559"/>
+      <c r="C86" s="670"/>
+      <c r="D86" s="670"/>
+      <c r="E86" s="670"/>
+      <c r="F86" s="670"/>
+      <c r="G86" s="670"/>
+      <c r="H86" s="670"/>
+      <c r="I86" s="670"/>
+      <c r="J86" s="670"/>
       <c r="K86" s="396"/>
       <c r="L86" s="392" t="s">
         <v>2327</v>
@@ -74091,19 +74091,155 @@
     </row>
   </sheetData>
   <mergeCells count="186">
-    <mergeCell ref="Q28:S28"/>
-    <mergeCell ref="V28:AG28"/>
-    <mergeCell ref="AN28:AO28"/>
-    <mergeCell ref="AQ28:AV28"/>
-    <mergeCell ref="AY28:CB28"/>
-    <mergeCell ref="G32:M32"/>
-    <mergeCell ref="O32:P32"/>
-    <mergeCell ref="BJ32:CB32"/>
-    <mergeCell ref="Q34:S34"/>
-    <mergeCell ref="V34:AG34"/>
-    <mergeCell ref="AN34:AO34"/>
-    <mergeCell ref="AQ34:AV34"/>
-    <mergeCell ref="AY34:CB34"/>
+    <mergeCell ref="EE13:EG13"/>
+    <mergeCell ref="EJ13:EN13"/>
+    <mergeCell ref="DV14:EA14"/>
+    <mergeCell ref="EC14:ED14"/>
+    <mergeCell ref="B83:I83"/>
+    <mergeCell ref="B84:J84"/>
+    <mergeCell ref="B85:J85"/>
+    <mergeCell ref="B86:J86"/>
+    <mergeCell ref="CC9:CC11"/>
+    <mergeCell ref="B76:I76"/>
+    <mergeCell ref="B77:I77"/>
+    <mergeCell ref="B79:I79"/>
+    <mergeCell ref="B80:I80"/>
+    <mergeCell ref="B81:I81"/>
+    <mergeCell ref="B82:I82"/>
+    <mergeCell ref="B70:I70"/>
+    <mergeCell ref="B71:H71"/>
+    <mergeCell ref="B72:I72"/>
+    <mergeCell ref="B73:H73"/>
+    <mergeCell ref="B74:I74"/>
+    <mergeCell ref="B75:J75"/>
+    <mergeCell ref="B64:I64"/>
+    <mergeCell ref="B65:I65"/>
+    <mergeCell ref="B66:H66"/>
+    <mergeCell ref="B55:I55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B48:J48"/>
+    <mergeCell ref="B49:J49"/>
+    <mergeCell ref="B51:I51"/>
+    <mergeCell ref="B67:H67"/>
+    <mergeCell ref="B68:I68"/>
+    <mergeCell ref="B69:I69"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:I59"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B61:I61"/>
+    <mergeCell ref="B62:I62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B52:I52"/>
+    <mergeCell ref="B53:I53"/>
+    <mergeCell ref="B54:J54"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="F9:F11"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J10"/>
+    <mergeCell ref="N9:AM9"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="N10:N11"/>
+    <mergeCell ref="O10:O11"/>
+    <mergeCell ref="P10:P11"/>
+    <mergeCell ref="Q10:AI10"/>
+    <mergeCell ref="AJ10:AM10"/>
+    <mergeCell ref="Z12:AG12"/>
+    <mergeCell ref="Q13:S13"/>
+    <mergeCell ref="V13:AG13"/>
+    <mergeCell ref="AN13:AO13"/>
+    <mergeCell ref="BJ14:CB14"/>
+    <mergeCell ref="AP9:AX9"/>
+    <mergeCell ref="AY9:AZ9"/>
+    <mergeCell ref="BD9:BE9"/>
+    <mergeCell ref="BG9:BI9"/>
+    <mergeCell ref="BK9:BN9"/>
+    <mergeCell ref="BK10:BK11"/>
+    <mergeCell ref="AS10:AS11"/>
+    <mergeCell ref="AT10:AT11"/>
+    <mergeCell ref="AU10:AU11"/>
+    <mergeCell ref="AV10:AV11"/>
+    <mergeCell ref="AW10:AW11"/>
+    <mergeCell ref="AX10:AX11"/>
+    <mergeCell ref="BU10:BV10"/>
+    <mergeCell ref="AQ13:AV13"/>
+    <mergeCell ref="AY13:CB13"/>
+    <mergeCell ref="BL10:BL11"/>
+    <mergeCell ref="BM10:BM11"/>
+    <mergeCell ref="AP10:AP11"/>
+    <mergeCell ref="AQ10:AQ11"/>
+    <mergeCell ref="AN9:AO9"/>
+    <mergeCell ref="BN10:BN11"/>
+    <mergeCell ref="BO10:BO11"/>
+    <mergeCell ref="BP10:BP11"/>
+    <mergeCell ref="BQ10:BT10"/>
+    <mergeCell ref="AY10:AY11"/>
+    <mergeCell ref="AZ10:AZ11"/>
+    <mergeCell ref="BG10:BG11"/>
+    <mergeCell ref="BH10:BI10"/>
+    <mergeCell ref="AN10:AN11"/>
+    <mergeCell ref="AO10:AO11"/>
+    <mergeCell ref="AR10:AR11"/>
+    <mergeCell ref="BG8:BI8"/>
+    <mergeCell ref="BJ8:BJ9"/>
+    <mergeCell ref="BO8:BP8"/>
+    <mergeCell ref="BQ8:BV8"/>
+    <mergeCell ref="BY8:BY11"/>
+    <mergeCell ref="BZ8:BZ11"/>
+    <mergeCell ref="CA8:CA11"/>
+    <mergeCell ref="CB8:CB11"/>
+    <mergeCell ref="BJ10:BJ11"/>
+    <mergeCell ref="BO9:BP9"/>
+    <mergeCell ref="BQ9:BV9"/>
+    <mergeCell ref="BW9:BW11"/>
+    <mergeCell ref="BX9:BX11"/>
+    <mergeCell ref="A1:CB1"/>
+    <mergeCell ref="B2:CB2"/>
+    <mergeCell ref="B3:CB3"/>
+    <mergeCell ref="A4:CB4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:CB5"/>
+    <mergeCell ref="BK12:BM12"/>
+    <mergeCell ref="A6:CB6"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="B7:B11"/>
+    <mergeCell ref="C7:D11"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="I7:AM7"/>
+    <mergeCell ref="AN7:AX7"/>
+    <mergeCell ref="AY7:AZ7"/>
+    <mergeCell ref="BA7:BN7"/>
+    <mergeCell ref="BO7:BV7"/>
+    <mergeCell ref="BW7:CB7"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="K8:M10"/>
+    <mergeCell ref="N8:AM8"/>
+    <mergeCell ref="AU8:AV8"/>
+    <mergeCell ref="AW8:AX8"/>
+    <mergeCell ref="AY8:AZ8"/>
+    <mergeCell ref="Q16:S16"/>
+    <mergeCell ref="V16:AG16"/>
+    <mergeCell ref="AN16:AO16"/>
+    <mergeCell ref="AQ16:AV16"/>
+    <mergeCell ref="AY16:CB16"/>
+    <mergeCell ref="G17:M17"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="BJ17:CB17"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="G14:M14"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="G26:M26"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="BJ26:CB26"/>
+    <mergeCell ref="Q19:S19"/>
+    <mergeCell ref="V19:AG19"/>
+    <mergeCell ref="AN19:AO19"/>
+    <mergeCell ref="AQ19:AV19"/>
+    <mergeCell ref="AY19:CB19"/>
+    <mergeCell ref="G20:M20"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="BJ20:CB20"/>
     <mergeCell ref="G35:M35"/>
     <mergeCell ref="O35:P35"/>
     <mergeCell ref="BJ35:CB35"/>
@@ -74128,155 +74264,19 @@
     <mergeCell ref="G29:M29"/>
     <mergeCell ref="O29:P29"/>
     <mergeCell ref="BJ29:CB29"/>
-    <mergeCell ref="G26:M26"/>
-    <mergeCell ref="O26:P26"/>
-    <mergeCell ref="BJ26:CB26"/>
-    <mergeCell ref="Q19:S19"/>
-    <mergeCell ref="V19:AG19"/>
-    <mergeCell ref="AN19:AO19"/>
-    <mergeCell ref="AQ19:AV19"/>
-    <mergeCell ref="AY19:CB19"/>
-    <mergeCell ref="G20:M20"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="BJ20:CB20"/>
-    <mergeCell ref="Q16:S16"/>
-    <mergeCell ref="V16:AG16"/>
-    <mergeCell ref="AN16:AO16"/>
-    <mergeCell ref="AQ16:AV16"/>
-    <mergeCell ref="AY16:CB16"/>
-    <mergeCell ref="G17:M17"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="BJ17:CB17"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="G14:M14"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="A1:CB1"/>
-    <mergeCell ref="B2:CB2"/>
-    <mergeCell ref="B3:CB3"/>
-    <mergeCell ref="A4:CB4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:CB5"/>
-    <mergeCell ref="BK12:BM12"/>
-    <mergeCell ref="A6:CB6"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="B7:B11"/>
-    <mergeCell ref="C7:D11"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="I7:AM7"/>
-    <mergeCell ref="AN7:AX7"/>
-    <mergeCell ref="AY7:AZ7"/>
-    <mergeCell ref="BA7:BN7"/>
-    <mergeCell ref="BO7:BV7"/>
-    <mergeCell ref="BW7:CB7"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="K8:M10"/>
-    <mergeCell ref="N8:AM8"/>
-    <mergeCell ref="AU8:AV8"/>
-    <mergeCell ref="AW8:AX8"/>
-    <mergeCell ref="AY8:AZ8"/>
-    <mergeCell ref="BG8:BI8"/>
-    <mergeCell ref="BJ8:BJ9"/>
-    <mergeCell ref="BO8:BP8"/>
-    <mergeCell ref="BQ8:BV8"/>
-    <mergeCell ref="BY8:BY11"/>
-    <mergeCell ref="BZ8:BZ11"/>
-    <mergeCell ref="CA8:CA11"/>
-    <mergeCell ref="CB8:CB11"/>
-    <mergeCell ref="BJ10:BJ11"/>
-    <mergeCell ref="BO9:BP9"/>
-    <mergeCell ref="BQ9:BV9"/>
-    <mergeCell ref="BW9:BW11"/>
-    <mergeCell ref="BX9:BX11"/>
-    <mergeCell ref="AN9:AO9"/>
-    <mergeCell ref="BN10:BN11"/>
-    <mergeCell ref="BO10:BO11"/>
-    <mergeCell ref="BP10:BP11"/>
-    <mergeCell ref="BQ10:BT10"/>
-    <mergeCell ref="AY10:AY11"/>
-    <mergeCell ref="AZ10:AZ11"/>
-    <mergeCell ref="BG10:BG11"/>
-    <mergeCell ref="BH10:BI10"/>
-    <mergeCell ref="AN10:AN11"/>
-    <mergeCell ref="AO10:AO11"/>
-    <mergeCell ref="AR10:AR11"/>
-    <mergeCell ref="Z12:AG12"/>
-    <mergeCell ref="Q13:S13"/>
-    <mergeCell ref="V13:AG13"/>
-    <mergeCell ref="AN13:AO13"/>
-    <mergeCell ref="BJ14:CB14"/>
-    <mergeCell ref="AP9:AX9"/>
-    <mergeCell ref="AY9:AZ9"/>
-    <mergeCell ref="BD9:BE9"/>
-    <mergeCell ref="BG9:BI9"/>
-    <mergeCell ref="BK9:BN9"/>
-    <mergeCell ref="BK10:BK11"/>
-    <mergeCell ref="AS10:AS11"/>
-    <mergeCell ref="AT10:AT11"/>
-    <mergeCell ref="AU10:AU11"/>
-    <mergeCell ref="AV10:AV11"/>
-    <mergeCell ref="AW10:AW11"/>
-    <mergeCell ref="AX10:AX11"/>
-    <mergeCell ref="BU10:BV10"/>
-    <mergeCell ref="AQ13:AV13"/>
-    <mergeCell ref="AY13:CB13"/>
-    <mergeCell ref="BL10:BL11"/>
-    <mergeCell ref="BM10:BM11"/>
-    <mergeCell ref="AP10:AP11"/>
-    <mergeCell ref="AQ10:AQ11"/>
-    <mergeCell ref="E9:E11"/>
-    <mergeCell ref="F9:F11"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J10"/>
-    <mergeCell ref="N9:AM9"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="N10:N11"/>
-    <mergeCell ref="O10:O11"/>
-    <mergeCell ref="P10:P11"/>
-    <mergeCell ref="Q10:AI10"/>
-    <mergeCell ref="AJ10:AM10"/>
-    <mergeCell ref="B55:I55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B48:J48"/>
-    <mergeCell ref="B49:J49"/>
-    <mergeCell ref="B51:I51"/>
-    <mergeCell ref="B67:H67"/>
-    <mergeCell ref="B68:I68"/>
-    <mergeCell ref="B69:I69"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:I59"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B61:I61"/>
-    <mergeCell ref="B62:I62"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B52:I52"/>
-    <mergeCell ref="B53:I53"/>
-    <mergeCell ref="B54:J54"/>
-    <mergeCell ref="EE13:EG13"/>
-    <mergeCell ref="EJ13:EN13"/>
-    <mergeCell ref="DV14:EA14"/>
-    <mergeCell ref="EC14:ED14"/>
-    <mergeCell ref="B83:I83"/>
-    <mergeCell ref="B84:J84"/>
-    <mergeCell ref="B85:J85"/>
-    <mergeCell ref="B86:J86"/>
-    <mergeCell ref="CC9:CC11"/>
-    <mergeCell ref="B76:I76"/>
-    <mergeCell ref="B77:I77"/>
-    <mergeCell ref="B79:I79"/>
-    <mergeCell ref="B80:I80"/>
-    <mergeCell ref="B81:I81"/>
-    <mergeCell ref="B82:I82"/>
-    <mergeCell ref="B70:I70"/>
-    <mergeCell ref="B71:H71"/>
-    <mergeCell ref="B72:I72"/>
-    <mergeCell ref="B73:H73"/>
-    <mergeCell ref="B74:I74"/>
-    <mergeCell ref="B75:J75"/>
-    <mergeCell ref="B64:I64"/>
-    <mergeCell ref="B65:I65"/>
-    <mergeCell ref="B66:H66"/>
+    <mergeCell ref="Q28:S28"/>
+    <mergeCell ref="V28:AG28"/>
+    <mergeCell ref="AN28:AO28"/>
+    <mergeCell ref="AQ28:AV28"/>
+    <mergeCell ref="AY28:CB28"/>
+    <mergeCell ref="G32:M32"/>
+    <mergeCell ref="O32:P32"/>
+    <mergeCell ref="BJ32:CB32"/>
+    <mergeCell ref="Q34:S34"/>
+    <mergeCell ref="V34:AG34"/>
+    <mergeCell ref="AN34:AO34"/>
+    <mergeCell ref="AQ34:AV34"/>
+    <mergeCell ref="AY34:CB34"/>
   </mergeCells>
   <phoneticPr fontId="136" type="noConversion"/>
   <hyperlinks>
